--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,18 @@
     <t>['45', '65']</t>
   </si>
   <si>
+    <t>['9', '48']</t>
+  </si>
+  <si>
+    <t>['41', '62']</t>
+  </si>
+  <si>
+    <t>['73', '81']</t>
+  </si>
+  <si>
+    <t>['5', '12']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -806,6 +818,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['4', '43']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1426,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1501,7 +1516,7 @@
         <v>0.9</v>
       </c>
       <c r="AT2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1689,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1880,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1984,7 +1999,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2265,7 +2280,7 @@
         <v>0.64</v>
       </c>
       <c r="AT6">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2366,7 +2381,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2453,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2557,7 +2572,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2748,7 +2763,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2835,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT9">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3026,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT10">
         <v>1.33</v>
@@ -3130,7 +3145,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3408,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3512,7 +3527,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3602,7 +3617,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3703,7 +3718,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3894,7 +3909,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4085,7 +4100,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4276,7 +4291,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4554,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4849,7 +4864,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5318,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5509,10 +5524,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT23">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5613,7 +5628,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5700,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT24">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5804,7 +5819,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5995,7 +6010,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6082,7 +6097,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6377,7 +6392,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6464,7 +6479,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6658,7 +6673,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6759,7 +6774,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6849,7 +6864,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6950,7 +6965,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7037,10 +7052,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7141,7 +7156,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7332,7 +7347,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7523,7 +7538,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7613,7 +7628,7 @@
         <v>0.9</v>
       </c>
       <c r="AT34">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7714,7 +7729,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7905,7 +7920,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8287,7 +8302,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8374,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8478,7 +8493,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8565,7 +8580,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT39">
         <v>0.92</v>
@@ -8756,7 +8771,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT40">
         <v>2.1</v>
@@ -8860,7 +8875,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8950,7 +8965,7 @@
         <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9051,7 +9066,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9242,7 +9257,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9332,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9520,10 +9535,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9815,7 +9830,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9905,7 +9920,7 @@
         <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10006,7 +10021,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10093,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT47">
         <v>1.22</v>
@@ -10284,7 +10299,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT48">
         <v>0.92</v>
@@ -10388,7 +10403,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10475,7 +10490,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10857,7 +10872,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT51">
         <v>1.22</v>
@@ -11239,7 +11254,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11343,7 +11358,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11430,7 +11445,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
         <v>1.9</v>
@@ -11534,7 +11549,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11624,7 +11639,7 @@
         <v>1.2</v>
       </c>
       <c r="AT55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12006,7 +12021,7 @@
         <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12194,10 +12209,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12576,7 +12591,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -12961,7 +12976,7 @@
         <v>1.11</v>
       </c>
       <c r="AT62">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13149,7 +13164,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13253,7 +13268,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13343,7 +13358,7 @@
         <v>1.17</v>
       </c>
       <c r="AT64">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13444,7 +13459,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13635,7 +13650,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13722,10 +13737,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT66">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13913,7 +13928,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14104,7 +14119,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT68">
         <v>1.09</v>
@@ -14298,7 +14313,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -14781,7 +14796,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14972,7 +14987,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15632,7 +15647,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15736,7 +15751,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15826,7 +15841,7 @@
         <v>0.64</v>
       </c>
       <c r="AT77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -16205,7 +16220,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT79">
         <v>1.33</v>
@@ -16309,7 +16324,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16396,10 +16411,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT80">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -16500,7 +16515,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16590,7 +16605,7 @@
         <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -16778,10 +16793,10 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT82">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU82">
         <v>0</v>
@@ -17160,10 +17175,10 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT84">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17646,7 +17661,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17733,7 +17748,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT87">
         <v>2.1</v>
@@ -17837,7 +17852,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18028,7 +18043,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18306,10 +18321,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18410,7 +18425,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18500,7 +18515,7 @@
         <v>0.64</v>
       </c>
       <c r="AT91">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU91">
         <v>0</v>
@@ -18601,7 +18616,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18879,7 +18894,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT93">
         <v>0.92</v>
@@ -18983,7 +18998,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19073,7 +19088,7 @@
         <v>1.11</v>
       </c>
       <c r="AT94">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19174,7 +19189,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19365,7 +19380,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19452,7 +19467,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -19556,7 +19571,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19747,7 +19762,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20025,10 +20040,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT99">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20129,7 +20144,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20598,7 +20613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20702,7 +20717,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20789,7 +20804,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT103">
         <v>1.9</v>
@@ -20893,7 +20908,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21174,7 +21189,7 @@
         <v>0.9</v>
       </c>
       <c r="AT105">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -21275,7 +21290,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21362,10 +21377,10 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT106">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21466,7 +21481,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21556,7 +21571,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21657,7 +21672,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21744,7 +21759,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT108">
         <v>0.92</v>
@@ -21848,7 +21863,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21938,7 +21953,7 @@
         <v>1.17</v>
       </c>
       <c r="AT109">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -22039,7 +22054,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22126,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT110">
         <v>1.09</v>
@@ -22230,7 +22245,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22421,7 +22436,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22612,7 +22627,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23081,7 +23096,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -23272,7 +23287,7 @@
         <v>2.43</v>
       </c>
       <c r="AS116">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT116">
         <v>2.1</v>
@@ -23376,7 +23391,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23567,7 +23582,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23758,7 +23773,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23949,7 +23964,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24039,7 +24054,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24230,7 +24245,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24331,7 +24346,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24418,10 +24433,10 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT122">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24522,7 +24537,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24904,7 +24919,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24994,7 +25009,7 @@
         <v>1</v>
       </c>
       <c r="AT125">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU125">
         <v>0.65</v>
@@ -25095,7 +25110,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25286,7 +25301,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25373,10 +25388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT127">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU127">
         <v>0.95</v>
@@ -25567,7 +25582,7 @@
         <v>1.75</v>
       </c>
       <c r="AT128">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU128">
         <v>1.2</v>
@@ -25668,7 +25683,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26050,7 +26065,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26137,7 +26152,7 @@
         <v>0.88</v>
       </c>
       <c r="AS131">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26710,7 +26725,7 @@
         <v>0.89</v>
       </c>
       <c r="AS134">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT134">
         <v>0.92</v>
@@ -26904,7 +26919,7 @@
         <v>0.9</v>
       </c>
       <c r="AT135">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU135">
         <v>1.05</v>
@@ -27005,7 +27020,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27092,7 +27107,7 @@
         <v>0.63</v>
       </c>
       <c r="AS136">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27283,7 +27298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS137">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT137">
         <v>2.1</v>
@@ -27474,7 +27489,7 @@
         <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT138">
         <v>1.09</v>
@@ -27578,7 +27593,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27668,7 +27683,7 @@
         <v>1.17</v>
       </c>
       <c r="AT139">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27769,7 +27784,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27856,7 +27871,7 @@
         <v>1.88</v>
       </c>
       <c r="AS140">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT140">
         <v>1.9</v>
@@ -27960,7 +27975,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28050,7 +28065,7 @@
         <v>1.18</v>
       </c>
       <c r="AT141">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28342,7 +28357,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28432,7 +28447,7 @@
         <v>1.4</v>
       </c>
       <c r="AT143">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU143">
         <v>1.5</v>
@@ -28724,7 +28739,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28814,7 +28829,7 @@
         <v>0.64</v>
       </c>
       <c r="AT145">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU145">
         <v>1.28</v>
@@ -29002,7 +29017,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29387,7 +29402,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU148">
         <v>2.31</v>
@@ -29578,7 +29593,7 @@
         <v>1.11</v>
       </c>
       <c r="AT149">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU149">
         <v>1.09</v>
@@ -29766,7 +29781,7 @@
         <v>0.78</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -29870,7 +29885,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29957,7 +29972,7 @@
         <v>0.8</v>
       </c>
       <c r="AS151">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT151">
         <v>0.92</v>
@@ -30148,7 +30163,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT152">
         <v>1.22</v>
@@ -30339,10 +30354,10 @@
         <v>0.63</v>
       </c>
       <c r="AS153">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AT153">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU153">
         <v>0</v>
@@ -30443,7 +30458,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31016,7 +31031,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31103,10 +31118,10 @@
         <v>0.8</v>
       </c>
       <c r="AS157">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT157">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU157">
         <v>1.37</v>
@@ -31207,7 +31222,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31589,7 +31604,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31780,7 +31795,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31922,6 +31937,1152 @@
       </c>
       <c r="BK161">
         <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6156143</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45121.83333333334</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>187</v>
+      </c>
+      <c r="P162" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q162">
+        <v>11</v>
+      </c>
+      <c r="R162">
+        <v>6</v>
+      </c>
+      <c r="S162">
+        <v>17</v>
+      </c>
+      <c r="T162">
+        <v>2.4</v>
+      </c>
+      <c r="U162">
+        <v>2.05</v>
+      </c>
+      <c r="V162">
+        <v>4.5</v>
+      </c>
+      <c r="W162">
+        <v>1.4</v>
+      </c>
+      <c r="X162">
+        <v>2.75</v>
+      </c>
+      <c r="Y162">
+        <v>2.75</v>
+      </c>
+      <c r="Z162">
+        <v>1.4</v>
+      </c>
+      <c r="AA162">
+        <v>7</v>
+      </c>
+      <c r="AB162">
+        <v>1.08</v>
+      </c>
+      <c r="AC162">
+        <v>1.9</v>
+      </c>
+      <c r="AD162">
+        <v>3.05</v>
+      </c>
+      <c r="AE162">
+        <v>3.75</v>
+      </c>
+      <c r="AF162">
+        <v>1.07</v>
+      </c>
+      <c r="AG162">
+        <v>7.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.36</v>
+      </c>
+      <c r="AI162">
+        <v>3</v>
+      </c>
+      <c r="AJ162">
+        <v>2.04</v>
+      </c>
+      <c r="AK162">
+        <v>1.59</v>
+      </c>
+      <c r="AL162">
+        <v>1.91</v>
+      </c>
+      <c r="AM162">
+        <v>1.8</v>
+      </c>
+      <c r="AN162">
+        <v>1.2</v>
+      </c>
+      <c r="AO162">
+        <v>1.3</v>
+      </c>
+      <c r="AP162">
+        <v>1.85</v>
+      </c>
+      <c r="AQ162">
+        <v>1.7</v>
+      </c>
+      <c r="AR162">
+        <v>0.64</v>
+      </c>
+      <c r="AS162">
+        <v>1.82</v>
+      </c>
+      <c r="AT162">
+        <v>0.58</v>
+      </c>
+      <c r="AU162">
+        <v>1.92</v>
+      </c>
+      <c r="AV162">
+        <v>1.06</v>
+      </c>
+      <c r="AW162">
+        <v>2.98</v>
+      </c>
+      <c r="AX162">
+        <v>1.7</v>
+      </c>
+      <c r="AY162">
+        <v>8.4</v>
+      </c>
+      <c r="AZ162">
+        <v>2.55</v>
+      </c>
+      <c r="BA162">
+        <v>1.23</v>
+      </c>
+      <c r="BB162">
+        <v>1.41</v>
+      </c>
+      <c r="BC162">
+        <v>1.8</v>
+      </c>
+      <c r="BD162">
+        <v>2.22</v>
+      </c>
+      <c r="BE162">
+        <v>2.9</v>
+      </c>
+      <c r="BF162">
+        <v>7</v>
+      </c>
+      <c r="BG162">
+        <v>2</v>
+      </c>
+      <c r="BH162">
+        <v>3</v>
+      </c>
+      <c r="BI162">
+        <v>2</v>
+      </c>
+      <c r="BJ162">
+        <v>10</v>
+      </c>
+      <c r="BK162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6156148</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45122.52083333334</v>
+      </c>
+      <c r="F163">
+        <v>6</v>
+      </c>
+      <c r="G163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H163" t="s">
+        <v>71</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>188</v>
+      </c>
+      <c r="P163" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q163">
+        <v>8</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>2.35</v>
+      </c>
+      <c r="V163">
+        <v>5</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>3.25</v>
+      </c>
+      <c r="Y163">
+        <v>2.55</v>
+      </c>
+      <c r="Z163">
+        <v>1.46</v>
+      </c>
+      <c r="AA163">
+        <v>5.5</v>
+      </c>
+      <c r="AB163">
+        <v>1.12</v>
+      </c>
+      <c r="AC163">
+        <v>1.45</v>
+      </c>
+      <c r="AD163">
+        <v>3.95</v>
+      </c>
+      <c r="AE163">
+        <v>5.75</v>
+      </c>
+      <c r="AF163">
+        <v>1.04</v>
+      </c>
+      <c r="AG163">
+        <v>10</v>
+      </c>
+      <c r="AH163">
+        <v>1.22</v>
+      </c>
+      <c r="AI163">
+        <v>4</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>1.95</v>
+      </c>
+      <c r="AL163">
+        <v>1.83</v>
+      </c>
+      <c r="AM163">
+        <v>1.9</v>
+      </c>
+      <c r="AN163">
+        <v>1.09</v>
+      </c>
+      <c r="AO163">
+        <v>1.16</v>
+      </c>
+      <c r="AP163">
+        <v>2.35</v>
+      </c>
+      <c r="AQ163">
+        <v>2.5</v>
+      </c>
+      <c r="AR163">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS163">
+        <v>2.36</v>
+      </c>
+      <c r="AT163">
+        <v>0.6</v>
+      </c>
+      <c r="AU163">
+        <v>1.67</v>
+      </c>
+      <c r="AV163">
+        <v>1.13</v>
+      </c>
+      <c r="AW163">
+        <v>2.8</v>
+      </c>
+      <c r="AX163">
+        <v>1.41</v>
+      </c>
+      <c r="AY163">
+        <v>9.6</v>
+      </c>
+      <c r="AZ163">
+        <v>3.42</v>
+      </c>
+      <c r="BA163">
+        <v>1.21</v>
+      </c>
+      <c r="BB163">
+        <v>1.4</v>
+      </c>
+      <c r="BC163">
+        <v>1.74</v>
+      </c>
+      <c r="BD163">
+        <v>2.14</v>
+      </c>
+      <c r="BE163">
+        <v>2.7</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
+        <v>3</v>
+      </c>
+      <c r="BH163">
+        <v>7</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>13</v>
+      </c>
+      <c r="BK163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6156147</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>65</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>189</v>
+      </c>
+      <c r="P164" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>6</v>
+      </c>
+      <c r="T164">
+        <v>2.85</v>
+      </c>
+      <c r="U164">
+        <v>2.05</v>
+      </c>
+      <c r="V164">
+        <v>3.5</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>2.75</v>
+      </c>
+      <c r="Y164">
+        <v>2.75</v>
+      </c>
+      <c r="Z164">
+        <v>1.4</v>
+      </c>
+      <c r="AA164">
+        <v>6.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.08</v>
+      </c>
+      <c r="AC164">
+        <v>2.15</v>
+      </c>
+      <c r="AD164">
+        <v>3.2</v>
+      </c>
+      <c r="AE164">
+        <v>2.85</v>
+      </c>
+      <c r="AF164">
+        <v>1.05</v>
+      </c>
+      <c r="AG164">
+        <v>11</v>
+      </c>
+      <c r="AH164">
+        <v>1.3</v>
+      </c>
+      <c r="AI164">
+        <v>3.3</v>
+      </c>
+      <c r="AJ164">
+        <v>1.9</v>
+      </c>
+      <c r="AK164">
+        <v>1.77</v>
+      </c>
+      <c r="AL164">
+        <v>1.75</v>
+      </c>
+      <c r="AM164">
+        <v>2</v>
+      </c>
+      <c r="AN164">
+        <v>1.3</v>
+      </c>
+      <c r="AO164">
+        <v>1.25</v>
+      </c>
+      <c r="AP164">
+        <v>1.53</v>
+      </c>
+      <c r="AQ164">
+        <v>1.64</v>
+      </c>
+      <c r="AR164">
+        <v>1.3</v>
+      </c>
+      <c r="AS164">
+        <v>1.75</v>
+      </c>
+      <c r="AT164">
+        <v>1.18</v>
+      </c>
+      <c r="AU164">
+        <v>1.38</v>
+      </c>
+      <c r="AV164">
+        <v>1.06</v>
+      </c>
+      <c r="AW164">
+        <v>2.44</v>
+      </c>
+      <c r="AX164">
+        <v>1.78</v>
+      </c>
+      <c r="AY164">
+        <v>8.9</v>
+      </c>
+      <c r="AZ164">
+        <v>2.32</v>
+      </c>
+      <c r="BA164">
+        <v>1.25</v>
+      </c>
+      <c r="BB164">
+        <v>1.5</v>
+      </c>
+      <c r="BC164">
+        <v>1.82</v>
+      </c>
+      <c r="BD164">
+        <v>2.23</v>
+      </c>
+      <c r="BE164">
+        <v>2.9</v>
+      </c>
+      <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>1</v>
+      </c>
+      <c r="BI164">
+        <v>5</v>
+      </c>
+      <c r="BJ164">
+        <v>6</v>
+      </c>
+      <c r="BK164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6156146</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s">
+        <v>73</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>81</v>
+      </c>
+      <c r="P165" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q165">
+        <v>5</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>16</v>
+      </c>
+      <c r="T165">
+        <v>1.95</v>
+      </c>
+      <c r="U165">
+        <v>2.3</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165">
+        <v>2.65</v>
+      </c>
+      <c r="Z165">
+        <v>1.43</v>
+      </c>
+      <c r="AA165">
+        <v>6.55</v>
+      </c>
+      <c r="AB165">
+        <v>1.09</v>
+      </c>
+      <c r="AC165">
+        <v>1.53</v>
+      </c>
+      <c r="AD165">
+        <v>3.9</v>
+      </c>
+      <c r="AE165">
+        <v>5</v>
+      </c>
+      <c r="AF165">
+        <v>1.01</v>
+      </c>
+      <c r="AG165">
+        <v>9.9</v>
+      </c>
+      <c r="AH165">
+        <v>1.25</v>
+      </c>
+      <c r="AI165">
+        <v>3.75</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>1.9</v>
+      </c>
+      <c r="AL165">
+        <v>2</v>
+      </c>
+      <c r="AM165">
+        <v>1.75</v>
+      </c>
+      <c r="AN165">
+        <v>1.06</v>
+      </c>
+      <c r="AO165">
+        <v>1.16</v>
+      </c>
+      <c r="AP165">
+        <v>2.7</v>
+      </c>
+      <c r="AQ165">
+        <v>2.78</v>
+      </c>
+      <c r="AR165">
+        <v>0.73</v>
+      </c>
+      <c r="AS165">
+        <v>2.5</v>
+      </c>
+      <c r="AT165">
+        <v>0.92</v>
+      </c>
+      <c r="AU165">
+        <v>2.19</v>
+      </c>
+      <c r="AV165">
+        <v>1.46</v>
+      </c>
+      <c r="AW165">
+        <v>3.65</v>
+      </c>
+      <c r="AX165">
+        <v>1.39</v>
+      </c>
+      <c r="AY165">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ165">
+        <v>3.52</v>
+      </c>
+      <c r="BA165">
+        <v>1.21</v>
+      </c>
+      <c r="BB165">
+        <v>1.4</v>
+      </c>
+      <c r="BC165">
+        <v>1.74</v>
+      </c>
+      <c r="BD165">
+        <v>2.14</v>
+      </c>
+      <c r="BE165">
+        <v>2.7</v>
+      </c>
+      <c r="BF165">
+        <v>7</v>
+      </c>
+      <c r="BG165">
+        <v>6</v>
+      </c>
+      <c r="BH165">
+        <v>2</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>9</v>
+      </c>
+      <c r="BK165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6156145</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45123.5</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H166" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>81</v>
+      </c>
+      <c r="P166" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q166">
+        <v>7</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>2.7</v>
+      </c>
+      <c r="U166">
+        <v>2.1</v>
+      </c>
+      <c r="V166">
+        <v>3.5</v>
+      </c>
+      <c r="W166">
+        <v>1.37</v>
+      </c>
+      <c r="X166">
+        <v>2.85</v>
+      </c>
+      <c r="Y166">
+        <v>2.65</v>
+      </c>
+      <c r="Z166">
+        <v>1.41</v>
+      </c>
+      <c r="AA166">
+        <v>6.75</v>
+      </c>
+      <c r="AB166">
+        <v>1.09</v>
+      </c>
+      <c r="AC166">
+        <v>2.24</v>
+      </c>
+      <c r="AD166">
+        <v>3.3</v>
+      </c>
+      <c r="AE166">
+        <v>2.71</v>
+      </c>
+      <c r="AF166">
+        <v>1.05</v>
+      </c>
+      <c r="AG166">
+        <v>9</v>
+      </c>
+      <c r="AH166">
+        <v>1.29</v>
+      </c>
+      <c r="AI166">
+        <v>3.5</v>
+      </c>
+      <c r="AJ166">
+        <v>1.83</v>
+      </c>
+      <c r="AK166">
+        <v>1.93</v>
+      </c>
+      <c r="AL166">
+        <v>1.7</v>
+      </c>
+      <c r="AM166">
+        <v>2</v>
+      </c>
+      <c r="AN166">
+        <v>1.25</v>
+      </c>
+      <c r="AO166">
+        <v>1.29</v>
+      </c>
+      <c r="AP166">
+        <v>1.65</v>
+      </c>
+      <c r="AQ166">
+        <v>1.78</v>
+      </c>
+      <c r="AR166">
+        <v>1</v>
+      </c>
+      <c r="AS166">
+        <v>1.7</v>
+      </c>
+      <c r="AT166">
+        <v>1</v>
+      </c>
+      <c r="AU166">
+        <v>1.09</v>
+      </c>
+      <c r="AV166">
+        <v>1.24</v>
+      </c>
+      <c r="AW166">
+        <v>2.33</v>
+      </c>
+      <c r="AX166">
+        <v>1.81</v>
+      </c>
+      <c r="AY166">
+        <v>8.6</v>
+      </c>
+      <c r="AZ166">
+        <v>2.29</v>
+      </c>
+      <c r="BA166">
+        <v>1.26</v>
+      </c>
+      <c r="BB166">
+        <v>1.57</v>
+      </c>
+      <c r="BC166">
+        <v>1.91</v>
+      </c>
+      <c r="BD166">
+        <v>2.37</v>
+      </c>
+      <c r="BE166">
+        <v>3.2</v>
+      </c>
+      <c r="BF166">
+        <v>3</v>
+      </c>
+      <c r="BG166">
+        <v>3</v>
+      </c>
+      <c r="BH166">
+        <v>3</v>
+      </c>
+      <c r="BI166">
+        <v>1</v>
+      </c>
+      <c r="BJ166">
+        <v>6</v>
+      </c>
+      <c r="BK166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6156142</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>66</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>190</v>
+      </c>
+      <c r="P167" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>4</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>2.1</v>
+      </c>
+      <c r="U167">
+        <v>2.15</v>
+      </c>
+      <c r="V167">
+        <v>6</v>
+      </c>
+      <c r="W167">
+        <v>1.42</v>
+      </c>
+      <c r="X167">
+        <v>2.7</v>
+      </c>
+      <c r="Y167">
+        <v>2.85</v>
+      </c>
+      <c r="Z167">
+        <v>1.38</v>
+      </c>
+      <c r="AA167">
+        <v>6.75</v>
+      </c>
+      <c r="AB167">
+        <v>1.07</v>
+      </c>
+      <c r="AC167">
+        <v>1.51</v>
+      </c>
+      <c r="AD167">
+        <v>3.75</v>
+      </c>
+      <c r="AE167">
+        <v>5.4</v>
+      </c>
+      <c r="AF167">
+        <v>1.05</v>
+      </c>
+      <c r="AG167">
+        <v>11</v>
+      </c>
+      <c r="AH167">
+        <v>1.31</v>
+      </c>
+      <c r="AI167">
+        <v>3.15</v>
+      </c>
+      <c r="AJ167">
+        <v>1.98</v>
+      </c>
+      <c r="AK167">
+        <v>1.78</v>
+      </c>
+      <c r="AL167">
+        <v>2.05</v>
+      </c>
+      <c r="AM167">
+        <v>1.68</v>
+      </c>
+      <c r="AN167">
+        <v>1.12</v>
+      </c>
+      <c r="AO167">
+        <v>1.2</v>
+      </c>
+      <c r="AP167">
+        <v>2.4</v>
+      </c>
+      <c r="AQ167">
+        <v>2.36</v>
+      </c>
+      <c r="AR167">
+        <v>0.9</v>
+      </c>
+      <c r="AS167">
+        <v>2.42</v>
+      </c>
+      <c r="AT167">
+        <v>0.82</v>
+      </c>
+      <c r="AU167">
+        <v>1.28</v>
+      </c>
+      <c r="AV167">
+        <v>1.62</v>
+      </c>
+      <c r="AW167">
+        <v>2.9</v>
+      </c>
+      <c r="AX167">
+        <v>1.39</v>
+      </c>
+      <c r="AY167">
+        <v>9.6</v>
+      </c>
+      <c r="AZ167">
+        <v>3.55</v>
+      </c>
+      <c r="BA167">
+        <v>1.26</v>
+      </c>
+      <c r="BB167">
+        <v>1.57</v>
+      </c>
+      <c r="BC167">
+        <v>1.92</v>
+      </c>
+      <c r="BD167">
+        <v>2.37</v>
+      </c>
+      <c r="BE167">
+        <v>3.28</v>
+      </c>
+      <c r="BF167">
+        <v>6</v>
+      </c>
+      <c r="BG167">
+        <v>4</v>
+      </c>
+      <c r="BH167">
+        <v>4</v>
+      </c>
+      <c r="BI167">
+        <v>3</v>
+      </c>
+      <c r="BJ167">
+        <v>10</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,7 +586,10 @@
     <t>['73', '81']</t>
   </si>
   <si>
-    <t>['5', '12']</t>
+    <t>['3', '11']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -821,6 +824,9 @@
   </si>
   <si>
     <t>['4', '43']</t>
+  </si>
+  <si>
+    <t>['-1', '-1']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1707,7 +1713,7 @@
         <v>2.42</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1999,7 +2005,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2381,7 +2387,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2572,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2763,7 +2769,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3145,7 +3151,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3235,7 +3241,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3527,7 +3533,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3614,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT13">
         <v>1.18</v>
@@ -3718,7 +3724,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3808,7 +3814,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3909,7 +3915,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4100,7 +4106,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4291,7 +4297,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4864,7 +4870,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5628,7 +5634,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5819,7 +5825,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6010,7 +6016,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6100,7 +6106,7 @@
         <v>1.7</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6392,7 +6398,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6774,7 +6780,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6861,7 +6867,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT30">
         <v>0.82</v>
@@ -6965,7 +6971,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7156,7 +7162,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7246,7 +7252,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7347,7 +7353,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7538,7 +7544,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7729,7 +7735,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7920,7 +7926,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8302,7 +8308,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8493,7 +8499,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8875,7 +8881,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9066,7 +9072,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9257,7 +9263,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9729,7 +9735,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9830,7 +9836,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10021,7 +10027,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10111,7 +10117,7 @@
         <v>2.42</v>
       </c>
       <c r="AT47">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10403,7 +10409,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10875,7 +10881,7 @@
         <v>2.36</v>
       </c>
       <c r="AT51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11063,7 +11069,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT52">
         <v>1.09</v>
@@ -11358,7 +11364,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11549,7 +11555,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12785,7 +12791,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -13268,7 +13274,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13459,7 +13465,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13650,7 +13656,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14310,7 +14316,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT69">
         <v>0.92</v>
@@ -14796,7 +14802,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14987,7 +14993,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15077,7 +15083,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15650,7 +15656,7 @@
         <v>1.82</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -15751,7 +15757,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16324,7 +16330,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16515,7 +16521,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17661,7 +17667,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17852,7 +17858,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17942,7 +17948,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -18043,7 +18049,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18425,7 +18431,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18616,7 +18622,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18998,7 +19004,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19189,7 +19195,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19380,7 +19386,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19470,7 +19476,7 @@
         <v>2.36</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19571,7 +19577,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19762,7 +19768,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20144,7 +20150,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20717,7 +20723,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20908,7 +20914,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20995,10 +21001,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT104">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21290,7 +21296,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21481,7 +21487,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21672,7 +21678,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21863,7 +21869,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22054,7 +22060,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22245,7 +22251,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22436,7 +22442,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22526,7 +22532,7 @@
         <v>1.18</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>0</v>
@@ -22627,7 +22633,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22905,7 +22911,7 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -23391,7 +23397,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23582,7 +23588,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23773,7 +23779,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23964,7 +23970,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24346,7 +24352,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24537,7 +24543,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24919,7 +24925,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25110,7 +25116,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25301,7 +25307,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25579,7 +25585,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT128">
         <v>0.92</v>
@@ -25683,7 +25689,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25964,7 +25970,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26065,7 +26071,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26346,7 +26352,7 @@
         <v>1.11</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU132">
         <v>0.99</v>
@@ -27020,7 +27026,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27593,7 +27599,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27784,7 +27790,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27975,7 +27981,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28357,7 +28363,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28635,7 +28641,7 @@
         <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT144">
         <v>1.33</v>
@@ -28739,7 +28745,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29784,7 +29790,7 @@
         <v>1.75</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU150">
         <v>1.52</v>
@@ -29885,7 +29891,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30166,7 +30172,7 @@
         <v>2.42</v>
       </c>
       <c r="AT152">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU152">
         <v>1.16</v>
@@ -30458,7 +30464,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31031,7 +31037,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31222,7 +31228,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31604,7 +31610,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31795,7 +31801,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32177,7 +32183,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32371,13 +32377,13 @@
         <v>81</v>
       </c>
       <c r="Q164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R164">
         <v>3</v>
       </c>
       <c r="S164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T164">
         <v>2.85</v>
@@ -33067,22 +33073,404 @@
         <v>3.28</v>
       </c>
       <c r="BF167">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG167">
         <v>4</v>
       </c>
       <c r="BH167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI167">
         <v>3</v>
       </c>
       <c r="BJ167">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK167">
         <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6156144</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45123.75</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s">
+        <v>69</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>158</v>
+      </c>
+      <c r="P168" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>7</v>
+      </c>
+      <c r="S168">
+        <v>9</v>
+      </c>
+      <c r="T168">
+        <v>2.88</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>3.6</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>2.62</v>
+      </c>
+      <c r="Y168">
+        <v>3</v>
+      </c>
+      <c r="Z168">
+        <v>1.36</v>
+      </c>
+      <c r="AA168">
+        <v>7.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.07</v>
+      </c>
+      <c r="AC168">
+        <v>1.91</v>
+      </c>
+      <c r="AD168">
+        <v>3.3</v>
+      </c>
+      <c r="AE168">
+        <v>3.6</v>
+      </c>
+      <c r="AF168">
+        <v>1.07</v>
+      </c>
+      <c r="AG168">
+        <v>7.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.33</v>
+      </c>
+      <c r="AI168">
+        <v>3.25</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>1.7</v>
+      </c>
+      <c r="AL168">
+        <v>1.8</v>
+      </c>
+      <c r="AM168">
+        <v>1.91</v>
+      </c>
+      <c r="AN168">
+        <v>1.3</v>
+      </c>
+      <c r="AO168">
+        <v>1.33</v>
+      </c>
+      <c r="AP168">
+        <v>1.62</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.22</v>
+      </c>
+      <c r="AS168">
+        <v>1</v>
+      </c>
+      <c r="AT168">
+        <v>1.2</v>
+      </c>
+      <c r="AU168">
+        <v>1.22</v>
+      </c>
+      <c r="AV168">
+        <v>0.8</v>
+      </c>
+      <c r="AW168">
+        <v>2.02</v>
+      </c>
+      <c r="AX168">
+        <v>1.96</v>
+      </c>
+      <c r="AY168">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ168">
+        <v>2.08</v>
+      </c>
+      <c r="BA168">
+        <v>1.24</v>
+      </c>
+      <c r="BB168">
+        <v>1.52</v>
+      </c>
+      <c r="BC168">
+        <v>1.85</v>
+      </c>
+      <c r="BD168">
+        <v>2.27</v>
+      </c>
+      <c r="BE168">
+        <v>3.08</v>
+      </c>
+      <c r="BF168">
+        <v>4</v>
+      </c>
+      <c r="BG168">
+        <v>9</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>6</v>
+      </c>
+      <c r="BJ168">
+        <v>8</v>
+      </c>
+      <c r="BK168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6156149</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45124.79166666666</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>191</v>
+      </c>
+      <c r="P169" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>2.05</v>
+      </c>
+      <c r="V169">
+        <v>3.75</v>
+      </c>
+      <c r="W169">
+        <v>1.45</v>
+      </c>
+      <c r="X169">
+        <v>2.55</v>
+      </c>
+      <c r="Y169">
+        <v>3.05</v>
+      </c>
+      <c r="Z169">
+        <v>1.32</v>
+      </c>
+      <c r="AA169">
+        <v>7.25</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>2.34</v>
+      </c>
+      <c r="AD169">
+        <v>3.16</v>
+      </c>
+      <c r="AE169">
+        <v>3.02</v>
+      </c>
+      <c r="AF169">
+        <v>1.06</v>
+      </c>
+      <c r="AG169">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH169">
+        <v>1.35</v>
+      </c>
+      <c r="AI169">
+        <v>2.94</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>1.8</v>
+      </c>
+      <c r="AL169">
+        <v>1.85</v>
+      </c>
+      <c r="AM169">
+        <v>1.85</v>
+      </c>
+      <c r="AN169">
+        <v>1.35</v>
+      </c>
+      <c r="AO169">
+        <v>1.3</v>
+      </c>
+      <c r="AP169">
+        <v>1.58</v>
+      </c>
+      <c r="AQ169">
+        <v>1.75</v>
+      </c>
+      <c r="AR169">
+        <v>1</v>
+      </c>
+      <c r="AS169">
+        <v>1.56</v>
+      </c>
+      <c r="AT169">
+        <v>1.18</v>
+      </c>
+      <c r="AU169">
+        <v>1.33</v>
+      </c>
+      <c r="AV169">
+        <v>1.3</v>
+      </c>
+      <c r="AW169">
+        <v>2.63</v>
+      </c>
+      <c r="AX169">
+        <v>1.73</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>2.4</v>
+      </c>
+      <c r="BA169">
+        <v>1.2</v>
+      </c>
+      <c r="BB169">
+        <v>1.39</v>
+      </c>
+      <c r="BC169">
+        <v>1.77</v>
+      </c>
+      <c r="BD169">
+        <v>2.18</v>
+      </c>
+      <c r="BE169">
+        <v>2.84</v>
+      </c>
+      <c r="BF169">
+        <v>5</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>3</v>
+      </c>
+      <c r="BI169">
+        <v>5</v>
+      </c>
+      <c r="BJ169">
+        <v>8</v>
+      </c>
+      <c r="BK169">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,9 +589,6 @@
     <t>['3', '11']</t>
   </si>
   <si>
-    <t>['-1']</t>
-  </si>
-  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -826,7 +823,7 @@
     <t>['4', '43']</t>
   </si>
   <si>
-    <t>['-1', '-1']</t>
+    <t>['1', '47']</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1429,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2005,7 +2002,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2387,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2578,7 +2575,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2769,7 +2766,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3151,7 +3148,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3533,7 +3530,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3724,7 +3721,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3915,7 +3912,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4106,7 +4103,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4297,7 +4294,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4870,7 +4867,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5634,7 +5631,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5825,7 +5822,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6016,7 +6013,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6398,7 +6395,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6780,7 +6777,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6971,7 +6968,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7162,7 +7159,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7353,7 +7350,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7544,7 +7541,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7735,7 +7732,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7926,7 +7923,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8308,7 +8305,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8499,7 +8496,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8881,7 +8878,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9072,7 +9069,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9263,7 +9260,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9836,7 +9833,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10027,7 +10024,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10409,7 +10406,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11364,7 +11361,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11555,7 +11552,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13274,7 +13271,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13465,7 +13462,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13656,7 +13653,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14802,7 +14799,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14993,7 +14990,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15757,7 +15754,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16330,7 +16327,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16521,7 +16518,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17667,7 +17664,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17858,7 +17855,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18049,7 +18046,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18431,7 +18428,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18622,7 +18619,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -19004,7 +19001,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19195,7 +19192,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19386,7 +19383,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19577,7 +19574,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19768,7 +19765,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20150,7 +20147,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20723,7 +20720,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20914,7 +20911,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21296,7 +21293,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21487,7 +21484,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21678,7 +21675,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21869,7 +21866,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22060,7 +22057,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22251,7 +22248,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22442,7 +22439,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22633,7 +22630,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23397,7 +23394,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23588,7 +23585,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23779,7 +23776,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23970,7 +23967,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24352,7 +24349,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24543,7 +24540,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24925,7 +24922,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25116,7 +25113,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25307,7 +25304,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25689,7 +25686,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26071,7 +26068,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -27026,7 +27023,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27599,7 +27596,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27790,7 +27787,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27981,7 +27978,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28363,7 +28360,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28745,7 +28742,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29891,7 +29888,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30464,7 +30461,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31037,7 +31034,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31228,7 +31225,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31610,7 +31607,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31801,7 +31798,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32183,7 +32180,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -33138,7 +33135,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33311,10 +33308,10 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -33326,10 +33323,10 @@
         <v>3</v>
       </c>
       <c r="O169" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33458,19 +33455,19 @@
         <v>5</v>
       </c>
       <c r="BG169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI169">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ169">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK169">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,18 @@
     <t>['3', '11']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['35', '90+5']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['69', '88']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -784,9 +796,6 @@
     <t>['71', '90', '90+1']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -824,6 +833,9 @@
   </si>
   <si>
     <t>['1', '47']</t>
+  </si>
+  <si>
+    <t>['43', '45', '76']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1441,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1516,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT2">
         <v>0.82</v>
@@ -1707,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT3">
         <v>1.18</v>
@@ -2002,7 +2014,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2089,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT5">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2384,7 +2396,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2471,10 +2483,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2575,7 +2587,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2665,7 +2677,7 @@
         <v>1.18</v>
       </c>
       <c r="AT8">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2766,7 +2778,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3044,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3148,7 +3160,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3235,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3530,7 +3542,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3721,7 +3733,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3808,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT14">
         <v>1.18</v>
@@ -3912,7 +3924,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3999,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4103,7 +4115,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4193,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4294,7 +4306,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4381,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4766,7 +4778,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4867,7 +4879,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5145,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5527,7 +5539,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT23">
         <v>0.82</v>
@@ -5631,7 +5643,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5822,7 +5834,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5912,7 +5924,7 @@
         <v>0.64</v>
       </c>
       <c r="AT25">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6013,7 +6025,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6291,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6395,7 +6407,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6673,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT29">
         <v>0.6</v>
@@ -6777,7 +6789,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6968,7 +6980,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7055,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT31">
         <v>1.18</v>
@@ -7159,7 +7171,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7246,10 +7258,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7350,7 +7362,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7440,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7541,7 +7553,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7628,7 +7640,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT34">
         <v>0.58</v>
@@ -7732,7 +7744,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7822,7 +7834,7 @@
         <v>0.64</v>
       </c>
       <c r="AT35">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7923,7 +7935,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8201,7 +8213,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8305,7 +8317,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8496,7 +8508,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8583,10 +8595,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8777,7 +8789,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8878,7 +8890,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9069,7 +9081,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9156,10 +9168,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT42">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9260,7 +9272,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9538,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT44">
         <v>0.82</v>
@@ -9729,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9833,7 +9845,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9920,7 +9932,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1.18</v>
@@ -10024,7 +10036,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10111,10 +10123,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT47">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10305,7 +10317,7 @@
         <v>1.7</v>
       </c>
       <c r="AT48">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10406,7 +10418,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10496,7 +10508,7 @@
         <v>1.82</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10878,7 +10890,7 @@
         <v>2.36</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11257,7 +11269,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11361,7 +11373,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11451,7 +11463,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11552,7 +11564,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11639,7 +11651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT55">
         <v>0.58</v>
@@ -11830,10 +11842,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT56">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12403,10 +12415,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT59">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12976,7 +12988,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>0.82</v>
@@ -13167,7 +13179,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13271,7 +13283,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13358,7 +13370,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT64">
         <v>1.18</v>
@@ -13462,7 +13474,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13552,7 +13564,7 @@
         <v>0.64</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13653,7 +13665,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13934,7 +13946,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14122,7 +14134,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT68">
         <v>1.09</v>
@@ -14695,10 +14707,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT71">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14799,7 +14811,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14886,10 +14898,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT72">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14990,7 +15002,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15080,7 +15092,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15271,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15459,7 +15471,7 @@
         <v>0.4</v>
       </c>
       <c r="AS75">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15754,7 +15766,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16032,7 +16044,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT78">
         <v>1.09</v>
@@ -16327,7 +16339,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16518,7 +16530,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16605,7 +16617,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
         <v>0.82</v>
@@ -16796,7 +16808,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT82">
         <v>0.92</v>
@@ -16987,10 +16999,10 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17178,7 +17190,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT84">
         <v>0.58</v>
@@ -17372,7 +17384,7 @@
         <v>1.18</v>
       </c>
       <c r="AT85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17560,10 +17572,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT86">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17664,7 +17676,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17754,7 +17766,7 @@
         <v>1.7</v>
       </c>
       <c r="AT87">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU87">
         <v>0</v>
@@ -17855,7 +17867,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17945,7 +17957,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -18046,7 +18058,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18133,10 +18145,10 @@
         <v>1.17</v>
       </c>
       <c r="AS89">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT89">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU89">
         <v>0</v>
@@ -18428,7 +18440,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18619,7 +18631,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18706,7 +18718,7 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18900,7 +18912,7 @@
         <v>1.82</v>
       </c>
       <c r="AT93">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -19001,7 +19013,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19088,7 +19100,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>0.58</v>
@@ -19192,7 +19204,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19383,7 +19395,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19574,7 +19586,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19765,7 +19777,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19852,10 +19864,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -20043,7 +20055,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT99">
         <v>0.92</v>
@@ -20147,7 +20159,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20234,10 +20246,10 @@
         <v>2.33</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT100">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20428,7 +20440,7 @@
         <v>1.4</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>2.23</v>
@@ -20616,7 +20628,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20720,7 +20732,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20810,7 +20822,7 @@
         <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20911,7 +20923,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21001,7 +21013,7 @@
         <v>1.56</v>
       </c>
       <c r="AT104">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21189,7 +21201,7 @@
         <v>0.6</v>
       </c>
       <c r="AS105">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT105">
         <v>0.6</v>
@@ -21293,7 +21305,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21484,7 +21496,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21675,7 +21687,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21765,7 +21777,7 @@
         <v>2.36</v>
       </c>
       <c r="AT108">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -21866,7 +21878,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21953,7 +21965,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT109">
         <v>0.58</v>
@@ -22057,7 +22069,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22248,7 +22260,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22439,7 +22451,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22630,7 +22642,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22717,7 +22729,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT113">
         <v>1.33</v>
@@ -22911,7 +22923,7 @@
         <v>1.56</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -23102,7 +23114,7 @@
         <v>1.7</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -23290,10 +23302,10 @@
         <v>2.43</v>
       </c>
       <c r="AS116">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT116">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU116">
         <v>0</v>
@@ -23394,7 +23406,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23481,7 +23493,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23585,7 +23597,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23672,10 +23684,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT118">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23776,7 +23788,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23967,7 +23979,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24054,7 +24066,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT120">
         <v>0.6</v>
@@ -24349,7 +24361,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24540,7 +24552,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24627,7 +24639,7 @@
         <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT123">
         <v>1.33</v>
@@ -24922,7 +24934,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25113,7 +25125,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25203,7 +25215,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25304,7 +25316,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25686,7 +25698,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25776,7 +25788,7 @@
         <v>0.64</v>
       </c>
       <c r="AT129">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25964,10 +25976,10 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT130">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26068,7 +26080,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26158,7 +26170,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU131">
         <v>1.76</v>
@@ -26346,7 +26358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>1.18</v>
@@ -26537,7 +26549,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26728,10 +26740,10 @@
         <v>0.89</v>
       </c>
       <c r="AS134">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT134">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -26919,7 +26931,7 @@
         <v>0.71</v>
       </c>
       <c r="AS135">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT135">
         <v>0.6</v>
@@ -27023,7 +27035,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27110,7 +27122,7 @@
         <v>0.63</v>
       </c>
       <c r="AS136">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27304,7 +27316,7 @@
         <v>1.82</v>
       </c>
       <c r="AT137">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU137">
         <v>2.03</v>
@@ -27596,7 +27608,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27683,7 +27695,7 @@
         <v>0.44</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT139">
         <v>0.58</v>
@@ -27787,7 +27799,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27877,7 +27889,7 @@
         <v>1.7</v>
       </c>
       <c r="AT140">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -27978,7 +27990,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28360,7 +28372,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28641,7 +28653,7 @@
         <v>1.56</v>
       </c>
       <c r="AT144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU144">
         <v>1.09</v>
@@ -28742,7 +28754,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29402,7 +29414,7 @@
         <v>0.7</v>
       </c>
       <c r="AS148">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT148">
         <v>0.58</v>
@@ -29593,7 +29605,7 @@
         <v>1.44</v>
       </c>
       <c r="AS149">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT149">
         <v>1.18</v>
@@ -29888,7 +29900,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29978,7 +29990,7 @@
         <v>2.36</v>
       </c>
       <c r="AT151">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU151">
         <v>1.72</v>
@@ -30166,10 +30178,10 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT152">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU152">
         <v>1.16</v>
@@ -30357,7 +30369,7 @@
         <v>0.63</v>
       </c>
       <c r="AS153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT153">
         <v>0.6</v>
@@ -30461,7 +30473,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30548,10 +30560,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT154">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30742,7 +30754,7 @@
         <v>1.4</v>
       </c>
       <c r="AT155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -30930,7 +30942,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT156">
         <v>1.33</v>
@@ -31034,7 +31046,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31225,7 +31237,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31315,7 +31327,7 @@
         <v>1.18</v>
       </c>
       <c r="AT158">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU158">
         <v>1.36</v>
@@ -31503,10 +31515,10 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT159">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU159">
         <v>1.97</v>
@@ -31607,7 +31619,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31694,7 +31706,7 @@
         <v>1.1</v>
       </c>
       <c r="AS160">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT160">
         <v>1.09</v>
@@ -31798,7 +31810,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32180,7 +32192,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32649,7 +32661,7 @@
         <v>0.73</v>
       </c>
       <c r="AS165">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT165">
         <v>0.92</v>
@@ -33031,7 +33043,7 @@
         <v>0.9</v>
       </c>
       <c r="AS167">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT167">
         <v>0.82</v>
@@ -33135,7 +33147,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33225,7 +33237,7 @@
         <v>1</v>
       </c>
       <c r="AT168">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33326,7 +33338,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33468,6 +33480,1343 @@
       </c>
       <c r="BK169">
         <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6156156</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45128.625</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>80</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>81</v>
+      </c>
+      <c r="P170" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q170">
+        <v>4</v>
+      </c>
+      <c r="R170">
+        <v>5</v>
+      </c>
+      <c r="S170">
+        <v>9</v>
+      </c>
+      <c r="T170">
+        <v>3.75</v>
+      </c>
+      <c r="U170">
+        <v>2.15</v>
+      </c>
+      <c r="V170">
+        <v>2.7</v>
+      </c>
+      <c r="W170">
+        <v>1.36</v>
+      </c>
+      <c r="X170">
+        <v>2.9</v>
+      </c>
+      <c r="Y170">
+        <v>2.62</v>
+      </c>
+      <c r="Z170">
+        <v>1.42</v>
+      </c>
+      <c r="AA170">
+        <v>6</v>
+      </c>
+      <c r="AB170">
+        <v>1.09</v>
+      </c>
+      <c r="AC170">
+        <v>3.1</v>
+      </c>
+      <c r="AD170">
+        <v>3.4</v>
+      </c>
+      <c r="AE170">
+        <v>2.18</v>
+      </c>
+      <c r="AF170">
+        <v>1.04</v>
+      </c>
+      <c r="AG170">
+        <v>10.5</v>
+      </c>
+      <c r="AH170">
+        <v>1.25</v>
+      </c>
+      <c r="AI170">
+        <v>3.6</v>
+      </c>
+      <c r="AJ170">
+        <v>1.88</v>
+      </c>
+      <c r="AK170">
+        <v>1.91</v>
+      </c>
+      <c r="AL170">
+        <v>1.67</v>
+      </c>
+      <c r="AM170">
+        <v>2.1</v>
+      </c>
+      <c r="AN170">
+        <v>1.71</v>
+      </c>
+      <c r="AO170">
+        <v>1.27</v>
+      </c>
+      <c r="AP170">
+        <v>1.33</v>
+      </c>
+      <c r="AQ170">
+        <v>1.11</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1</v>
+      </c>
+      <c r="AT170">
+        <v>1.18</v>
+      </c>
+      <c r="AU170">
+        <v>1.36</v>
+      </c>
+      <c r="AV170">
+        <v>1.4</v>
+      </c>
+      <c r="AW170">
+        <v>2.76</v>
+      </c>
+      <c r="AX170">
+        <v>2.02</v>
+      </c>
+      <c r="AY170">
+        <v>8.9</v>
+      </c>
+      <c r="AZ170">
+        <v>2.01</v>
+      </c>
+      <c r="BA170">
+        <v>1.2</v>
+      </c>
+      <c r="BB170">
+        <v>1.33</v>
+      </c>
+      <c r="BC170">
+        <v>1.59</v>
+      </c>
+      <c r="BD170">
+        <v>2.02</v>
+      </c>
+      <c r="BE170">
+        <v>2.6</v>
+      </c>
+      <c r="BF170">
+        <v>2</v>
+      </c>
+      <c r="BG170">
+        <v>2</v>
+      </c>
+      <c r="BH170">
+        <v>7</v>
+      </c>
+      <c r="BI170">
+        <v>5</v>
+      </c>
+      <c r="BJ170">
+        <v>9</v>
+      </c>
+      <c r="BK170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6156150</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45128.83333333334</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>68</v>
+      </c>
+      <c r="H171" t="s">
+        <v>69</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>191</v>
+      </c>
+      <c r="P171" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q171">
+        <v>2</v>
+      </c>
+      <c r="R171">
+        <v>4</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>3.13</v>
+      </c>
+      <c r="U171">
+        <v>2.22</v>
+      </c>
+      <c r="V171">
+        <v>3.45</v>
+      </c>
+      <c r="W171">
+        <v>1.42</v>
+      </c>
+      <c r="X171">
+        <v>2.66</v>
+      </c>
+      <c r="Y171">
+        <v>3.04</v>
+      </c>
+      <c r="Z171">
+        <v>1.31</v>
+      </c>
+      <c r="AA171">
+        <v>6.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.08</v>
+      </c>
+      <c r="AC171">
+        <v>2.45</v>
+      </c>
+      <c r="AD171">
+        <v>3.2</v>
+      </c>
+      <c r="AE171">
+        <v>2.7</v>
+      </c>
+      <c r="AF171">
+        <v>1.05</v>
+      </c>
+      <c r="AG171">
+        <v>8</v>
+      </c>
+      <c r="AH171">
+        <v>1.3</v>
+      </c>
+      <c r="AI171">
+        <v>3.2</v>
+      </c>
+      <c r="AJ171">
+        <v>1.95</v>
+      </c>
+      <c r="AK171">
+        <v>1.81</v>
+      </c>
+      <c r="AL171">
+        <v>1.75</v>
+      </c>
+      <c r="AM171">
+        <v>2</v>
+      </c>
+      <c r="AN171">
+        <v>1.44</v>
+      </c>
+      <c r="AO171">
+        <v>1.33</v>
+      </c>
+      <c r="AP171">
+        <v>1.53</v>
+      </c>
+      <c r="AQ171">
+        <v>1.17</v>
+      </c>
+      <c r="AR171">
+        <v>1.2</v>
+      </c>
+      <c r="AS171">
+        <v>1.08</v>
+      </c>
+      <c r="AT171">
+        <v>1.36</v>
+      </c>
+      <c r="AU171">
+        <v>1.51</v>
+      </c>
+      <c r="AV171">
+        <v>1.14</v>
+      </c>
+      <c r="AW171">
+        <v>2.65</v>
+      </c>
+      <c r="AX171">
+        <v>1.8</v>
+      </c>
+      <c r="AY171">
+        <v>8</v>
+      </c>
+      <c r="AZ171">
+        <v>2.38</v>
+      </c>
+      <c r="BA171">
+        <v>1.22</v>
+      </c>
+      <c r="BB171">
+        <v>1.37</v>
+      </c>
+      <c r="BC171">
+        <v>1.65</v>
+      </c>
+      <c r="BD171">
+        <v>2.07</v>
+      </c>
+      <c r="BE171">
+        <v>2.75</v>
+      </c>
+      <c r="BF171">
+        <v>4</v>
+      </c>
+      <c r="BG171">
+        <v>7</v>
+      </c>
+      <c r="BH171">
+        <v>4</v>
+      </c>
+      <c r="BI171">
+        <v>4</v>
+      </c>
+      <c r="BJ171">
+        <v>8</v>
+      </c>
+      <c r="BK171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6156155</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45129.51041666666</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>192</v>
+      </c>
+      <c r="P172" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>2.9</v>
+      </c>
+      <c r="U172">
+        <v>2.05</v>
+      </c>
+      <c r="V172">
+        <v>3.75</v>
+      </c>
+      <c r="W172">
+        <v>1.44</v>
+      </c>
+      <c r="X172">
+        <v>2.6</v>
+      </c>
+      <c r="Y172">
+        <v>3</v>
+      </c>
+      <c r="Z172">
+        <v>1.33</v>
+      </c>
+      <c r="AA172">
+        <v>7</v>
+      </c>
+      <c r="AB172">
+        <v>1.07</v>
+      </c>
+      <c r="AC172">
+        <v>2.32</v>
+      </c>
+      <c r="AD172">
+        <v>3.2</v>
+      </c>
+      <c r="AE172">
+        <v>2.95</v>
+      </c>
+      <c r="AF172">
+        <v>1.05</v>
+      </c>
+      <c r="AG172">
+        <v>8</v>
+      </c>
+      <c r="AH172">
+        <v>1.33</v>
+      </c>
+      <c r="AI172">
+        <v>3</v>
+      </c>
+      <c r="AJ172">
+        <v>2.08</v>
+      </c>
+      <c r="AK172">
+        <v>1.72</v>
+      </c>
+      <c r="AL172">
+        <v>1.8</v>
+      </c>
+      <c r="AM172">
+        <v>1.91</v>
+      </c>
+      <c r="AN172">
+        <v>1.4</v>
+      </c>
+      <c r="AO172">
+        <v>1.33</v>
+      </c>
+      <c r="AP172">
+        <v>1.57</v>
+      </c>
+      <c r="AQ172">
+        <v>0.9</v>
+      </c>
+      <c r="AR172">
+        <v>0.92</v>
+      </c>
+      <c r="AS172">
+        <v>1.09</v>
+      </c>
+      <c r="AT172">
+        <v>0.85</v>
+      </c>
+      <c r="AU172">
+        <v>1.26</v>
+      </c>
+      <c r="AV172">
+        <v>1.37</v>
+      </c>
+      <c r="AW172">
+        <v>2.63</v>
+      </c>
+      <c r="AX172">
+        <v>1.67</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>2.5</v>
+      </c>
+      <c r="BA172">
+        <v>1.23</v>
+      </c>
+      <c r="BB172">
+        <v>1.44</v>
+      </c>
+      <c r="BC172">
+        <v>1.83</v>
+      </c>
+      <c r="BD172">
+        <v>2.25</v>
+      </c>
+      <c r="BE172">
+        <v>3.04</v>
+      </c>
+      <c r="BF172">
+        <v>8</v>
+      </c>
+      <c r="BG172">
+        <v>4</v>
+      </c>
+      <c r="BH172">
+        <v>2</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>10</v>
+      </c>
+      <c r="BK172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6156151</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>81</v>
+      </c>
+      <c r="P173" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>6</v>
+      </c>
+      <c r="T173">
+        <v>2.65</v>
+      </c>
+      <c r="U173">
+        <v>2.05</v>
+      </c>
+      <c r="V173">
+        <v>3.9</v>
+      </c>
+      <c r="W173">
+        <v>1.41</v>
+      </c>
+      <c r="X173">
+        <v>2.65</v>
+      </c>
+      <c r="Y173">
+        <v>2.9</v>
+      </c>
+      <c r="Z173">
+        <v>1.36</v>
+      </c>
+      <c r="AA173">
+        <v>7.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.07</v>
+      </c>
+      <c r="AC173">
+        <v>2.09</v>
+      </c>
+      <c r="AD173">
+        <v>3.24</v>
+      </c>
+      <c r="AE173">
+        <v>3.54</v>
+      </c>
+      <c r="AF173">
+        <v>1.06</v>
+      </c>
+      <c r="AG173">
+        <v>8.5</v>
+      </c>
+      <c r="AH173">
+        <v>1.32</v>
+      </c>
+      <c r="AI173">
+        <v>3.1</v>
+      </c>
+      <c r="AJ173">
+        <v>1.98</v>
+      </c>
+      <c r="AK173">
+        <v>1.77</v>
+      </c>
+      <c r="AL173">
+        <v>1.83</v>
+      </c>
+      <c r="AM173">
+        <v>1.85</v>
+      </c>
+      <c r="AN173">
+        <v>1.29</v>
+      </c>
+      <c r="AO173">
+        <v>1.3</v>
+      </c>
+      <c r="AP173">
+        <v>1.72</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1</v>
+      </c>
+      <c r="AS173">
+        <v>1.9</v>
+      </c>
+      <c r="AT173">
+        <v>1</v>
+      </c>
+      <c r="AU173">
+        <v>1.1</v>
+      </c>
+      <c r="AV173">
+        <v>0.83</v>
+      </c>
+      <c r="AW173">
+        <v>1.93</v>
+      </c>
+      <c r="AX173">
+        <v>1.5</v>
+      </c>
+      <c r="AY173">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173">
+        <v>3</v>
+      </c>
+      <c r="BA173">
+        <v>1.24</v>
+      </c>
+      <c r="BB173">
+        <v>1.41</v>
+      </c>
+      <c r="BC173">
+        <v>1.73</v>
+      </c>
+      <c r="BD173">
+        <v>2.22</v>
+      </c>
+      <c r="BE173">
+        <v>2.9</v>
+      </c>
+      <c r="BF173">
+        <v>2</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>12</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>14</v>
+      </c>
+      <c r="BK173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6156157</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45129.8125</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>70</v>
+      </c>
+      <c r="H174" t="s">
+        <v>67</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>193</v>
+      </c>
+      <c r="P174" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>6</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>2.02</v>
+      </c>
+      <c r="U174">
+        <v>2.27</v>
+      </c>
+      <c r="V174">
+        <v>5.9</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>2.98</v>
+      </c>
+      <c r="Y174">
+        <v>2.71</v>
+      </c>
+      <c r="Z174">
+        <v>1.43</v>
+      </c>
+      <c r="AA174">
+        <v>6.65</v>
+      </c>
+      <c r="AB174">
+        <v>1.09</v>
+      </c>
+      <c r="AC174">
+        <v>1.48</v>
+      </c>
+      <c r="AD174">
+        <v>3.95</v>
+      </c>
+      <c r="AE174">
+        <v>5.2</v>
+      </c>
+      <c r="AF174">
+        <v>1.04</v>
+      </c>
+      <c r="AG174">
+        <v>13.25</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.55</v>
+      </c>
+      <c r="AJ174">
+        <v>2.05</v>
+      </c>
+      <c r="AK174">
+        <v>1.75</v>
+      </c>
+      <c r="AL174">
+        <v>1.93</v>
+      </c>
+      <c r="AM174">
+        <v>1.83</v>
+      </c>
+      <c r="AN174">
+        <v>1.1</v>
+      </c>
+      <c r="AO174">
+        <v>1.2</v>
+      </c>
+      <c r="AP174">
+        <v>2.46</v>
+      </c>
+      <c r="AQ174">
+        <v>2.5</v>
+      </c>
+      <c r="AR174">
+        <v>1.33</v>
+      </c>
+      <c r="AS174">
+        <v>2.55</v>
+      </c>
+      <c r="AT174">
+        <v>1.2</v>
+      </c>
+      <c r="AU174">
+        <v>1.95</v>
+      </c>
+      <c r="AV174">
+        <v>1.81</v>
+      </c>
+      <c r="AW174">
+        <v>3.76</v>
+      </c>
+      <c r="AX174">
+        <v>1.4</v>
+      </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
+      <c r="AZ174">
+        <v>3.4</v>
+      </c>
+      <c r="BA174">
+        <v>1.24</v>
+      </c>
+      <c r="BB174">
+        <v>1.4</v>
+      </c>
+      <c r="BC174">
+        <v>1.73</v>
+      </c>
+      <c r="BD174">
+        <v>2.2</v>
+      </c>
+      <c r="BE174">
+        <v>2.9</v>
+      </c>
+      <c r="BF174">
+        <v>8</v>
+      </c>
+      <c r="BG174">
+        <v>3</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>4</v>
+      </c>
+      <c r="BJ174">
+        <v>12</v>
+      </c>
+      <c r="BK174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6156152</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45130.5</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s">
+        <v>78</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>81</v>
+      </c>
+      <c r="P175" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q175">
+        <v>7</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>8</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>2.1</v>
+      </c>
+      <c r="V175">
+        <v>3.6</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>2.75</v>
+      </c>
+      <c r="Y175">
+        <v>2.85</v>
+      </c>
+      <c r="Z175">
+        <v>1.37</v>
+      </c>
+      <c r="AA175">
+        <v>7.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.08</v>
+      </c>
+      <c r="AC175">
+        <v>2.05</v>
+      </c>
+      <c r="AD175">
+        <v>3.4</v>
+      </c>
+      <c r="AE175">
+        <v>3.25</v>
+      </c>
+      <c r="AF175">
+        <v>1.05</v>
+      </c>
+      <c r="AG175">
+        <v>11</v>
+      </c>
+      <c r="AH175">
+        <v>1.3</v>
+      </c>
+      <c r="AI175">
+        <v>3.3</v>
+      </c>
+      <c r="AJ175">
+        <v>1.96</v>
+      </c>
+      <c r="AK175">
+        <v>1.75</v>
+      </c>
+      <c r="AL175">
+        <v>1.75</v>
+      </c>
+      <c r="AM175">
+        <v>2</v>
+      </c>
+      <c r="AN175">
+        <v>1.3</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.57</v>
+      </c>
+      <c r="AQ175">
+        <v>1.2</v>
+      </c>
+      <c r="AR175">
+        <v>2.1</v>
+      </c>
+      <c r="AS175">
+        <v>1.09</v>
+      </c>
+      <c r="AT175">
+        <v>2.18</v>
+      </c>
+      <c r="AU175">
+        <v>1.81</v>
+      </c>
+      <c r="AV175">
+        <v>1.45</v>
+      </c>
+      <c r="AW175">
+        <v>3.26</v>
+      </c>
+      <c r="AX175">
+        <v>1.57</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>2.88</v>
+      </c>
+      <c r="BA175">
+        <v>1.25</v>
+      </c>
+      <c r="BB175">
+        <v>1.47</v>
+      </c>
+      <c r="BC175">
+        <v>1.98</v>
+      </c>
+      <c r="BD175">
+        <v>2.34</v>
+      </c>
+      <c r="BE175">
+        <v>3.18</v>
+      </c>
+      <c r="BF175">
+        <v>4</v>
+      </c>
+      <c r="BG175">
+        <v>4</v>
+      </c>
+      <c r="BH175">
+        <v>3</v>
+      </c>
+      <c r="BI175">
+        <v>4</v>
+      </c>
+      <c r="BJ175">
+        <v>7</v>
+      </c>
+      <c r="BK175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6156153</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45130.625</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
+      </c>
+      <c r="G176" t="s">
+        <v>66</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>194</v>
+      </c>
+      <c r="P176" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q176">
+        <v>5</v>
+      </c>
+      <c r="R176">
+        <v>5</v>
+      </c>
+      <c r="S176">
+        <v>10</v>
+      </c>
+      <c r="T176">
+        <v>2.54</v>
+      </c>
+      <c r="U176">
+        <v>2.07</v>
+      </c>
+      <c r="V176">
+        <v>4.4</v>
+      </c>
+      <c r="W176">
+        <v>1.45</v>
+      </c>
+      <c r="X176">
+        <v>2.6</v>
+      </c>
+      <c r="Y176">
+        <v>2.95</v>
+      </c>
+      <c r="Z176">
+        <v>1.35</v>
+      </c>
+      <c r="AA176">
+        <v>6.75</v>
+      </c>
+      <c r="AB176">
+        <v>1.07</v>
+      </c>
+      <c r="AC176">
+        <v>1.92</v>
+      </c>
+      <c r="AD176">
+        <v>3.3</v>
+      </c>
+      <c r="AE176">
+        <v>3.76</v>
+      </c>
+      <c r="AF176">
+        <v>1.06</v>
+      </c>
+      <c r="AG176">
+        <v>10</v>
+      </c>
+      <c r="AH176">
+        <v>1.32</v>
+      </c>
+      <c r="AI176">
+        <v>3.08</v>
+      </c>
+      <c r="AJ176">
+        <v>2.03</v>
+      </c>
+      <c r="AK176">
+        <v>1.7</v>
+      </c>
+      <c r="AL176">
+        <v>1.85</v>
+      </c>
+      <c r="AM176">
+        <v>1.85</v>
+      </c>
+      <c r="AN176">
+        <v>1.27</v>
+      </c>
+      <c r="AO176">
+        <v>1.28</v>
+      </c>
+      <c r="AP176">
+        <v>1.72</v>
+      </c>
+      <c r="AQ176">
+        <v>2.42</v>
+      </c>
+      <c r="AR176">
+        <v>1.9</v>
+      </c>
+      <c r="AS176">
+        <v>2.46</v>
+      </c>
+      <c r="AT176">
+        <v>1.73</v>
+      </c>
+      <c r="AU176">
+        <v>1.39</v>
+      </c>
+      <c r="AV176">
+        <v>1.42</v>
+      </c>
+      <c r="AW176">
+        <v>2.81</v>
+      </c>
+      <c r="AX176">
+        <v>1.73</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>2.4</v>
+      </c>
+      <c r="BA176">
+        <v>1.26</v>
+      </c>
+      <c r="BB176">
+        <v>1.49</v>
+      </c>
+      <c r="BC176">
+        <v>1.9</v>
+      </c>
+      <c r="BD176">
+        <v>2.4</v>
+      </c>
+      <c r="BE176">
+        <v>3.28</v>
+      </c>
+      <c r="BF176">
+        <v>8</v>
+      </c>
+      <c r="BG176">
+        <v>5</v>
+      </c>
+      <c r="BH176">
+        <v>3</v>
+      </c>
+      <c r="BI176">
+        <v>4</v>
+      </c>
+      <c r="BJ176">
+        <v>11</v>
+      </c>
+      <c r="BK176">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1197,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3441,7 +3441,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT19">
         <v>0.85</v>
@@ -6688,7 +6688,7 @@
         <v>1.9</v>
       </c>
       <c r="AT29">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
         <v>1.09</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
         <v>0.92</v>
@@ -12227,7 +12227,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -14516,7 +14516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -16429,7 +16429,7 @@
         <v>2.36</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -17954,7 +17954,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
         <v>1.36</v>
@@ -20437,7 +20437,7 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT101">
         <v>1.2</v>
@@ -21204,7 +21204,7 @@
         <v>1.09</v>
       </c>
       <c r="AT105">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -24069,7 +24069,7 @@
         <v>1.09</v>
       </c>
       <c r="AT120">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
         <v>1.18</v>
@@ -24830,7 +24830,7 @@
         <v>1.25</v>
       </c>
       <c r="AS124">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
         <v>1.09</v>
@@ -26934,7 +26934,7 @@
         <v>1.09</v>
       </c>
       <c r="AT135">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU135">
         <v>1.05</v>
@@ -28459,7 +28459,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT143">
         <v>1.18</v>
@@ -30372,7 +30372,7 @@
         <v>2.55</v>
       </c>
       <c r="AT153">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU153">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT155">
         <v>1.18</v>
@@ -32282,7 +32282,7 @@
         <v>2.36</v>
       </c>
       <c r="AT163">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU163">
         <v>1.67</v>
@@ -34817,6 +34817,197 @@
       </c>
       <c r="BK176">
         <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6156154</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F177">
+        <v>7</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>81</v>
+      </c>
+      <c r="P177" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>6</v>
+      </c>
+      <c r="S177">
+        <v>9</v>
+      </c>
+      <c r="T177">
+        <v>2.55</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>4.33</v>
+      </c>
+      <c r="W177">
+        <v>1.46</v>
+      </c>
+      <c r="X177">
+        <v>2.55</v>
+      </c>
+      <c r="Y177">
+        <v>3.4</v>
+      </c>
+      <c r="Z177">
+        <v>1.33</v>
+      </c>
+      <c r="AA177">
+        <v>7.7</v>
+      </c>
+      <c r="AB177">
+        <v>1.07</v>
+      </c>
+      <c r="AC177">
+        <v>1.98</v>
+      </c>
+      <c r="AD177">
+        <v>3.1</v>
+      </c>
+      <c r="AE177">
+        <v>3.85</v>
+      </c>
+      <c r="AF177">
+        <v>1.07</v>
+      </c>
+      <c r="AG177">
+        <v>7.75</v>
+      </c>
+      <c r="AH177">
+        <v>1.36</v>
+      </c>
+      <c r="AI177">
+        <v>2.95</v>
+      </c>
+      <c r="AJ177">
+        <v>2.3</v>
+      </c>
+      <c r="AK177">
+        <v>1.58</v>
+      </c>
+      <c r="AL177">
+        <v>1.9</v>
+      </c>
+      <c r="AM177">
+        <v>1.83</v>
+      </c>
+      <c r="AN177">
+        <v>1.2</v>
+      </c>
+      <c r="AO177">
+        <v>1.25</v>
+      </c>
+      <c r="AP177">
+        <v>1.85</v>
+      </c>
+      <c r="AQ177">
+        <v>1.4</v>
+      </c>
+      <c r="AR177">
+        <v>0.6</v>
+      </c>
+      <c r="AS177">
+        <v>1.36</v>
+      </c>
+      <c r="AT177">
+        <v>0.64</v>
+      </c>
+      <c r="AU177">
+        <v>1.34</v>
+      </c>
+      <c r="AV177">
+        <v>1.11</v>
+      </c>
+      <c r="AW177">
+        <v>2.45</v>
+      </c>
+      <c r="AX177">
+        <v>1.5</v>
+      </c>
+      <c r="AY177">
+        <v>8.5</v>
+      </c>
+      <c r="AZ177">
+        <v>3.1</v>
+      </c>
+      <c r="BA177">
+        <v>1.21</v>
+      </c>
+      <c r="BB177">
+        <v>1.4</v>
+      </c>
+      <c r="BC177">
+        <v>1.7</v>
+      </c>
+      <c r="BD177">
+        <v>2.17</v>
+      </c>
+      <c r="BE177">
+        <v>2.88</v>
+      </c>
+      <c r="BF177">
+        <v>2</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>4</v>
+      </c>
+      <c r="BJ177">
+        <v>6</v>
+      </c>
+      <c r="BK177">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -837,6 +837,9 @@
   <si>
     <t>['43', '45', '76']</t>
   </si>
+  <si>
+    <t>['84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2486,7 +2489,7 @@
         <v>2.55</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2865,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -4014,7 +4017,7 @@
         <v>1.9</v>
       </c>
       <c r="AT15">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5348,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -6494,7 +6497,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -7452,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -10505,10 +10508,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -12224,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT58">
         <v>0.64</v>
@@ -13946,7 +13949,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -15662,7 +15665,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
         <v>1.18</v>
@@ -17002,7 +17005,7 @@
         <v>1.09</v>
       </c>
       <c r="AT83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -18909,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
         <v>0.85</v>
@@ -19867,7 +19870,7 @@
         <v>1.09</v>
       </c>
       <c r="AT98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -22156,7 +22159,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT110">
         <v>1.09</v>
@@ -23114,7 +23117,7 @@
         <v>1.7</v>
       </c>
       <c r="AT115">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -26170,7 +26173,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.76</v>
@@ -27313,7 +27316,7 @@
         <v>2.25</v>
       </c>
       <c r="AS137">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
         <v>2.18</v>
@@ -29032,7 +29035,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -30754,7 +30757,7 @@
         <v>1.36</v>
       </c>
       <c r="AT155">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -32088,7 +32091,7 @@
         <v>0.64</v>
       </c>
       <c r="AS162">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT162">
         <v>0.58</v>
@@ -33619,7 +33622,7 @@
         <v>1</v>
       </c>
       <c r="AT170">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.36</v>
@@ -35008,6 +35011,197 @@
       </c>
       <c r="BK177">
         <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6989963</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" t="s">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>81</v>
+      </c>
+      <c r="P178" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <v>7</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>2.82</v>
+      </c>
+      <c r="U178">
+        <v>2.29</v>
+      </c>
+      <c r="V178">
+        <v>3.85</v>
+      </c>
+      <c r="W178">
+        <v>1.37</v>
+      </c>
+      <c r="X178">
+        <v>3.16</v>
+      </c>
+      <c r="Y178">
+        <v>2.81</v>
+      </c>
+      <c r="Z178">
+        <v>1.44</v>
+      </c>
+      <c r="AA178">
+        <v>6.7</v>
+      </c>
+      <c r="AB178">
+        <v>1.09</v>
+      </c>
+      <c r="AC178">
+        <v>2.25</v>
+      </c>
+      <c r="AD178">
+        <v>3.41</v>
+      </c>
+      <c r="AE178">
+        <v>3.13</v>
+      </c>
+      <c r="AF178">
+        <v>1.05</v>
+      </c>
+      <c r="AG178">
+        <v>8</v>
+      </c>
+      <c r="AH178">
+        <v>1.22</v>
+      </c>
+      <c r="AI178">
+        <v>3.7</v>
+      </c>
+      <c r="AJ178">
+        <v>1.82</v>
+      </c>
+      <c r="AK178">
+        <v>1.94</v>
+      </c>
+      <c r="AL178">
+        <v>1.67</v>
+      </c>
+      <c r="AM178">
+        <v>2.15</v>
+      </c>
+      <c r="AN178">
+        <v>1.31</v>
+      </c>
+      <c r="AO178">
+        <v>1.29</v>
+      </c>
+      <c r="AP178">
+        <v>1.63</v>
+      </c>
+      <c r="AQ178">
+        <v>1.77</v>
+      </c>
+      <c r="AR178">
+        <v>1.77</v>
+      </c>
+      <c r="AS178">
+        <v>1.7</v>
+      </c>
+      <c r="AT178">
+        <v>1.83</v>
+      </c>
+      <c r="AU178">
+        <v>1.79</v>
+      </c>
+      <c r="AV178">
+        <v>1.35</v>
+      </c>
+      <c r="AW178">
+        <v>3.14</v>
+      </c>
+      <c r="AX178">
+        <v>1.69</v>
+      </c>
+      <c r="AY178">
+        <v>9</v>
+      </c>
+      <c r="AZ178">
+        <v>2.48</v>
+      </c>
+      <c r="BA178">
+        <v>1.25</v>
+      </c>
+      <c r="BB178">
+        <v>1.35</v>
+      </c>
+      <c r="BC178">
+        <v>1.71</v>
+      </c>
+      <c r="BD178">
+        <v>2.1</v>
+      </c>
+      <c r="BE178">
+        <v>2.64</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>4</v>
+      </c>
+      <c r="BI178">
+        <v>4</v>
+      </c>
+      <c r="BJ178">
+        <v>4</v>
+      </c>
+      <c r="BK178">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1200,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3062,7 +3062,7 @@
         <v>2.55</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>1.18</v>
@@ -6115,7 +6115,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
         <v>1.18</v>
@@ -6309,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>1.9</v>
       </c>
       <c r="AT29">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>0.82</v>
@@ -9174,7 +9174,7 @@
         <v>1.08</v>
       </c>
       <c r="AT42">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT48">
         <v>0.85</v>
@@ -11081,7 +11081,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
         <v>1.09</v>
@@ -12230,7 +12230,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -13567,7 +13567,7 @@
         <v>0.64</v>
       </c>
       <c r="AT65">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13755,7 +13755,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT66">
         <v>0.58</v>
@@ -14328,7 +14328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
         <v>0.92</v>
@@ -16432,7 +16432,7 @@
         <v>2.36</v>
       </c>
       <c r="AT80">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -17387,7 +17387,7 @@
         <v>1.18</v>
       </c>
       <c r="AT85">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17766,7 +17766,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT87">
         <v>2.18</v>
@@ -20443,7 +20443,7 @@
         <v>1.36</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU101">
         <v>2.23</v>
@@ -20822,7 +20822,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT103">
         <v>1.73</v>
@@ -21013,7 +21013,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
         <v>1.36</v>
@@ -21207,7 +21207,7 @@
         <v>1.09</v>
       </c>
       <c r="AT105">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -22923,10 +22923,10 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -23114,7 +23114,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
         <v>1.33</v>
@@ -24072,7 +24072,7 @@
         <v>1.09</v>
       </c>
       <c r="AT120">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -25218,7 +25218,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25406,7 +25406,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT127">
         <v>0.82</v>
@@ -25597,7 +25597,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT128">
         <v>0.92</v>
@@ -26937,7 +26937,7 @@
         <v>1.09</v>
       </c>
       <c r="AT135">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU135">
         <v>1.05</v>
@@ -27889,7 +27889,7 @@
         <v>1.88</v>
       </c>
       <c r="AS140">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT140">
         <v>1.73</v>
@@ -28653,10 +28653,10 @@
         <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU144">
         <v>1.09</v>
@@ -30375,7 +30375,7 @@
         <v>2.55</v>
       </c>
       <c r="AT153">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU153">
         <v>0</v>
@@ -32285,7 +32285,7 @@
         <v>2.36</v>
       </c>
       <c r="AT163">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>1.67</v>
@@ -32855,7 +32855,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33428,7 +33428,7 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT169">
         <v>1.18</v>
@@ -34386,7 +34386,7 @@
         <v>2.55</v>
       </c>
       <c r="AT174">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU174">
         <v>1.95</v>
@@ -34959,7 +34959,7 @@
         <v>1.36</v>
       </c>
       <c r="AT177">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35202,6 +35202,388 @@
       </c>
       <c r="BK178">
         <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7063145</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45156.79166666666</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>75</v>
+      </c>
+      <c r="H179" t="s">
+        <v>71</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>81</v>
+      </c>
+      <c r="P179" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q179">
+        <v>8</v>
+      </c>
+      <c r="R179">
+        <v>7</v>
+      </c>
+      <c r="S179">
+        <v>15</v>
+      </c>
+      <c r="T179">
+        <v>2.64</v>
+      </c>
+      <c r="U179">
+        <v>2.23</v>
+      </c>
+      <c r="V179">
+        <v>4.47</v>
+      </c>
+      <c r="W179">
+        <v>1.41</v>
+      </c>
+      <c r="X179">
+        <v>2.94</v>
+      </c>
+      <c r="Y179">
+        <v>3.05</v>
+      </c>
+      <c r="Z179">
+        <v>1.39</v>
+      </c>
+      <c r="AA179">
+        <v>7.3</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>2.34</v>
+      </c>
+      <c r="AD179">
+        <v>5.83</v>
+      </c>
+      <c r="AE179">
+        <v>1.96</v>
+      </c>
+      <c r="AF179">
+        <v>1.02</v>
+      </c>
+      <c r="AG179">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH179">
+        <v>1.29</v>
+      </c>
+      <c r="AI179">
+        <v>3.22</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.75</v>
+      </c>
+      <c r="AL179">
+        <v>1.8</v>
+      </c>
+      <c r="AM179">
+        <v>1.9</v>
+      </c>
+      <c r="AN179">
+        <v>1.25</v>
+      </c>
+      <c r="AO179">
+        <v>1.27</v>
+      </c>
+      <c r="AP179">
+        <v>1.81</v>
+      </c>
+      <c r="AQ179">
+        <v>1.56</v>
+      </c>
+      <c r="AR179">
+        <v>0.64</v>
+      </c>
+      <c r="AS179">
+        <v>1.5</v>
+      </c>
+      <c r="AT179">
+        <v>0.67</v>
+      </c>
+      <c r="AU179">
+        <v>1.36</v>
+      </c>
+      <c r="AV179">
+        <v>1.04</v>
+      </c>
+      <c r="AW179">
+        <v>2.4</v>
+      </c>
+      <c r="AX179">
+        <v>1.61</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>2.68</v>
+      </c>
+      <c r="BA179">
+        <v>1.24</v>
+      </c>
+      <c r="BB179">
+        <v>1.56</v>
+      </c>
+      <c r="BC179">
+        <v>2</v>
+      </c>
+      <c r="BD179">
+        <v>2.26</v>
+      </c>
+      <c r="BE179">
+        <v>3.08</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>2</v>
+      </c>
+      <c r="BH179">
+        <v>6</v>
+      </c>
+      <c r="BI179">
+        <v>3</v>
+      </c>
+      <c r="BJ179">
+        <v>10</v>
+      </c>
+      <c r="BK179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7063146</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>67</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>81</v>
+      </c>
+      <c r="P180" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q180">
+        <v>1</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>2.7</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>2.62</v>
+      </c>
+      <c r="Y180">
+        <v>3.25</v>
+      </c>
+      <c r="Z180">
+        <v>1.33</v>
+      </c>
+      <c r="AA180">
+        <v>7.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.07</v>
+      </c>
+      <c r="AC180">
+        <v>2.29</v>
+      </c>
+      <c r="AD180">
+        <v>3.14</v>
+      </c>
+      <c r="AE180">
+        <v>3.14</v>
+      </c>
+      <c r="AF180">
+        <v>1.08</v>
+      </c>
+      <c r="AG180">
+        <v>7</v>
+      </c>
+      <c r="AH180">
+        <v>1.4</v>
+      </c>
+      <c r="AI180">
+        <v>2.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2.25</v>
+      </c>
+      <c r="AK180">
+        <v>1.57</v>
+      </c>
+      <c r="AL180">
+        <v>2</v>
+      </c>
+      <c r="AM180">
+        <v>1.73</v>
+      </c>
+      <c r="AN180">
+        <v>1.25</v>
+      </c>
+      <c r="AO180">
+        <v>1.33</v>
+      </c>
+      <c r="AP180">
+        <v>1.7</v>
+      </c>
+      <c r="AQ180">
+        <v>1.7</v>
+      </c>
+      <c r="AR180">
+        <v>1.2</v>
+      </c>
+      <c r="AS180">
+        <v>1.64</v>
+      </c>
+      <c r="AT180">
+        <v>1.18</v>
+      </c>
+      <c r="AU180">
+        <v>1.12</v>
+      </c>
+      <c r="AV180">
+        <v>1.63</v>
+      </c>
+      <c r="AW180">
+        <v>2.75</v>
+      </c>
+      <c r="AX180">
+        <v>1.83</v>
+      </c>
+      <c r="AY180">
+        <v>8.6</v>
+      </c>
+      <c r="AZ180">
+        <v>2.26</v>
+      </c>
+      <c r="BA180">
+        <v>1.32</v>
+      </c>
+      <c r="BB180">
+        <v>1.58</v>
+      </c>
+      <c r="BC180">
+        <v>1.98</v>
+      </c>
+      <c r="BD180">
+        <v>2.65</v>
+      </c>
+      <c r="BE180">
+        <v>3.56</v>
+      </c>
+      <c r="BF180">
+        <v>4</v>
+      </c>
+      <c r="BG180">
+        <v>5</v>
+      </c>
+      <c r="BH180">
+        <v>3</v>
+      </c>
+      <c r="BI180">
+        <v>1</v>
+      </c>
+      <c r="BJ180">
+        <v>7</v>
+      </c>
+      <c r="BK180">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['69', '88']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -839,6 +845,9 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1453,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2017,7 +2026,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2399,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2590,7 +2599,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2781,7 +2790,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3163,7 +3172,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3253,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3545,7 +3554,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3635,7 +3644,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3736,7 +3745,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3823,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
         <v>1.18</v>
@@ -3927,7 +3936,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4014,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -4118,7 +4127,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4205,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT16">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4309,7 +4318,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4399,7 +4408,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4778,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>0.85</v>
@@ -4882,7 +4891,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4972,7 +4981,7 @@
         <v>1.18</v>
       </c>
       <c r="AT20">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5354,7 +5363,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5646,7 +5655,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5733,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
         <v>0.92</v>
@@ -5837,7 +5846,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6028,7 +6037,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6410,7 +6419,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6500,7 +6509,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6688,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -6792,7 +6801,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6983,7 +6992,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7073,7 +7082,7 @@
         <v>2.55</v>
       </c>
       <c r="AT31">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7174,7 +7183,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7264,7 +7273,7 @@
         <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7365,7 +7374,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7452,7 +7461,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7556,7 +7565,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7747,7 +7756,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7837,7 +7846,7 @@
         <v>0.64</v>
       </c>
       <c r="AT35">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7938,7 +7947,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8025,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8216,7 +8225,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8320,7 +8329,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8407,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8511,7 +8520,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8893,7 +8902,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9084,7 +9093,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9275,7 +9284,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9362,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT43">
         <v>0.67</v>
@@ -9744,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9848,7 +9857,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9938,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10039,7 +10048,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10129,7 +10138,7 @@
         <v>2.46</v>
       </c>
       <c r="AT47">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10421,7 +10430,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10702,7 +10711,7 @@
         <v>1.18</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10890,10 +10899,10 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT51">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11084,7 +11093,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11376,7 +11385,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11466,7 +11475,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11567,7 +11576,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11654,7 +11663,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT55">
         <v>0.58</v>
@@ -12036,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
         <v>0.92</v>
@@ -12418,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT59">
         <v>0.85</v>
@@ -12609,10 +12618,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12800,7 +12809,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT61">
         <v>1.18</v>
@@ -13286,7 +13295,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13376,7 +13385,7 @@
         <v>1.08</v>
       </c>
       <c r="AT64">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13477,7 +13486,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13668,7 +13677,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14140,7 +14149,7 @@
         <v>2.46</v>
       </c>
       <c r="AT68">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -14519,10 +14528,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -14710,7 +14719,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
         <v>2.18</v>
@@ -14814,7 +14823,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14904,7 +14913,7 @@
         <v>1.09</v>
       </c>
       <c r="AT72">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -15005,7 +15014,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15095,7 +15104,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15283,7 +15292,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT74">
         <v>0.85</v>
@@ -15769,7 +15778,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15859,7 +15868,7 @@
         <v>0.64</v>
       </c>
       <c r="AT77">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -16047,10 +16056,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT78">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>0</v>
@@ -16241,7 +16250,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16342,7 +16351,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16429,7 +16438,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>0.67</v>
@@ -16533,7 +16542,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17575,10 +17584,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17679,7 +17688,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17870,7 +17879,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17957,10 +17966,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -18061,7 +18070,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18342,7 +18351,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18443,7 +18452,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18634,7 +18643,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -19016,7 +19025,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19207,7 +19216,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19297,7 +19306,7 @@
         <v>1.18</v>
       </c>
       <c r="AT95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19398,7 +19407,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19485,7 +19494,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT96">
         <v>1.18</v>
@@ -19589,7 +19598,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19676,10 +19685,10 @@
         <v>0.6</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -19780,7 +19789,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19867,7 +19876,7 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT98">
         <v>1.33</v>
@@ -20162,7 +20171,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20249,7 +20258,7 @@
         <v>2.33</v>
       </c>
       <c r="AS100">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT100">
         <v>2.18</v>
@@ -20440,7 +20449,7 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
         <v>1.18</v>
@@ -20634,7 +20643,7 @@
         <v>2.55</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU102">
         <v>0</v>
@@ -20735,7 +20744,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20825,7 +20834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT103">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20926,7 +20935,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21016,7 +21025,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21308,7 +21317,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21499,7 +21508,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21586,7 +21595,7 @@
         <v>0.43</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT107">
         <v>0.92</v>
@@ -21690,7 +21699,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21777,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
         <v>0.85</v>
@@ -21881,7 +21890,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22072,7 +22081,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22162,7 +22171,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22263,7 +22272,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22454,7 +22463,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22645,7 +22654,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22735,7 +22744,7 @@
         <v>1.09</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -23409,7 +23418,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23499,7 +23508,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23600,7 +23609,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23687,10 +23696,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT118">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23791,7 +23800,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23881,7 +23890,7 @@
         <v>0.64</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23982,7 +23991,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24069,7 +24078,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT120">
         <v>0.67</v>
@@ -24260,10 +24269,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24364,7 +24373,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24451,10 +24460,10 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT122">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24555,7 +24564,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24645,7 +24654,7 @@
         <v>1.08</v>
       </c>
       <c r="AT123">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU123">
         <v>1.28</v>
@@ -24833,10 +24842,10 @@
         <v>1.25</v>
       </c>
       <c r="AS124">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -24937,7 +24946,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25024,7 +25033,7 @@
         <v>0.38</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT125">
         <v>0.58</v>
@@ -25128,7 +25137,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25701,7 +25710,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25791,7 +25800,7 @@
         <v>0.64</v>
       </c>
       <c r="AT129">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25979,10 +25988,10 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT130">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26083,7 +26092,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26552,10 +26561,10 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU133">
         <v>2.29</v>
@@ -27038,7 +27047,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27507,10 +27516,10 @@
         <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT138">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU138">
         <v>1.43</v>
@@ -27611,7 +27620,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27802,7 +27811,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27892,7 +27901,7 @@
         <v>1.64</v>
       </c>
       <c r="AT140">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -27993,7 +28002,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28271,10 +28280,10 @@
         <v>1.57</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU142">
         <v>1.12</v>
@@ -28375,7 +28384,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28462,10 +28471,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT143">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU143">
         <v>1.5</v>
@@ -28757,7 +28766,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29038,7 +29047,7 @@
         <v>1.67</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU146">
         <v>2.03</v>
@@ -29226,7 +29235,7 @@
         <v>0.89</v>
       </c>
       <c r="AS147">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT147">
         <v>1</v>
@@ -29417,7 +29426,7 @@
         <v>0.7</v>
       </c>
       <c r="AS148">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT148">
         <v>0.58</v>
@@ -29611,7 +29620,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU149">
         <v>1.09</v>
@@ -29903,7 +29912,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29990,7 +29999,7 @@
         <v>0.8</v>
       </c>
       <c r="AS151">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT151">
         <v>0.85</v>
@@ -30184,7 +30193,7 @@
         <v>2.46</v>
       </c>
       <c r="AT152">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU152">
         <v>1.16</v>
@@ -30476,7 +30485,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30754,7 +30763,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT155">
         <v>1.33</v>
@@ -30945,10 +30954,10 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT156">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU156">
         <v>1.27</v>
@@ -31049,7 +31058,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31240,7 +31249,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31518,10 +31527,10 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT159">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU159">
         <v>1.97</v>
@@ -31622,7 +31631,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31712,7 +31721,7 @@
         <v>1.09</v>
       </c>
       <c r="AT160">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU160">
         <v>1.3</v>
@@ -31813,7 +31822,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32195,7 +32204,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32282,7 +32291,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT163">
         <v>0.67</v>
@@ -32476,7 +32485,7 @@
         <v>1.75</v>
       </c>
       <c r="AT164">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU164">
         <v>1.38</v>
@@ -32858,7 +32867,7 @@
         <v>1.64</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU166">
         <v>1.09</v>
@@ -33150,7 +33159,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33237,10 +33246,10 @@
         <v>1.22</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT168">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33341,7 +33350,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33723,7 +33732,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>2</v>
@@ -33813,7 +33822,7 @@
         <v>1.08</v>
       </c>
       <c r="AT171">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU171">
         <v>1.51</v>
@@ -34192,7 +34201,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT173">
         <v>1</v>
@@ -34487,7 +34496,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34574,7 +34583,7 @@
         <v>2.1</v>
       </c>
       <c r="AS175">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT175">
         <v>2.18</v>
@@ -34768,7 +34777,7 @@
         <v>2.46</v>
       </c>
       <c r="AT176">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU176">
         <v>1.39</v>
@@ -34956,7 +34965,7 @@
         <v>0.6</v>
       </c>
       <c r="AS177">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
         <v>0.67</v>
@@ -35060,7 +35069,7 @@
         <v>81</v>
       </c>
       <c r="P178" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35147,10 +35156,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AT178">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AU178">
         <v>1.79</v>
@@ -35445,13 +35454,13 @@
         <v>81</v>
       </c>
       <c r="Q180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R180">
         <v>3</v>
       </c>
       <c r="S180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T180">
         <v>2.7</v>
@@ -35584,6 +35593,1152 @@
       </c>
       <c r="BK180">
         <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7063149</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45157.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>72</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>176</v>
+      </c>
+      <c r="P181" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>6</v>
+      </c>
+      <c r="T181">
+        <v>3.5</v>
+      </c>
+      <c r="U181">
+        <v>2.05</v>
+      </c>
+      <c r="V181">
+        <v>2.88</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>2.62</v>
+      </c>
+      <c r="Y181">
+        <v>3</v>
+      </c>
+      <c r="Z181">
+        <v>1.36</v>
+      </c>
+      <c r="AA181">
+        <v>7.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.07</v>
+      </c>
+      <c r="AC181">
+        <v>2.88</v>
+      </c>
+      <c r="AD181">
+        <v>3.15</v>
+      </c>
+      <c r="AE181">
+        <v>2.3</v>
+      </c>
+      <c r="AF181">
+        <v>1.08</v>
+      </c>
+      <c r="AG181">
+        <v>7</v>
+      </c>
+      <c r="AH181">
+        <v>1.4</v>
+      </c>
+      <c r="AI181">
+        <v>2.75</v>
+      </c>
+      <c r="AJ181">
+        <v>2.16</v>
+      </c>
+      <c r="AK181">
+        <v>1.62</v>
+      </c>
+      <c r="AL181">
+        <v>1.91</v>
+      </c>
+      <c r="AM181">
+        <v>1.8</v>
+      </c>
+      <c r="AN181">
+        <v>1.6</v>
+      </c>
+      <c r="AO181">
+        <v>1.35</v>
+      </c>
+      <c r="AP181">
+        <v>1.3</v>
+      </c>
+      <c r="AQ181">
+        <v>1</v>
+      </c>
+      <c r="AR181">
+        <v>1.73</v>
+      </c>
+      <c r="AS181">
+        <v>1</v>
+      </c>
+      <c r="AT181">
+        <v>1.67</v>
+      </c>
+      <c r="AU181">
+        <v>1.31</v>
+      </c>
+      <c r="AV181">
+        <v>1.39</v>
+      </c>
+      <c r="AW181">
+        <v>2.7</v>
+      </c>
+      <c r="AX181">
+        <v>2.06</v>
+      </c>
+      <c r="AY181">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ181">
+        <v>1.98</v>
+      </c>
+      <c r="BA181">
+        <v>1.21</v>
+      </c>
+      <c r="BB181">
+        <v>1.43</v>
+      </c>
+      <c r="BC181">
+        <v>1.93</v>
+      </c>
+      <c r="BD181">
+        <v>2.22</v>
+      </c>
+      <c r="BE181">
+        <v>2.95</v>
+      </c>
+      <c r="BF181">
+        <v>3</v>
+      </c>
+      <c r="BG181">
+        <v>6</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>6</v>
+      </c>
+      <c r="BK181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7063143</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45157.64583333334</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>79</v>
+      </c>
+      <c r="H182" t="s">
+        <v>66</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>195</v>
+      </c>
+      <c r="P182" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>6</v>
+      </c>
+      <c r="S182">
+        <v>10</v>
+      </c>
+      <c r="T182">
+        <v>5.5</v>
+      </c>
+      <c r="U182">
+        <v>2.15</v>
+      </c>
+      <c r="V182">
+        <v>2.1</v>
+      </c>
+      <c r="W182">
+        <v>1.44</v>
+      </c>
+      <c r="X182">
+        <v>2.62</v>
+      </c>
+      <c r="Y182">
+        <v>3</v>
+      </c>
+      <c r="Z182">
+        <v>1.36</v>
+      </c>
+      <c r="AA182">
+        <v>7.5</v>
+      </c>
+      <c r="AB182">
+        <v>1.07</v>
+      </c>
+      <c r="AC182">
+        <v>4.71</v>
+      </c>
+      <c r="AD182">
+        <v>3.7</v>
+      </c>
+      <c r="AE182">
+        <v>1.62</v>
+      </c>
+      <c r="AF182">
+        <v>1.07</v>
+      </c>
+      <c r="AG182">
+        <v>7.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.36</v>
+      </c>
+      <c r="AI182">
+        <v>3</v>
+      </c>
+      <c r="AJ182">
+        <v>2.06</v>
+      </c>
+      <c r="AK182">
+        <v>1.68</v>
+      </c>
+      <c r="AL182">
+        <v>2.05</v>
+      </c>
+      <c r="AM182">
+        <v>1.7</v>
+      </c>
+      <c r="AN182">
+        <v>2.2</v>
+      </c>
+      <c r="AO182">
+        <v>1.29</v>
+      </c>
+      <c r="AP182">
+        <v>1.12</v>
+      </c>
+      <c r="AQ182">
+        <v>1.36</v>
+      </c>
+      <c r="AR182">
+        <v>1.33</v>
+      </c>
+      <c r="AS182">
+        <v>1.33</v>
+      </c>
+      <c r="AT182">
+        <v>1.3</v>
+      </c>
+      <c r="AU182">
+        <v>1.28</v>
+      </c>
+      <c r="AV182">
+        <v>1.44</v>
+      </c>
+      <c r="AW182">
+        <v>2.72</v>
+      </c>
+      <c r="AX182">
+        <v>3.1</v>
+      </c>
+      <c r="AY182">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ182">
+        <v>1.48</v>
+      </c>
+      <c r="BA182">
+        <v>1.24</v>
+      </c>
+      <c r="BB182">
+        <v>1.45</v>
+      </c>
+      <c r="BC182">
+        <v>1.8</v>
+      </c>
+      <c r="BD182">
+        <v>2.32</v>
+      </c>
+      <c r="BE182">
+        <v>3.1</v>
+      </c>
+      <c r="BF182">
+        <v>2</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>1</v>
+      </c>
+      <c r="BI182">
+        <v>4</v>
+      </c>
+      <c r="BJ182">
+        <v>3</v>
+      </c>
+      <c r="BK182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7063150</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45157.75</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>81</v>
+      </c>
+      <c r="P183" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>5</v>
+      </c>
+      <c r="T183">
+        <v>2.6</v>
+      </c>
+      <c r="U183">
+        <v>2.15</v>
+      </c>
+      <c r="V183">
+        <v>3.6</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>2.75</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.4</v>
+      </c>
+      <c r="AA183">
+        <v>7</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>2.05</v>
+      </c>
+      <c r="AD183">
+        <v>3.45</v>
+      </c>
+      <c r="AE183">
+        <v>3.1</v>
+      </c>
+      <c r="AF183">
+        <v>1.06</v>
+      </c>
+      <c r="AG183">
+        <v>8</v>
+      </c>
+      <c r="AH183">
+        <v>1.33</v>
+      </c>
+      <c r="AI183">
+        <v>3.25</v>
+      </c>
+      <c r="AJ183">
+        <v>1.96</v>
+      </c>
+      <c r="AK183">
+        <v>1.75</v>
+      </c>
+      <c r="AL183">
+        <v>1.8</v>
+      </c>
+      <c r="AM183">
+        <v>1.91</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.3</v>
+      </c>
+      <c r="AP183">
+        <v>1.73</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>1</v>
+      </c>
+      <c r="AS183">
+        <v>0.92</v>
+      </c>
+      <c r="AT183">
+        <v>1.2</v>
+      </c>
+      <c r="AU183">
+        <v>1.24</v>
+      </c>
+      <c r="AV183">
+        <v>1.15</v>
+      </c>
+      <c r="AW183">
+        <v>2.39</v>
+      </c>
+      <c r="AX183">
+        <v>1.93</v>
+      </c>
+      <c r="AY183">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183">
+        <v>2.13</v>
+      </c>
+      <c r="BA183">
+        <v>1.27</v>
+      </c>
+      <c r="BB183">
+        <v>1.51</v>
+      </c>
+      <c r="BC183">
+        <v>1.88</v>
+      </c>
+      <c r="BD183">
+        <v>2.45</v>
+      </c>
+      <c r="BE183">
+        <v>3.28</v>
+      </c>
+      <c r="BF183">
+        <v>4</v>
+      </c>
+      <c r="BG183">
+        <v>5</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>7</v>
+      </c>
+      <c r="BJ183">
+        <v>8</v>
+      </c>
+      <c r="BK183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7063144</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>76</v>
+      </c>
+      <c r="H184" t="s">
+        <v>65</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>196</v>
+      </c>
+      <c r="P184" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q184">
+        <v>6</v>
+      </c>
+      <c r="R184">
+        <v>10</v>
+      </c>
+      <c r="S184">
+        <v>16</v>
+      </c>
+      <c r="T184">
+        <v>2.45</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>4.2</v>
+      </c>
+      <c r="W184">
+        <v>1.42</v>
+      </c>
+      <c r="X184">
+        <v>2.65</v>
+      </c>
+      <c r="Y184">
+        <v>3</v>
+      </c>
+      <c r="Z184">
+        <v>1.34</v>
+      </c>
+      <c r="AA184">
+        <v>8</v>
+      </c>
+      <c r="AB184">
+        <v>1.07</v>
+      </c>
+      <c r="AC184">
+        <v>1.95</v>
+      </c>
+      <c r="AD184">
+        <v>3.25</v>
+      </c>
+      <c r="AE184">
+        <v>3.35</v>
+      </c>
+      <c r="AF184">
+        <v>1.07</v>
+      </c>
+      <c r="AG184">
+        <v>7.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.33</v>
+      </c>
+      <c r="AI184">
+        <v>3.25</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.72</v>
+      </c>
+      <c r="AL184">
+        <v>1.91</v>
+      </c>
+      <c r="AM184">
+        <v>1.85</v>
+      </c>
+      <c r="AN184">
+        <v>1.24</v>
+      </c>
+      <c r="AO184">
+        <v>1.28</v>
+      </c>
+      <c r="AP184">
+        <v>1.76</v>
+      </c>
+      <c r="AQ184">
+        <v>1.09</v>
+      </c>
+      <c r="AR184">
+        <v>1.18</v>
+      </c>
+      <c r="AS184">
+        <v>1.25</v>
+      </c>
+      <c r="AT184">
+        <v>1.08</v>
+      </c>
+      <c r="AU184">
+        <v>1.68</v>
+      </c>
+      <c r="AV184">
+        <v>0.99</v>
+      </c>
+      <c r="AW184">
+        <v>2.67</v>
+      </c>
+      <c r="AX184">
+        <v>1.64</v>
+      </c>
+      <c r="AY184">
+        <v>9</v>
+      </c>
+      <c r="AZ184">
+        <v>2.6</v>
+      </c>
+      <c r="BA184">
+        <v>1.24</v>
+      </c>
+      <c r="BB184">
+        <v>1.46</v>
+      </c>
+      <c r="BC184">
+        <v>1.82</v>
+      </c>
+      <c r="BD184">
+        <v>2.32</v>
+      </c>
+      <c r="BE184">
+        <v>3.14</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>8</v>
+      </c>
+      <c r="BH184">
+        <v>5</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>11</v>
+      </c>
+      <c r="BK184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7063148</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45158.52083333334</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>77</v>
+      </c>
+      <c r="H185" t="s">
+        <v>69</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>81</v>
+      </c>
+      <c r="P185" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>7</v>
+      </c>
+      <c r="T185">
+        <v>2.63</v>
+      </c>
+      <c r="U185">
+        <v>2.05</v>
+      </c>
+      <c r="V185">
+        <v>4.75</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>2.5</v>
+      </c>
+      <c r="Y185">
+        <v>3.4</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>10</v>
+      </c>
+      <c r="AB185">
+        <v>1.06</v>
+      </c>
+      <c r="AC185">
+        <v>1.78</v>
+      </c>
+      <c r="AD185">
+        <v>2.77</v>
+      </c>
+      <c r="AE185">
+        <v>3.75</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>7</v>
+      </c>
+      <c r="AH185">
+        <v>1.4</v>
+      </c>
+      <c r="AI185">
+        <v>2.7</v>
+      </c>
+      <c r="AJ185">
+        <v>2.12</v>
+      </c>
+      <c r="AK185">
+        <v>1.64</v>
+      </c>
+      <c r="AL185">
+        <v>2</v>
+      </c>
+      <c r="AM185">
+        <v>1.73</v>
+      </c>
+      <c r="AN185">
+        <v>1.21</v>
+      </c>
+      <c r="AO185">
+        <v>1.3</v>
+      </c>
+      <c r="AP185">
+        <v>1.84</v>
+      </c>
+      <c r="AQ185">
+        <v>1.9</v>
+      </c>
+      <c r="AR185">
+        <v>1.36</v>
+      </c>
+      <c r="AS185">
+        <v>1.73</v>
+      </c>
+      <c r="AT185">
+        <v>1.5</v>
+      </c>
+      <c r="AU185">
+        <v>1.23</v>
+      </c>
+      <c r="AV185">
+        <v>1.25</v>
+      </c>
+      <c r="AW185">
+        <v>2.48</v>
+      </c>
+      <c r="AX185">
+        <v>1.71</v>
+      </c>
+      <c r="AY185">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ185">
+        <v>2.46</v>
+      </c>
+      <c r="BA185">
+        <v>1.27</v>
+      </c>
+      <c r="BB185">
+        <v>1.5</v>
+      </c>
+      <c r="BC185">
+        <v>1.88</v>
+      </c>
+      <c r="BD185">
+        <v>2.42</v>
+      </c>
+      <c r="BE185">
+        <v>3.34</v>
+      </c>
+      <c r="BF185">
+        <v>5</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>7</v>
+      </c>
+      <c r="BI185">
+        <v>6</v>
+      </c>
+      <c r="BJ185">
+        <v>12</v>
+      </c>
+      <c r="BK185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7063147</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45158.64583333334</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>80</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>81</v>
+      </c>
+      <c r="P186" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q186">
+        <v>8</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>14</v>
+      </c>
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
+        <v>2.15</v>
+      </c>
+      <c r="V186">
+        <v>3</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>3</v>
+      </c>
+      <c r="Y186">
+        <v>2.62</v>
+      </c>
+      <c r="Z186">
+        <v>1.44</v>
+      </c>
+      <c r="AA186">
+        <v>6</v>
+      </c>
+      <c r="AB186">
+        <v>1.11</v>
+      </c>
+      <c r="AC186">
+        <v>2.4</v>
+      </c>
+      <c r="AD186">
+        <v>2.98</v>
+      </c>
+      <c r="AE186">
+        <v>2.28</v>
+      </c>
+      <c r="AF186">
+        <v>1.05</v>
+      </c>
+      <c r="AG186">
+        <v>9</v>
+      </c>
+      <c r="AH186">
+        <v>1.25</v>
+      </c>
+      <c r="AI186">
+        <v>3.75</v>
+      </c>
+      <c r="AJ186">
+        <v>1.78</v>
+      </c>
+      <c r="AK186">
+        <v>2</v>
+      </c>
+      <c r="AL186">
+        <v>1.67</v>
+      </c>
+      <c r="AM186">
+        <v>2.15</v>
+      </c>
+      <c r="AN186">
+        <v>1.5</v>
+      </c>
+      <c r="AO186">
+        <v>1.29</v>
+      </c>
+      <c r="AP186">
+        <v>1.4</v>
+      </c>
+      <c r="AQ186">
+        <v>2.36</v>
+      </c>
+      <c r="AR186">
+        <v>1.09</v>
+      </c>
+      <c r="AS186">
+        <v>2.25</v>
+      </c>
+      <c r="AT186">
+        <v>1.08</v>
+      </c>
+      <c r="AU186">
+        <v>1.72</v>
+      </c>
+      <c r="AV186">
+        <v>1.7</v>
+      </c>
+      <c r="AW186">
+        <v>3.42</v>
+      </c>
+      <c r="AX186">
+        <v>2.05</v>
+      </c>
+      <c r="AY186">
+        <v>8.9</v>
+      </c>
+      <c r="AZ186">
+        <v>1.98</v>
+      </c>
+      <c r="BA186">
+        <v>1.25</v>
+      </c>
+      <c r="BB186">
+        <v>1.36</v>
+      </c>
+      <c r="BC186">
+        <v>1.85</v>
+      </c>
+      <c r="BD186">
+        <v>2.07</v>
+      </c>
+      <c r="BE186">
+        <v>2.67</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>3</v>
+      </c>
+      <c r="BH186">
+        <v>6</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>11</v>
+      </c>
+      <c r="BK186">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -36723,7 +36723,7 @@
         <v>2.67</v>
       </c>
       <c r="BF186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG186">
         <v>3</v>
@@ -36732,13 +36732,13 @@
         <v>6</v>
       </c>
       <c r="BI186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ186">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK186">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,18 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['8', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['19', '90+2']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -704,9 +716,6 @@
   </si>
   <si>
     <t>['45+2', '58']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -848,6 +857,18 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['29', '86']</t>
+  </si>
+  <si>
+    <t>['2', '64']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1474,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1540,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT2">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1922,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2026,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2116,7 +2137,7 @@
         <v>1.08</v>
       </c>
       <c r="AT5">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2304,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT6">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2408,7 +2429,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2599,7 +2620,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2686,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT8">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2790,7 +2811,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2877,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT9">
         <v>0.92</v>
@@ -3172,7 +3193,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3554,7 +3575,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3745,7 +3766,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3936,7 +3957,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4127,7 +4148,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4318,7 +4339,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4596,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT18">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4787,10 +4808,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT19">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4891,7 +4912,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4978,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT20">
         <v>1.08</v>
@@ -5169,10 +5190,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5360,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
         <v>1.2</v>
@@ -5554,7 +5575,7 @@
         <v>2.46</v>
       </c>
       <c r="AT23">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5655,7 +5676,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5742,7 +5763,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT24">
         <v>0.92</v>
@@ -5846,7 +5867,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5933,10 +5954,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6037,7 +6058,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6419,7 +6440,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6506,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT28">
         <v>1.3</v>
@@ -6801,7 +6822,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6891,7 +6912,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6992,7 +7013,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7183,7 +7204,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7374,7 +7395,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7565,7 +7586,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7652,10 +7673,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT34">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7756,7 +7777,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7843,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT35">
         <v>1.67</v>
@@ -7947,7 +7968,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8034,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT36">
         <v>1.08</v>
@@ -8228,7 +8249,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8329,7 +8350,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8416,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT38">
         <v>1.2</v>
@@ -8520,7 +8541,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8610,7 +8631,7 @@
         <v>2.46</v>
       </c>
       <c r="AT39">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8798,10 +8819,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT40">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8902,7 +8923,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8989,7 +9010,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
         <v>0.92</v>
@@ -9093,7 +9114,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9284,7 +9305,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9565,7 +9586,7 @@
         <v>2.55</v>
       </c>
       <c r="AT44">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9857,7 +9878,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10048,7 +10069,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10329,7 +10350,7 @@
         <v>1.64</v>
       </c>
       <c r="AT48">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10430,7 +10451,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10517,7 +10538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10708,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT50">
         <v>1.2</v>
@@ -10899,7 +10920,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT51">
         <v>1.5</v>
@@ -11284,7 +11305,7 @@
         <v>2.46</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11385,7 +11406,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11472,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT54">
         <v>1.67</v>
@@ -11576,7 +11597,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11666,7 +11687,7 @@
         <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11854,10 +11875,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT56">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12045,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT57">
         <v>0.92</v>
@@ -12236,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT58">
         <v>0.67</v>
@@ -12430,7 +12451,7 @@
         <v>1.73</v>
       </c>
       <c r="AT59">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12618,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT60">
         <v>1.3</v>
@@ -13003,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13194,7 +13215,7 @@
         <v>2.55</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13295,7 +13316,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13486,7 +13507,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13573,7 +13594,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT65">
         <v>1.18</v>
@@ -13677,7 +13698,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13767,7 +13788,7 @@
         <v>1.64</v>
       </c>
       <c r="AT66">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13955,7 +13976,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -14528,7 +14549,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT70">
         <v>1.2</v>
@@ -14722,7 +14743,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14823,7 +14844,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14910,7 +14931,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT72">
         <v>1.67</v>
@@ -15014,7 +15035,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15101,7 +15122,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT73">
         <v>1.5</v>
@@ -15295,7 +15316,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15486,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15674,7 +15695,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT76">
         <v>1.18</v>
@@ -15778,7 +15799,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15865,7 +15886,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT77">
         <v>1.08</v>
@@ -16247,7 +16268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT79">
         <v>1.3</v>
@@ -16351,7 +16372,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16438,7 +16459,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT80">
         <v>0.67</v>
@@ -16542,7 +16563,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16632,7 +16653,7 @@
         <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -17011,7 +17032,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17205,7 +17226,7 @@
         <v>2.46</v>
       </c>
       <c r="AT84">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17393,7 +17414,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT85">
         <v>1.18</v>
@@ -17688,7 +17709,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17778,7 +17799,7 @@
         <v>1.64</v>
       </c>
       <c r="AT87">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>0</v>
@@ -17879,7 +17900,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17966,7 +17987,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT88">
         <v>1.5</v>
@@ -18070,7 +18091,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18160,7 +18181,7 @@
         <v>1.08</v>
       </c>
       <c r="AT89">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU89">
         <v>0</v>
@@ -18348,7 +18369,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT90">
         <v>1.08</v>
@@ -18452,7 +18473,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18539,10 +18560,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT91">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>0</v>
@@ -18643,7 +18664,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18733,7 +18754,7 @@
         <v>1.08</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -18921,10 +18942,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT93">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -19025,7 +19046,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19115,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19216,7 +19237,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19303,7 +19324,7 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT95">
         <v>1.3</v>
@@ -19407,7 +19428,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19494,7 +19515,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT96">
         <v>1.18</v>
@@ -19598,7 +19619,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19789,7 +19810,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20171,7 +20192,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20261,7 +20282,7 @@
         <v>1.73</v>
       </c>
       <c r="AT100">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20449,7 +20470,7 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT101">
         <v>1.18</v>
@@ -20744,7 +20765,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20935,7 +20956,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21213,7 +21234,7 @@
         <v>0.6</v>
       </c>
       <c r="AS105">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT105">
         <v>0.67</v>
@@ -21317,7 +21338,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21404,10 +21425,10 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21508,7 +21529,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21699,7 +21720,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21786,10 +21807,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT108">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -21890,7 +21911,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21980,7 +22001,7 @@
         <v>1.08</v>
       </c>
       <c r="AT109">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -22081,7 +22102,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22168,7 +22189,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT110">
         <v>1.08</v>
@@ -22272,7 +22293,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22359,10 +22380,10 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -22463,7 +22484,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22550,7 +22571,7 @@
         <v>0.71</v>
       </c>
       <c r="AS112">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT112">
         <v>1.18</v>
@@ -22654,7 +22675,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22741,7 +22762,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT113">
         <v>1.3</v>
@@ -23317,7 +23338,7 @@
         <v>2.46</v>
       </c>
       <c r="AT116">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU116">
         <v>0</v>
@@ -23418,7 +23439,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23609,7 +23630,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23800,7 +23821,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23887,7 +23908,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT119">
         <v>1.08</v>
@@ -23991,7 +24012,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24269,7 +24290,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT121">
         <v>1.08</v>
@@ -24373,7 +24394,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24460,7 +24481,7 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT122">
         <v>1.08</v>
@@ -24564,7 +24585,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24842,7 +24863,7 @@
         <v>1.25</v>
       </c>
       <c r="AS124">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
         <v>1.08</v>
@@ -24946,7 +24967,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25036,7 +25057,7 @@
         <v>0.92</v>
       </c>
       <c r="AT125">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU125">
         <v>0.65</v>
@@ -25137,7 +25158,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25224,7 +25245,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT126">
         <v>1.18</v>
@@ -25418,7 +25439,7 @@
         <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU127">
         <v>0.95</v>
@@ -25710,7 +25731,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25797,7 +25818,7 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT129">
         <v>1.67</v>
@@ -26092,7 +26113,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26179,7 +26200,7 @@
         <v>0.88</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT131">
         <v>1.33</v>
@@ -26755,7 +26776,7 @@
         <v>2.55</v>
       </c>
       <c r="AT134">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -26943,7 +26964,7 @@
         <v>0.71</v>
       </c>
       <c r="AS135">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT135">
         <v>0.67</v>
@@ -27047,7 +27068,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27137,7 +27158,7 @@
         <v>2.46</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU136">
         <v>1.05</v>
@@ -27325,10 +27346,10 @@
         <v>2.25</v>
       </c>
       <c r="AS137">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT137">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU137">
         <v>2.03</v>
@@ -27516,7 +27537,7 @@
         <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT138">
         <v>1.08</v>
@@ -27620,7 +27641,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27710,7 +27731,7 @@
         <v>1.08</v>
       </c>
       <c r="AT139">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27811,7 +27832,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28002,7 +28023,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28089,7 +28110,7 @@
         <v>0.78</v>
       </c>
       <c r="AS141">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT141">
         <v>0.92</v>
@@ -28384,7 +28405,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28471,7 +28492,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT143">
         <v>1.08</v>
@@ -28766,7 +28787,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28853,10 +28874,10 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT145">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>1.28</v>
@@ -29044,7 +29065,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT146">
         <v>1.2</v>
@@ -29238,7 +29259,7 @@
         <v>0.92</v>
       </c>
       <c r="AT147">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU147">
         <v>0.99</v>
@@ -29429,7 +29450,7 @@
         <v>1.25</v>
       </c>
       <c r="AT148">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU148">
         <v>2.31</v>
@@ -29808,7 +29829,7 @@
         <v>0.78</v>
       </c>
       <c r="AS150">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT150">
         <v>1.18</v>
@@ -29912,7 +29933,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29999,10 +30020,10 @@
         <v>0.8</v>
       </c>
       <c r="AS151">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT151">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU151">
         <v>1.72</v>
@@ -30485,7 +30506,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30575,7 +30596,7 @@
         <v>1.08</v>
       </c>
       <c r="AT154">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30763,7 +30784,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT155">
         <v>1.33</v>
@@ -31058,7 +31079,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31145,7 +31166,7 @@
         <v>0.8</v>
       </c>
       <c r="AS157">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT157">
         <v>0.92</v>
@@ -31249,7 +31270,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31336,10 +31357,10 @@
         <v>0.73</v>
       </c>
       <c r="AS158">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT158">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU158">
         <v>1.36</v>
@@ -31631,7 +31652,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31718,7 +31739,7 @@
         <v>1.1</v>
       </c>
       <c r="AS160">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT160">
         <v>1.08</v>
@@ -31822,7 +31843,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -31909,10 +31930,10 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT161">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32100,10 +32121,10 @@
         <v>0.64</v>
       </c>
       <c r="AS162">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT162">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU162">
         <v>1.92</v>
@@ -32204,7 +32225,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32291,7 +32312,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT163">
         <v>0.67</v>
@@ -32482,7 +32503,7 @@
         <v>1.3</v>
       </c>
       <c r="AS164">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT164">
         <v>1.08</v>
@@ -33058,7 +33079,7 @@
         <v>2.46</v>
       </c>
       <c r="AT167">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU167">
         <v>1.28</v>
@@ -33159,7 +33180,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33350,7 +33371,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33732,7 +33753,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q171">
         <v>2</v>
@@ -34010,10 +34031,10 @@
         <v>0.92</v>
       </c>
       <c r="AS172">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT172">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU172">
         <v>1.26</v>
@@ -34204,7 +34225,7 @@
         <v>1.73</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU173">
         <v>1.1</v>
@@ -34496,7 +34517,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34586,7 +34607,7 @@
         <v>1.25</v>
       </c>
       <c r="AT175">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU175">
         <v>1.81</v>
@@ -34965,7 +34986,7 @@
         <v>0.6</v>
       </c>
       <c r="AS177">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
         <v>0.67</v>
@@ -35069,7 +35090,7 @@
         <v>81</v>
       </c>
       <c r="P178" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35156,10 +35177,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AT178">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="AU178">
         <v>1.79</v>
@@ -35642,7 +35663,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -35833,7 +35854,7 @@
         <v>195</v>
       </c>
       <c r="P182" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -35920,7 +35941,7 @@
         <v>1.33</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT182">
         <v>1.3</v>
@@ -36024,7 +36045,7 @@
         <v>81</v>
       </c>
       <c r="P183" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36684,7 +36705,7 @@
         <v>1.09</v>
       </c>
       <c r="AS186">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT186">
         <v>1.08</v>
@@ -36739,6 +36760,1343 @@
       </c>
       <c r="BK186">
         <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7063153</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45163.64583333334</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>69</v>
+      </c>
+      <c r="H187" t="s">
+        <v>73</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>127</v>
+      </c>
+      <c r="P187" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q187">
+        <v>10</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>11</v>
+      </c>
+      <c r="T187">
+        <v>2.85</v>
+      </c>
+      <c r="U187">
+        <v>2.07</v>
+      </c>
+      <c r="V187">
+        <v>3.7</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>2.75</v>
+      </c>
+      <c r="Y187">
+        <v>2.75</v>
+      </c>
+      <c r="Z187">
+        <v>1.4</v>
+      </c>
+      <c r="AA187">
+        <v>7</v>
+      </c>
+      <c r="AB187">
+        <v>1.08</v>
+      </c>
+      <c r="AC187">
+        <v>2.02</v>
+      </c>
+      <c r="AD187">
+        <v>3.15</v>
+      </c>
+      <c r="AE187">
+        <v>3.25</v>
+      </c>
+      <c r="AF187">
+        <v>1.06</v>
+      </c>
+      <c r="AG187">
+        <v>8</v>
+      </c>
+      <c r="AH187">
+        <v>1.33</v>
+      </c>
+      <c r="AI187">
+        <v>3.25</v>
+      </c>
+      <c r="AJ187">
+        <v>1.89</v>
+      </c>
+      <c r="AK187">
+        <v>1.69</v>
+      </c>
+      <c r="AL187">
+        <v>1.79</v>
+      </c>
+      <c r="AM187">
+        <v>1.92</v>
+      </c>
+      <c r="AN187">
+        <v>1.35</v>
+      </c>
+      <c r="AO187">
+        <v>1.3</v>
+      </c>
+      <c r="AP187">
+        <v>1.59</v>
+      </c>
+      <c r="AQ187">
+        <v>0.64</v>
+      </c>
+      <c r="AR187">
+        <v>0.92</v>
+      </c>
+      <c r="AS187">
+        <v>0.67</v>
+      </c>
+      <c r="AT187">
+        <v>0.92</v>
+      </c>
+      <c r="AU187">
+        <v>1.43</v>
+      </c>
+      <c r="AV187">
+        <v>1.42</v>
+      </c>
+      <c r="AW187">
+        <v>2.85</v>
+      </c>
+      <c r="AX187">
+        <v>1.95</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>2.1</v>
+      </c>
+      <c r="BA187">
+        <v>1.24</v>
+      </c>
+      <c r="BB187">
+        <v>1.55</v>
+      </c>
+      <c r="BC187">
+        <v>1.98</v>
+      </c>
+      <c r="BD187">
+        <v>2.52</v>
+      </c>
+      <c r="BE187">
+        <v>3.3</v>
+      </c>
+      <c r="BF187">
+        <v>7</v>
+      </c>
+      <c r="BG187">
+        <v>9</v>
+      </c>
+      <c r="BH187">
+        <v>3</v>
+      </c>
+      <c r="BI187">
+        <v>1</v>
+      </c>
+      <c r="BJ187">
+        <v>10</v>
+      </c>
+      <c r="BK187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7063152</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45163.75</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>78</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>197</v>
+      </c>
+      <c r="P188" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>6</v>
+      </c>
+      <c r="S188">
+        <v>7</v>
+      </c>
+      <c r="T188">
+        <v>2.27</v>
+      </c>
+      <c r="U188">
+        <v>2.13</v>
+      </c>
+      <c r="V188">
+        <v>5.15</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>2.75</v>
+      </c>
+      <c r="Z188">
+        <v>1.4</v>
+      </c>
+      <c r="AA188">
+        <v>7</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>1.69</v>
+      </c>
+      <c r="AD188">
+        <v>3.3</v>
+      </c>
+      <c r="AE188">
+        <v>4.2</v>
+      </c>
+      <c r="AF188">
+        <v>1.06</v>
+      </c>
+      <c r="AG188">
+        <v>8</v>
+      </c>
+      <c r="AH188">
+        <v>1.33</v>
+      </c>
+      <c r="AI188">
+        <v>3.25</v>
+      </c>
+      <c r="AJ188">
+        <v>1.92</v>
+      </c>
+      <c r="AK188">
+        <v>1.67</v>
+      </c>
+      <c r="AL188">
+        <v>1.88</v>
+      </c>
+      <c r="AM188">
+        <v>1.82</v>
+      </c>
+      <c r="AN188">
+        <v>1.17</v>
+      </c>
+      <c r="AO188">
+        <v>1.26</v>
+      </c>
+      <c r="AP188">
+        <v>2.03</v>
+      </c>
+      <c r="AQ188">
+        <v>1.67</v>
+      </c>
+      <c r="AR188">
+        <v>2.18</v>
+      </c>
+      <c r="AS188">
+        <v>1.77</v>
+      </c>
+      <c r="AT188">
+        <v>2</v>
+      </c>
+      <c r="AU188">
+        <v>1.53</v>
+      </c>
+      <c r="AV188">
+        <v>1.32</v>
+      </c>
+      <c r="AW188">
+        <v>2.85</v>
+      </c>
+      <c r="AX188">
+        <v>1.44</v>
+      </c>
+      <c r="AY188">
+        <v>8.5</v>
+      </c>
+      <c r="AZ188">
+        <v>3.2</v>
+      </c>
+      <c r="BA188">
+        <v>1.3</v>
+      </c>
+      <c r="BB188">
+        <v>1.59</v>
+      </c>
+      <c r="BC188">
+        <v>2.03</v>
+      </c>
+      <c r="BD188">
+        <v>2.7</v>
+      </c>
+      <c r="BE188">
+        <v>3.2</v>
+      </c>
+      <c r="BF188">
+        <v>9</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>10</v>
+      </c>
+      <c r="BI188">
+        <v>4</v>
+      </c>
+      <c r="BJ188">
+        <v>19</v>
+      </c>
+      <c r="BK188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7063156</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>71</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>81</v>
+      </c>
+      <c r="P189" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>-1</v>
+      </c>
+      <c r="S189">
+        <v>-1</v>
+      </c>
+      <c r="T189">
+        <v>3.55</v>
+      </c>
+      <c r="U189">
+        <v>2.14</v>
+      </c>
+      <c r="V189">
+        <v>3.32</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>2.75</v>
+      </c>
+      <c r="Y189">
+        <v>3</v>
+      </c>
+      <c r="Z189">
+        <v>1.36</v>
+      </c>
+      <c r="AA189">
+        <v>7.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.07</v>
+      </c>
+      <c r="AC189">
+        <v>2.8</v>
+      </c>
+      <c r="AD189">
+        <v>3.05</v>
+      </c>
+      <c r="AE189">
+        <v>2.5</v>
+      </c>
+      <c r="AF189">
+        <v>1.08</v>
+      </c>
+      <c r="AG189">
+        <v>7</v>
+      </c>
+      <c r="AH189">
+        <v>1.4</v>
+      </c>
+      <c r="AI189">
+        <v>2.75</v>
+      </c>
+      <c r="AJ189">
+        <v>2.15</v>
+      </c>
+      <c r="AK189">
+        <v>1.67</v>
+      </c>
+      <c r="AL189">
+        <v>1.84</v>
+      </c>
+      <c r="AM189">
+        <v>1.92</v>
+      </c>
+      <c r="AN189">
+        <v>1.48</v>
+      </c>
+      <c r="AO189">
+        <v>1.3</v>
+      </c>
+      <c r="AP189">
+        <v>1.4</v>
+      </c>
+      <c r="AQ189">
+        <v>1.18</v>
+      </c>
+      <c r="AR189">
+        <v>1</v>
+      </c>
+      <c r="AS189">
+        <v>1.08</v>
+      </c>
+      <c r="AT189">
+        <v>1.15</v>
+      </c>
+      <c r="AU189">
+        <v>1.36</v>
+      </c>
+      <c r="AV189">
+        <v>0.93</v>
+      </c>
+      <c r="AW189">
+        <v>2.29</v>
+      </c>
+      <c r="AX189">
+        <v>2.1</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>2</v>
+      </c>
+      <c r="BA189">
+        <v>1.25</v>
+      </c>
+      <c r="BB189">
+        <v>1.57</v>
+      </c>
+      <c r="BC189">
+        <v>2</v>
+      </c>
+      <c r="BD189">
+        <v>2.6</v>
+      </c>
+      <c r="BE189">
+        <v>3.2</v>
+      </c>
+      <c r="BF189">
+        <v>-1</v>
+      </c>
+      <c r="BG189">
+        <v>-1</v>
+      </c>
+      <c r="BH189">
+        <v>-1</v>
+      </c>
+      <c r="BI189">
+        <v>-1</v>
+      </c>
+      <c r="BJ189">
+        <v>-1</v>
+      </c>
+      <c r="BK189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7063154</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45164.64583333334</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>144</v>
+      </c>
+      <c r="P190" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>6</v>
+      </c>
+      <c r="T190">
+        <v>2.35</v>
+      </c>
+      <c r="U190">
+        <v>2.09</v>
+      </c>
+      <c r="V190">
+        <v>5</v>
+      </c>
+      <c r="W190">
+        <v>1.43</v>
+      </c>
+      <c r="X190">
+        <v>2.71</v>
+      </c>
+      <c r="Y190">
+        <v>3</v>
+      </c>
+      <c r="Z190">
+        <v>1.36</v>
+      </c>
+      <c r="AA190">
+        <v>7.8</v>
+      </c>
+      <c r="AB190">
+        <v>1.06</v>
+      </c>
+      <c r="AC190">
+        <v>1.83</v>
+      </c>
+      <c r="AD190">
+        <v>3.35</v>
+      </c>
+      <c r="AE190">
+        <v>4.1</v>
+      </c>
+      <c r="AF190">
+        <v>1.06</v>
+      </c>
+      <c r="AG190">
+        <v>10</v>
+      </c>
+      <c r="AH190">
+        <v>1.33</v>
+      </c>
+      <c r="AI190">
+        <v>3.05</v>
+      </c>
+      <c r="AJ190">
+        <v>1.9</v>
+      </c>
+      <c r="AK190">
+        <v>1.82</v>
+      </c>
+      <c r="AL190">
+        <v>1.92</v>
+      </c>
+      <c r="AM190">
+        <v>1.84</v>
+      </c>
+      <c r="AN190">
+        <v>1.18</v>
+      </c>
+      <c r="AO190">
+        <v>1.26</v>
+      </c>
+      <c r="AP190">
+        <v>1.95</v>
+      </c>
+      <c r="AQ190">
+        <v>2.25</v>
+      </c>
+      <c r="AR190">
+        <v>0.58</v>
+      </c>
+      <c r="AS190">
+        <v>2.31</v>
+      </c>
+      <c r="AT190">
+        <v>0.54</v>
+      </c>
+      <c r="AU190">
+        <v>1.72</v>
+      </c>
+      <c r="AV190">
+        <v>1.01</v>
+      </c>
+      <c r="AW190">
+        <v>2.73</v>
+      </c>
+      <c r="AX190">
+        <v>1.73</v>
+      </c>
+      <c r="AY190">
+        <v>8</v>
+      </c>
+      <c r="AZ190">
+        <v>2.5</v>
+      </c>
+      <c r="BA190">
+        <v>1.28</v>
+      </c>
+      <c r="BB190">
+        <v>1.46</v>
+      </c>
+      <c r="BC190">
+        <v>1.85</v>
+      </c>
+      <c r="BD190">
+        <v>2.37</v>
+      </c>
+      <c r="BE190">
+        <v>3.2</v>
+      </c>
+      <c r="BF190">
+        <v>5</v>
+      </c>
+      <c r="BG190">
+        <v>7</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>5</v>
+      </c>
+      <c r="BJ190">
+        <v>10</v>
+      </c>
+      <c r="BK190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7063155</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45164.75</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="G191" t="s">
+        <v>67</v>
+      </c>
+      <c r="H191" t="s">
+        <v>70</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>198</v>
+      </c>
+      <c r="P191" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q191">
+        <v>3</v>
+      </c>
+      <c r="R191">
+        <v>6</v>
+      </c>
+      <c r="S191">
+        <v>9</v>
+      </c>
+      <c r="T191">
+        <v>5.45</v>
+      </c>
+      <c r="U191">
+        <v>2.05</v>
+      </c>
+      <c r="V191">
+        <v>2.31</v>
+      </c>
+      <c r="W191">
+        <v>1.47</v>
+      </c>
+      <c r="X191">
+        <v>2.57</v>
+      </c>
+      <c r="Y191">
+        <v>3.22</v>
+      </c>
+      <c r="Z191">
+        <v>1.32</v>
+      </c>
+      <c r="AA191">
+        <v>8.5</v>
+      </c>
+      <c r="AB191">
+        <v>1.05</v>
+      </c>
+      <c r="AC191">
+        <v>4.3</v>
+      </c>
+      <c r="AD191">
+        <v>3.35</v>
+      </c>
+      <c r="AE191">
+        <v>1.8</v>
+      </c>
+      <c r="AF191">
+        <v>1.06</v>
+      </c>
+      <c r="AG191">
+        <v>9.4</v>
+      </c>
+      <c r="AH191">
+        <v>1.37</v>
+      </c>
+      <c r="AI191">
+        <v>2.87</v>
+      </c>
+      <c r="AJ191">
+        <v>1.94</v>
+      </c>
+      <c r="AK191">
+        <v>1.78</v>
+      </c>
+      <c r="AL191">
+        <v>2.06</v>
+      </c>
+      <c r="AM191">
+        <v>1.73</v>
+      </c>
+      <c r="AN191">
+        <v>2.03</v>
+      </c>
+      <c r="AO191">
+        <v>1.26</v>
+      </c>
+      <c r="AP191">
+        <v>1.15</v>
+      </c>
+      <c r="AQ191">
+        <v>1.75</v>
+      </c>
+      <c r="AR191">
+        <v>1.08</v>
+      </c>
+      <c r="AS191">
+        <v>1.69</v>
+      </c>
+      <c r="AT191">
+        <v>1.08</v>
+      </c>
+      <c r="AU191">
+        <v>1.32</v>
+      </c>
+      <c r="AV191">
+        <v>1.61</v>
+      </c>
+      <c r="AW191">
+        <v>2.93</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>8.5</v>
+      </c>
+      <c r="AZ191">
+        <v>1.53</v>
+      </c>
+      <c r="BA191">
+        <v>1.28</v>
+      </c>
+      <c r="BB191">
+        <v>1.51</v>
+      </c>
+      <c r="BC191">
+        <v>2</v>
+      </c>
+      <c r="BD191">
+        <v>2.47</v>
+      </c>
+      <c r="BE191">
+        <v>3.42</v>
+      </c>
+      <c r="BF191">
+        <v>4</v>
+      </c>
+      <c r="BG191">
+        <v>7</v>
+      </c>
+      <c r="BH191">
+        <v>1</v>
+      </c>
+      <c r="BI191">
+        <v>4</v>
+      </c>
+      <c r="BJ191">
+        <v>5</v>
+      </c>
+      <c r="BK191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7063158</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" t="s">
+        <v>76</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>199</v>
+      </c>
+      <c r="P192" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q192">
+        <v>6</v>
+      </c>
+      <c r="R192">
+        <v>4</v>
+      </c>
+      <c r="S192">
+        <v>10</v>
+      </c>
+      <c r="T192">
+        <v>3.25</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>3.75</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>2.5</v>
+      </c>
+      <c r="Y192">
+        <v>3.5</v>
+      </c>
+      <c r="Z192">
+        <v>1.29</v>
+      </c>
+      <c r="AA192">
+        <v>10</v>
+      </c>
+      <c r="AB192">
+        <v>1.06</v>
+      </c>
+      <c r="AC192">
+        <v>2.5</v>
+      </c>
+      <c r="AD192">
+        <v>3.1</v>
+      </c>
+      <c r="AE192">
+        <v>2.5</v>
+      </c>
+      <c r="AF192">
+        <v>1.09</v>
+      </c>
+      <c r="AG192">
+        <v>6.5</v>
+      </c>
+      <c r="AH192">
+        <v>1.42</v>
+      </c>
+      <c r="AI192">
+        <v>2.75</v>
+      </c>
+      <c r="AJ192">
+        <v>2.3</v>
+      </c>
+      <c r="AK192">
+        <v>1.6</v>
+      </c>
+      <c r="AL192">
+        <v>1.91</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.33</v>
+      </c>
+      <c r="AO192">
+        <v>1.3</v>
+      </c>
+      <c r="AP192">
+        <v>1.47</v>
+      </c>
+      <c r="AQ192">
+        <v>1.33</v>
+      </c>
+      <c r="AR192">
+        <v>0.82</v>
+      </c>
+      <c r="AS192">
+        <v>1.23</v>
+      </c>
+      <c r="AT192">
+        <v>1</v>
+      </c>
+      <c r="AU192">
+        <v>1.21</v>
+      </c>
+      <c r="AV192">
+        <v>1.49</v>
+      </c>
+      <c r="AW192">
+        <v>2.7</v>
+      </c>
+      <c r="AX192">
+        <v>1.94</v>
+      </c>
+      <c r="AY192">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ192">
+        <v>2.1</v>
+      </c>
+      <c r="BA192">
+        <v>1.23</v>
+      </c>
+      <c r="BB192">
+        <v>1.44</v>
+      </c>
+      <c r="BC192">
+        <v>2</v>
+      </c>
+      <c r="BD192">
+        <v>2.22</v>
+      </c>
+      <c r="BE192">
+        <v>3.04</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>5</v>
+      </c>
+      <c r="BH192">
+        <v>8</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>12</v>
+      </c>
+      <c r="BK192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7063157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45165.52083333334</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193" t="s">
+        <v>65</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>200</v>
+      </c>
+      <c r="P193" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q193">
+        <v>8</v>
+      </c>
+      <c r="R193">
+        <v>6</v>
+      </c>
+      <c r="S193">
+        <v>14</v>
+      </c>
+      <c r="T193">
+        <v>3.1</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>3.75</v>
+      </c>
+      <c r="W193">
+        <v>1.5</v>
+      </c>
+      <c r="X193">
+        <v>2.5</v>
+      </c>
+      <c r="Y193">
+        <v>3.4</v>
+      </c>
+      <c r="Z193">
+        <v>1.3</v>
+      </c>
+      <c r="AA193">
+        <v>10</v>
+      </c>
+      <c r="AB193">
+        <v>1.06</v>
+      </c>
+      <c r="AC193">
+        <v>2.25</v>
+      </c>
+      <c r="AD193">
+        <v>3.2</v>
+      </c>
+      <c r="AE193">
+        <v>3.2</v>
+      </c>
+      <c r="AF193">
+        <v>1.07</v>
+      </c>
+      <c r="AG193">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH193">
+        <v>1.39</v>
+      </c>
+      <c r="AI193">
+        <v>2.75</v>
+      </c>
+      <c r="AJ193">
+        <v>2.26</v>
+      </c>
+      <c r="AK193">
+        <v>1.45</v>
+      </c>
+      <c r="AL193">
+        <v>1.91</v>
+      </c>
+      <c r="AM193">
+        <v>1.8</v>
+      </c>
+      <c r="AN193">
+        <v>1.31</v>
+      </c>
+      <c r="AO193">
+        <v>1.31</v>
+      </c>
+      <c r="AP193">
+        <v>1.58</v>
+      </c>
+      <c r="AQ193">
+        <v>1.09</v>
+      </c>
+      <c r="AR193">
+        <v>0.85</v>
+      </c>
+      <c r="AS193">
+        <v>1.08</v>
+      </c>
+      <c r="AT193">
+        <v>0.86</v>
+      </c>
+      <c r="AU193">
+        <v>1.31</v>
+      </c>
+      <c r="AV193">
+        <v>1.29</v>
+      </c>
+      <c r="AW193">
+        <v>2.6</v>
+      </c>
+      <c r="AX193">
+        <v>1.75</v>
+      </c>
+      <c r="AY193">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ193">
+        <v>2.38</v>
+      </c>
+      <c r="BA193">
+        <v>1.21</v>
+      </c>
+      <c r="BB193">
+        <v>1.4</v>
+      </c>
+      <c r="BC193">
+        <v>1.8</v>
+      </c>
+      <c r="BD193">
+        <v>2.22</v>
+      </c>
+      <c r="BE193">
+        <v>2.88</v>
+      </c>
+      <c r="BF193">
+        <v>6</v>
+      </c>
+      <c r="BG193">
+        <v>7</v>
+      </c>
+      <c r="BH193">
+        <v>2</v>
+      </c>
+      <c r="BI193">
+        <v>6</v>
+      </c>
+      <c r="BJ193">
+        <v>8</v>
+      </c>
+      <c r="BK193">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,13 +610,16 @@
     <t>['8', '82', '90+1']</t>
   </si>
   <si>
-    <t>['19', '90+2']</t>
+    <t>['18', '90']</t>
   </si>
   <si>
     <t>['60']</t>
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['28', '64']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -862,13 +865,16 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['29', '86']</t>
+    <t>['27', '86']</t>
   </si>
   <si>
-    <t>['2', '64']</t>
+    <t>['1', '64']</t>
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['23', '37']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1752,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT3">
         <v>1.18</v>
@@ -2047,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2429,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2620,7 +2626,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2811,7 +2817,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3193,7 +3199,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3575,7 +3581,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3766,7 +3772,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3957,7 +3963,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4148,7 +4154,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4339,7 +4345,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4912,7 +4918,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5384,7 +5390,7 @@
         <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5572,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5676,7 +5682,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5867,7 +5873,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6058,7 +6064,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6440,7 +6446,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6822,7 +6828,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7013,7 +7019,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7204,7 +7210,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7395,7 +7401,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7586,7 +7592,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7777,7 +7783,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7968,7 +7974,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8350,7 +8356,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8440,7 +8446,7 @@
         <v>2.31</v>
       </c>
       <c r="AT38">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8541,7 +8547,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8628,7 +8634,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT39">
         <v>0.86</v>
@@ -8923,7 +8929,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9114,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9305,7 +9311,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9878,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10069,7 +10075,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10156,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT47">
         <v>1.5</v>
@@ -10451,7 +10457,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10732,7 +10738,7 @@
         <v>1.08</v>
       </c>
       <c r="AT50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11302,7 +11308,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT53">
         <v>1.15</v>
@@ -11406,7 +11412,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11597,7 +11603,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13316,7 +13322,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13507,7 +13513,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -14167,7 +14173,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT68">
         <v>1.08</v>
@@ -14552,7 +14558,7 @@
         <v>1.23</v>
       </c>
       <c r="AT70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -14844,7 +14850,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15035,7 +15041,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15799,7 +15805,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16372,7 +16378,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16563,7 +16569,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17223,7 +17229,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT84">
         <v>0.54</v>
@@ -17709,7 +17715,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17900,7 +17906,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18091,7 +18097,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18473,7 +18479,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18664,7 +18670,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -19046,7 +19052,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19237,7 +19243,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19428,7 +19434,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19619,7 +19625,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19810,7 +19816,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20088,7 +20094,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT99">
         <v>0.92</v>
@@ -20192,7 +20198,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20664,7 +20670,7 @@
         <v>2.55</v>
       </c>
       <c r="AT102">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU102">
         <v>0</v>
@@ -20765,7 +20771,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20956,7 +20962,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21338,7 +21344,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21529,7 +21535,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21720,7 +21726,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21911,7 +21917,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22102,7 +22108,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22293,7 +22299,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22484,7 +22490,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22675,7 +22681,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23335,7 +23341,7 @@
         <v>2.43</v>
       </c>
       <c r="AS116">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT116">
         <v>2</v>
@@ -23439,7 +23445,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23529,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="AT117">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23630,7 +23636,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23821,7 +23827,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24012,7 +24018,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24394,7 +24400,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24585,7 +24591,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24967,7 +24973,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25158,7 +25164,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25731,7 +25737,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26113,7 +26119,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26585,7 +26591,7 @@
         <v>1.25</v>
       </c>
       <c r="AT133">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU133">
         <v>2.29</v>
@@ -27068,7 +27074,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27155,7 +27161,7 @@
         <v>0.63</v>
       </c>
       <c r="AS136">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT136">
         <v>1.15</v>
@@ -27641,7 +27647,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27832,7 +27838,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28023,7 +28029,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28405,7 +28411,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28787,7 +28793,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29068,7 +29074,7 @@
         <v>1.77</v>
       </c>
       <c r="AT146">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU146">
         <v>2.03</v>
@@ -29933,7 +29939,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30211,7 +30217,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT152">
         <v>1.5</v>
@@ -30506,7 +30512,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31079,7 +31085,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31270,7 +31276,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31652,7 +31658,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31843,7 +31849,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32225,7 +32231,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32888,7 +32894,7 @@
         <v>1.64</v>
       </c>
       <c r="AT166">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU166">
         <v>1.09</v>
@@ -33076,7 +33082,7 @@
         <v>0.9</v>
       </c>
       <c r="AS167">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33180,7 +33186,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33371,7 +33377,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33753,7 +33759,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>2</v>
@@ -34517,7 +34523,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34795,7 +34801,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT176">
         <v>1.67</v>
@@ -35090,7 +35096,7 @@
         <v>81</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35663,7 +35669,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -35854,7 +35860,7 @@
         <v>195</v>
       </c>
       <c r="P182" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36045,7 +36051,7 @@
         <v>81</v>
       </c>
       <c r="P183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36135,7 +36141,7 @@
         <v>0.92</v>
       </c>
       <c r="AT183">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU183">
         <v>1.24</v>
@@ -37191,16 +37197,16 @@
         <v>81</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R189">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S189">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T189">
         <v>3.55</v>
@@ -37317,22 +37323,22 @@
         <v>3.2</v>
       </c>
       <c r="BF189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG189">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH189">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI189">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ189">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK189">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:63">
@@ -37511,19 +37517,19 @@
         <v>5</v>
       </c>
       <c r="BG190">
+        <v>6</v>
+      </c>
+      <c r="BH190">
         <v>7</v>
-      </c>
-      <c r="BH190">
-        <v>5</v>
       </c>
       <c r="BI190">
         <v>5</v>
       </c>
       <c r="BJ190">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK190">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:63">
@@ -37573,7 +37579,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37764,7 +37770,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -37955,7 +37961,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q193">
         <v>8</v>
@@ -38081,22 +38087,213 @@
         <v>2.88</v>
       </c>
       <c r="BF193">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG193">
+        <v>2</v>
+      </c>
+      <c r="BH193">
+        <v>3</v>
+      </c>
+      <c r="BI193">
+        <v>5</v>
+      </c>
+      <c r="BJ193">
+        <v>5</v>
+      </c>
+      <c r="BK193">
         <v>7</v>
       </c>
-      <c r="BH193">
-        <v>2</v>
-      </c>
-      <c r="BI193">
-        <v>6</v>
-      </c>
-      <c r="BJ193">
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7063151</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45165.64583333334</v>
+      </c>
+      <c r="F194">
+        <v>2</v>
+      </c>
+      <c r="G194" t="s">
+        <v>66</v>
+      </c>
+      <c r="H194" t="s">
+        <v>68</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>201</v>
+      </c>
+      <c r="P194" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q194">
         <v>8</v>
       </c>
-      <c r="BK193">
+      <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
+        <v>11</v>
+      </c>
+      <c r="T194">
+        <v>1.95</v>
+      </c>
+      <c r="U194">
+        <v>2.3</v>
+      </c>
+      <c r="V194">
+        <v>7</v>
+      </c>
+      <c r="W194">
+        <v>1.36</v>
+      </c>
+      <c r="X194">
+        <v>3</v>
+      </c>
+      <c r="Y194">
+        <v>2.75</v>
+      </c>
+      <c r="Z194">
+        <v>1.4</v>
+      </c>
+      <c r="AA194">
+        <v>7</v>
+      </c>
+      <c r="AB194">
+        <v>1.1</v>
+      </c>
+      <c r="AC194">
+        <v>1.44</v>
+      </c>
+      <c r="AD194">
+        <v>4.36</v>
+      </c>
+      <c r="AE194">
+        <v>6.93</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>12.5</v>
+      </c>
+      <c r="AH194">
+        <v>1.27</v>
+      </c>
+      <c r="AI194">
+        <v>3.45</v>
+      </c>
+      <c r="AJ194">
+        <v>1.69</v>
+      </c>
+      <c r="AK194">
+        <v>1.86</v>
+      </c>
+      <c r="AL194">
+        <v>2.1</v>
+      </c>
+      <c r="AM194">
+        <v>1.67</v>
+      </c>
+      <c r="AN194">
+        <v>1.07</v>
+      </c>
+      <c r="AO194">
+        <v>1.18</v>
+      </c>
+      <c r="AP194">
+        <v>2.64</v>
+      </c>
+      <c r="AQ194">
+        <v>2.46</v>
+      </c>
+      <c r="AR194">
+        <v>1.2</v>
+      </c>
+      <c r="AS194">
+        <v>2.36</v>
+      </c>
+      <c r="AT194">
+        <v>1.18</v>
+      </c>
+      <c r="AU194">
+        <v>1.47</v>
+      </c>
+      <c r="AV194">
+        <v>1.27</v>
+      </c>
+      <c r="AW194">
+        <v>2.74</v>
+      </c>
+      <c r="AX194">
+        <v>1.29</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>4.4</v>
+      </c>
+      <c r="BA194">
+        <v>1.34</v>
+      </c>
+      <c r="BB194">
+        <v>1.8</v>
+      </c>
+      <c r="BC194">
+        <v>2.12</v>
+      </c>
+      <c r="BD194">
+        <v>2.49</v>
+      </c>
+      <c r="BE194">
+        <v>3.84</v>
+      </c>
+      <c r="BF194">
+        <v>8</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>5</v>
+      </c>
+      <c r="BI194">
+        <v>1</v>
+      </c>
+      <c r="BJ194">
         <v>13</v>
+      </c>
+      <c r="BK194">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>['28', '64']</t>
+  </si>
+  <si>
+    <t>['4', '45+2']</t>
+  </si>
+  <si>
+    <t>['25', '56']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1489,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2053,7 +2062,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2435,7 +2444,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2525,7 +2534,7 @@
         <v>2.55</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2626,7 +2635,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2817,7 +2826,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3098,7 +3107,7 @@
         <v>2.55</v>
       </c>
       <c r="AT10">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3199,7 +3208,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3286,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3581,7 +3590,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3772,7 +3781,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3859,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT14">
         <v>1.18</v>
@@ -3963,7 +3972,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4050,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4154,7 +4163,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4241,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4345,7 +4354,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4432,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4918,7 +4927,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5682,7 +5691,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5873,7 +5882,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6064,7 +6073,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6342,10 +6351,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT27">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6446,7 +6455,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6536,7 +6545,7 @@
         <v>1.77</v>
       </c>
       <c r="AT28">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6724,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -6828,7 +6837,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7019,7 +7028,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7210,7 +7219,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7297,10 +7306,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7401,7 +7410,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7488,10 +7497,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7592,7 +7601,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7783,7 +7792,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7873,7 +7882,7 @@
         <v>0.67</v>
       </c>
       <c r="AT35">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7974,7 +7983,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8252,7 +8261,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT37">
         <v>1.15</v>
@@ -8356,7 +8365,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8547,7 +8556,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8929,7 +8938,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9120,7 +9129,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9207,10 +9216,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
+        <v>1.07</v>
+      </c>
+      <c r="AT42">
         <v>1.08</v>
-      </c>
-      <c r="AT42">
-        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9311,7 +9320,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9398,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT43">
         <v>0.67</v>
@@ -9780,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9884,7 +9893,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9971,7 +9980,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>1.08</v>
@@ -10075,7 +10084,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10165,7 +10174,7 @@
         <v>2.36</v>
       </c>
       <c r="AT47">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10457,7 +10466,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10547,7 +10556,7 @@
         <v>1.77</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10929,7 +10938,7 @@
         <v>2.31</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11412,7 +11421,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11502,7 +11511,7 @@
         <v>1.69</v>
       </c>
       <c r="AT54">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11603,7 +11612,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11690,7 +11699,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT55">
         <v>0.54</v>
@@ -12454,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT59">
         <v>0.86</v>
@@ -12648,7 +12657,7 @@
         <v>2.31</v>
       </c>
       <c r="AT60">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12836,7 +12845,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT61">
         <v>1.18</v>
@@ -13027,7 +13036,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13322,7 +13331,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13409,7 +13418,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT64">
         <v>1.08</v>
@@ -13513,7 +13522,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13603,7 +13612,7 @@
         <v>0.67</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13985,7 +13994,7 @@
         <v>1.69</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14746,7 +14755,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14850,7 +14859,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14940,7 +14949,7 @@
         <v>1.08</v>
       </c>
       <c r="AT72">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -15041,7 +15050,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15131,7 +15140,7 @@
         <v>1.08</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15319,7 +15328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT74">
         <v>0.86</v>
@@ -15510,7 +15519,7 @@
         <v>0.4</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT75">
         <v>1.15</v>
@@ -15805,7 +15814,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16083,7 +16092,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT78">
         <v>1.08</v>
@@ -16277,7 +16286,7 @@
         <v>1.69</v>
       </c>
       <c r="AT79">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16378,7 +16387,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16569,7 +16578,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16656,7 +16665,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -17041,7 +17050,7 @@
         <v>1.08</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17423,7 +17432,7 @@
         <v>1.08</v>
       </c>
       <c r="AT85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17611,10 +17620,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT86">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17715,7 +17724,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17906,7 +17915,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17996,7 +18005,7 @@
         <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -18097,7 +18106,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18184,7 +18193,7 @@
         <v>1.17</v>
       </c>
       <c r="AS89">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT89">
         <v>0.86</v>
@@ -18479,7 +18488,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18670,7 +18679,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18757,7 +18766,7 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT92">
         <v>1.15</v>
@@ -19052,7 +19061,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19139,7 +19148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT94">
         <v>0.54</v>
@@ -19243,7 +19252,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19333,7 +19342,7 @@
         <v>1.08</v>
       </c>
       <c r="AT95">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19434,7 +19443,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19625,7 +19634,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19712,7 +19721,7 @@
         <v>0.6</v>
       </c>
       <c r="AS97">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT97">
         <v>1.08</v>
@@ -19816,7 +19825,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19903,10 +19912,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT98">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -20198,7 +20207,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20285,7 +20294,7 @@
         <v>2.33</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
         <v>2</v>
@@ -20479,7 +20488,7 @@
         <v>1.23</v>
       </c>
       <c r="AT101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU101">
         <v>2.23</v>
@@ -20771,7 +20780,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20861,7 +20870,7 @@
         <v>1.64</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20962,7 +20971,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21052,7 +21061,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21344,7 +21353,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21535,7 +21544,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21622,7 +21631,7 @@
         <v>0.43</v>
       </c>
       <c r="AS107">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT107">
         <v>0.92</v>
@@ -21726,7 +21735,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21917,7 +21926,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22004,7 +22013,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT109">
         <v>0.54</v>
@@ -22108,7 +22117,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22299,7 +22308,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22490,7 +22499,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22681,7 +22690,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22771,7 +22780,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -22962,7 +22971,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -23153,7 +23162,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -23445,7 +23454,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23532,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT117">
         <v>1.18</v>
@@ -23636,7 +23645,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23723,10 +23732,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23827,7 +23836,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24018,7 +24027,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24105,7 +24114,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT120">
         <v>0.67</v>
@@ -24400,7 +24409,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24591,7 +24600,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24678,10 +24687,10 @@
         <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT123">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU123">
         <v>1.28</v>
@@ -24973,7 +24982,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25060,7 +25069,7 @@
         <v>0.38</v>
       </c>
       <c r="AS125">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT125">
         <v>0.54</v>
@@ -25164,7 +25173,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25254,7 +25263,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25737,7 +25746,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25827,7 +25836,7 @@
         <v>0.67</v>
       </c>
       <c r="AT129">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -26015,10 +26024,10 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26119,7 +26128,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26209,7 +26218,7 @@
         <v>1.69</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU131">
         <v>1.76</v>
@@ -26397,7 +26406,7 @@
         <v>0.75</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT132">
         <v>1.18</v>
@@ -26588,7 +26597,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT133">
         <v>1.18</v>
@@ -27074,7 +27083,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27647,7 +27656,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27734,7 +27743,7 @@
         <v>0.44</v>
       </c>
       <c r="AS139">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT139">
         <v>0.54</v>
@@ -27838,7 +27847,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27928,7 +27937,7 @@
         <v>1.64</v>
       </c>
       <c r="AT140">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -28029,7 +28038,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28307,10 +28316,10 @@
         <v>1.57</v>
       </c>
       <c r="AS142">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU142">
         <v>1.12</v>
@@ -28411,7 +28420,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28692,7 +28701,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU144">
         <v>1.09</v>
@@ -28793,7 +28802,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29262,7 +29271,7 @@
         <v>0.89</v>
       </c>
       <c r="AS147">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT147">
         <v>1.15</v>
@@ -29453,7 +29462,7 @@
         <v>0.7</v>
       </c>
       <c r="AS148">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT148">
         <v>0.54</v>
@@ -29644,7 +29653,7 @@
         <v>1.44</v>
       </c>
       <c r="AS149">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT149">
         <v>1.08</v>
@@ -29939,7 +29948,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30220,7 +30229,7 @@
         <v>2.36</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU152">
         <v>1.16</v>
@@ -30512,7 +30521,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30599,7 +30608,7 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT154">
         <v>2</v>
@@ -30793,7 +30802,7 @@
         <v>1.23</v>
       </c>
       <c r="AT155">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU155">
         <v>1.36</v>
@@ -30981,10 +30990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT156">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU156">
         <v>1.27</v>
@@ -31085,7 +31094,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31276,7 +31285,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31554,10 +31563,10 @@
         <v>1.78</v>
       </c>
       <c r="AS159">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT159">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU159">
         <v>1.97</v>
@@ -31658,7 +31667,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31849,7 +31858,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32231,7 +32240,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -33186,7 +33195,7 @@
         <v>158</v>
       </c>
       <c r="P168" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33273,10 +33282,10 @@
         <v>1.22</v>
       </c>
       <c r="AS168">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33377,7 +33386,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33655,10 +33664,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT170">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU170">
         <v>1.36</v>
@@ -33759,7 +33768,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>2</v>
@@ -33846,10 +33855,10 @@
         <v>1.2</v>
       </c>
       <c r="AS171">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT171">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU171">
         <v>1.51</v>
@@ -34228,7 +34237,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT173">
         <v>1.15</v>
@@ -34422,7 +34431,7 @@
         <v>2.55</v>
       </c>
       <c r="AT174">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU174">
         <v>1.95</v>
@@ -34523,7 +34532,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34610,7 +34619,7 @@
         <v>2.1</v>
       </c>
       <c r="AS175">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT175">
         <v>2</v>
@@ -34804,7 +34813,7 @@
         <v>2.36</v>
       </c>
       <c r="AT176">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU176">
         <v>1.39</v>
@@ -35096,7 +35105,7 @@
         <v>81</v>
       </c>
       <c r="P178" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35183,10 +35192,10 @@
         <v>1.77</v>
       </c>
       <c r="AS178">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AU178">
         <v>1.79</v>
@@ -35568,7 +35577,7 @@
         <v>1.64</v>
       </c>
       <c r="AT180">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU180">
         <v>1.12</v>
@@ -35669,7 +35678,7 @@
         <v>176</v>
       </c>
       <c r="P181" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q181">
         <v>4</v>
@@ -35756,10 +35765,10 @@
         <v>1.73</v>
       </c>
       <c r="AS181">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT181">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU181">
         <v>1.31</v>
@@ -35860,7 +35869,7 @@
         <v>195</v>
       </c>
       <c r="P182" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -35950,7 +35959,7 @@
         <v>1.23</v>
       </c>
       <c r="AT182">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU182">
         <v>1.28</v>
@@ -36051,7 +36060,7 @@
         <v>81</v>
       </c>
       <c r="P183" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -36138,7 +36147,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT183">
         <v>1.18</v>
@@ -36329,7 +36338,7 @@
         <v>1.18</v>
       </c>
       <c r="AS184">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT184">
         <v>1.08</v>
@@ -36520,10 +36529,10 @@
         <v>1.36</v>
       </c>
       <c r="AS185">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT185">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU185">
         <v>1.23</v>
@@ -37197,7 +37206,7 @@
         <v>81</v>
       </c>
       <c r="P189" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37579,7 +37588,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37770,7 +37779,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -37961,7 +37970,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q193">
         <v>8</v>
@@ -38152,7 +38161,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q194">
         <v>8</v>
@@ -38294,6 +38303,961 @@
       </c>
       <c r="BK194">
         <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7063165</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45170.79166666666</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195" t="s">
+        <v>78</v>
+      </c>
+      <c r="H195" t="s">
+        <v>69</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>202</v>
+      </c>
+      <c r="P195" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>8</v>
+      </c>
+      <c r="S195">
+        <v>10</v>
+      </c>
+      <c r="T195">
+        <v>2.9</v>
+      </c>
+      <c r="U195">
+        <v>2.03</v>
+      </c>
+      <c r="V195">
+        <v>3.74</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>2.62</v>
+      </c>
+      <c r="Y195">
+        <v>3</v>
+      </c>
+      <c r="Z195">
+        <v>1.36</v>
+      </c>
+      <c r="AA195">
+        <v>7.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.07</v>
+      </c>
+      <c r="AC195">
+        <v>2.23</v>
+      </c>
+      <c r="AD195">
+        <v>2.98</v>
+      </c>
+      <c r="AE195">
+        <v>3.07</v>
+      </c>
+      <c r="AF195">
+        <v>1.08</v>
+      </c>
+      <c r="AG195">
+        <v>7</v>
+      </c>
+      <c r="AH195">
+        <v>1.36</v>
+      </c>
+      <c r="AI195">
+        <v>3</v>
+      </c>
+      <c r="AJ195">
+        <v>2.13</v>
+      </c>
+      <c r="AK195">
+        <v>1.64</v>
+      </c>
+      <c r="AL195">
+        <v>1.85</v>
+      </c>
+      <c r="AM195">
+        <v>1.85</v>
+      </c>
+      <c r="AN195">
+        <v>1.33</v>
+      </c>
+      <c r="AO195">
+        <v>1.34</v>
+      </c>
+      <c r="AP195">
+        <v>1.56</v>
+      </c>
+      <c r="AQ195">
+        <v>0.92</v>
+      </c>
+      <c r="AR195">
+        <v>1.5</v>
+      </c>
+      <c r="AS195">
+        <v>1.08</v>
+      </c>
+      <c r="AT195">
+        <v>1.38</v>
+      </c>
+      <c r="AU195">
+        <v>1.28</v>
+      </c>
+      <c r="AV195">
+        <v>1.24</v>
+      </c>
+      <c r="AW195">
+        <v>2.52</v>
+      </c>
+      <c r="AX195">
+        <v>2.17</v>
+      </c>
+      <c r="AY195">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ195">
+        <v>1.89</v>
+      </c>
+      <c r="BA195">
+        <v>1.26</v>
+      </c>
+      <c r="BB195">
+        <v>1.48</v>
+      </c>
+      <c r="BC195">
+        <v>1.93</v>
+      </c>
+      <c r="BD195">
+        <v>2.38</v>
+      </c>
+      <c r="BE195">
+        <v>3.2</v>
+      </c>
+      <c r="BF195">
+        <v>5</v>
+      </c>
+      <c r="BG195">
+        <v>5</v>
+      </c>
+      <c r="BH195">
+        <v>3</v>
+      </c>
+      <c r="BI195">
+        <v>5</v>
+      </c>
+      <c r="BJ195">
+        <v>8</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7063163</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45171.52083333334</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="G196" t="s">
+        <v>77</v>
+      </c>
+      <c r="H196" t="s">
+        <v>67</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>203</v>
+      </c>
+      <c r="P196" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>4</v>
+      </c>
+      <c r="S196">
+        <v>10</v>
+      </c>
+      <c r="T196">
+        <v>2.64</v>
+      </c>
+      <c r="U196">
+        <v>1.94</v>
+      </c>
+      <c r="V196">
+        <v>4.75</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>2.5</v>
+      </c>
+      <c r="Y196">
+        <v>3.4</v>
+      </c>
+      <c r="Z196">
+        <v>1.3</v>
+      </c>
+      <c r="AA196">
+        <v>9</v>
+      </c>
+      <c r="AB196">
+        <v>1.05</v>
+      </c>
+      <c r="AC196">
+        <v>2.05</v>
+      </c>
+      <c r="AD196">
+        <v>3</v>
+      </c>
+      <c r="AE196">
+        <v>3.6</v>
+      </c>
+      <c r="AF196">
+        <v>1.11</v>
+      </c>
+      <c r="AG196">
+        <v>6</v>
+      </c>
+      <c r="AH196">
+        <v>1.48</v>
+      </c>
+      <c r="AI196">
+        <v>2.48</v>
+      </c>
+      <c r="AJ196">
+        <v>2.4</v>
+      </c>
+      <c r="AK196">
+        <v>1.5</v>
+      </c>
+      <c r="AL196">
+        <v>2.11</v>
+      </c>
+      <c r="AM196">
+        <v>1.65</v>
+      </c>
+      <c r="AN196">
+        <v>1.23</v>
+      </c>
+      <c r="AO196">
+        <v>1.32</v>
+      </c>
+      <c r="AP196">
+        <v>1.76</v>
+      </c>
+      <c r="AQ196">
+        <v>1.73</v>
+      </c>
+      <c r="AR196">
+        <v>1.18</v>
+      </c>
+      <c r="AS196">
+        <v>1.83</v>
+      </c>
+      <c r="AT196">
+        <v>1.08</v>
+      </c>
+      <c r="AU196">
+        <v>1.32</v>
+      </c>
+      <c r="AV196">
+        <v>1.52</v>
+      </c>
+      <c r="AW196">
+        <v>2.84</v>
+      </c>
+      <c r="AX196">
+        <v>1.54</v>
+      </c>
+      <c r="AY196">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ196">
+        <v>2.92</v>
+      </c>
+      <c r="BA196">
+        <v>1.36</v>
+      </c>
+      <c r="BB196">
+        <v>1.69</v>
+      </c>
+      <c r="BC196">
+        <v>2.14</v>
+      </c>
+      <c r="BD196">
+        <v>2.88</v>
+      </c>
+      <c r="BE196">
+        <v>3.7</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>3</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>10</v>
+      </c>
+      <c r="BK196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7063159</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45171.64583333334</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>66</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>81</v>
+      </c>
+      <c r="P197" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q197">
+        <v>4</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>8</v>
+      </c>
+      <c r="T197">
+        <v>4.5</v>
+      </c>
+      <c r="U197">
+        <v>2.12</v>
+      </c>
+      <c r="V197">
+        <v>2.44</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.75</v>
+      </c>
+      <c r="Z197">
+        <v>1.4</v>
+      </c>
+      <c r="AA197">
+        <v>6.5</v>
+      </c>
+      <c r="AB197">
+        <v>1.1</v>
+      </c>
+      <c r="AC197">
+        <v>3.11</v>
+      </c>
+      <c r="AD197">
+        <v>3.34</v>
+      </c>
+      <c r="AE197">
+        <v>2.23</v>
+      </c>
+      <c r="AF197">
+        <v>1.06</v>
+      </c>
+      <c r="AG197">
+        <v>8</v>
+      </c>
+      <c r="AH197">
+        <v>1.33</v>
+      </c>
+      <c r="AI197">
+        <v>3.25</v>
+      </c>
+      <c r="AJ197">
+        <v>1.94</v>
+      </c>
+      <c r="AK197">
+        <v>1.89</v>
+      </c>
+      <c r="AL197">
+        <v>1.81</v>
+      </c>
+      <c r="AM197">
+        <v>1.89</v>
+      </c>
+      <c r="AN197">
+        <v>1.87</v>
+      </c>
+      <c r="AO197">
+        <v>1.27</v>
+      </c>
+      <c r="AP197">
+        <v>1.22</v>
+      </c>
+      <c r="AQ197">
+        <v>1.25</v>
+      </c>
+      <c r="AR197">
+        <v>1.3</v>
+      </c>
+      <c r="AS197">
+        <v>1.15</v>
+      </c>
+      <c r="AT197">
+        <v>1.45</v>
+      </c>
+      <c r="AU197">
+        <v>1.65</v>
+      </c>
+      <c r="AV197">
+        <v>1.48</v>
+      </c>
+      <c r="AW197">
+        <v>3.13</v>
+      </c>
+      <c r="AX197">
+        <v>2.75</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>1.62</v>
+      </c>
+      <c r="BA197">
+        <v>1.26</v>
+      </c>
+      <c r="BB197">
+        <v>1.49</v>
+      </c>
+      <c r="BC197">
+        <v>1.86</v>
+      </c>
+      <c r="BD197">
+        <v>2.4</v>
+      </c>
+      <c r="BE197">
+        <v>3.28</v>
+      </c>
+      <c r="BF197">
+        <v>2</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>7</v>
+      </c>
+      <c r="BI197">
+        <v>5</v>
+      </c>
+      <c r="BJ197">
+        <v>9</v>
+      </c>
+      <c r="BK197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7063166</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45171.83333333334</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>204</v>
+      </c>
+      <c r="P198" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q198">
+        <v>5</v>
+      </c>
+      <c r="R198">
+        <v>4</v>
+      </c>
+      <c r="S198">
+        <v>9</v>
+      </c>
+      <c r="T198">
+        <v>3.95</v>
+      </c>
+      <c r="U198">
+        <v>2.05</v>
+      </c>
+      <c r="V198">
+        <v>2.65</v>
+      </c>
+      <c r="W198">
+        <v>1.42</v>
+      </c>
+      <c r="X198">
+        <v>2.65</v>
+      </c>
+      <c r="Y198">
+        <v>2.95</v>
+      </c>
+      <c r="Z198">
+        <v>1.35</v>
+      </c>
+      <c r="AA198">
+        <v>7.7</v>
+      </c>
+      <c r="AB198">
+        <v>1.07</v>
+      </c>
+      <c r="AC198">
+        <v>3.5</v>
+      </c>
+      <c r="AD198">
+        <v>3.25</v>
+      </c>
+      <c r="AE198">
+        <v>1.95</v>
+      </c>
+      <c r="AF198">
+        <v>1.06</v>
+      </c>
+      <c r="AG198">
+        <v>8</v>
+      </c>
+      <c r="AH198">
+        <v>1.33</v>
+      </c>
+      <c r="AI198">
+        <v>3.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1.98</v>
+      </c>
+      <c r="AK198">
+        <v>1.78</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.85</v>
+      </c>
+      <c r="AN198">
+        <v>1.75</v>
+      </c>
+      <c r="AO198">
+        <v>1.25</v>
+      </c>
+      <c r="AP198">
+        <v>1.29</v>
+      </c>
+      <c r="AQ198">
+        <v>1.08</v>
+      </c>
+      <c r="AR198">
+        <v>1.67</v>
+      </c>
+      <c r="AS198">
+        <v>1.07</v>
+      </c>
+      <c r="AT198">
+        <v>1.62</v>
+      </c>
+      <c r="AU198">
+        <v>1.46</v>
+      </c>
+      <c r="AV198">
+        <v>1.35</v>
+      </c>
+      <c r="AW198">
+        <v>2.81</v>
+      </c>
+      <c r="AX198">
+        <v>2.46</v>
+      </c>
+      <c r="AY198">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ198">
+        <v>1.71</v>
+      </c>
+      <c r="BA198">
+        <v>1.26</v>
+      </c>
+      <c r="BB198">
+        <v>1.48</v>
+      </c>
+      <c r="BC198">
+        <v>1.95</v>
+      </c>
+      <c r="BD198">
+        <v>2.38</v>
+      </c>
+      <c r="BE198">
+        <v>3.2</v>
+      </c>
+      <c r="BF198">
+        <v>3</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>4</v>
+      </c>
+      <c r="BI198">
+        <v>1</v>
+      </c>
+      <c r="BJ198">
+        <v>7</v>
+      </c>
+      <c r="BK198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7063164</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>80</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>154</v>
+      </c>
+      <c r="P199" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q199">
+        <v>5</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>7</v>
+      </c>
+      <c r="T199">
+        <v>3.88</v>
+      </c>
+      <c r="U199">
+        <v>2.04</v>
+      </c>
+      <c r="V199">
+        <v>2.8</v>
+      </c>
+      <c r="W199">
+        <v>1.44</v>
+      </c>
+      <c r="X199">
+        <v>2.67</v>
+      </c>
+      <c r="Y199">
+        <v>3.05</v>
+      </c>
+      <c r="Z199">
+        <v>1.35</v>
+      </c>
+      <c r="AA199">
+        <v>8</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>2.9</v>
+      </c>
+      <c r="AD199">
+        <v>3.15</v>
+      </c>
+      <c r="AE199">
+        <v>2.18</v>
+      </c>
+      <c r="AF199">
+        <v>1.08</v>
+      </c>
+      <c r="AG199">
+        <v>7</v>
+      </c>
+      <c r="AH199">
+        <v>1.36</v>
+      </c>
+      <c r="AI199">
+        <v>3</v>
+      </c>
+      <c r="AJ199">
+        <v>2.35</v>
+      </c>
+      <c r="AK199">
+        <v>1.55</v>
+      </c>
+      <c r="AL199">
+        <v>1.84</v>
+      </c>
+      <c r="AM199">
+        <v>1.92</v>
+      </c>
+      <c r="AN199">
+        <v>1.61</v>
+      </c>
+      <c r="AO199">
+        <v>1.3</v>
+      </c>
+      <c r="AP199">
+        <v>1.31</v>
+      </c>
+      <c r="AQ199">
+        <v>1</v>
+      </c>
+      <c r="AR199">
+        <v>1.33</v>
+      </c>
+      <c r="AS199">
+        <v>1.17</v>
+      </c>
+      <c r="AT199">
+        <v>1.23</v>
+      </c>
+      <c r="AU199">
+        <v>1.22</v>
+      </c>
+      <c r="AV199">
+        <v>1.34</v>
+      </c>
+      <c r="AW199">
+        <v>2.56</v>
+      </c>
+      <c r="AX199">
+        <v>2.05</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>1.95</v>
+      </c>
+      <c r="BA199">
+        <v>1.19</v>
+      </c>
+      <c r="BB199">
+        <v>1.37</v>
+      </c>
+      <c r="BC199">
+        <v>1.68</v>
+      </c>
+      <c r="BD199">
+        <v>2</v>
+      </c>
+      <c r="BE199">
+        <v>2.75</v>
+      </c>
+      <c r="BF199">
+        <v>3</v>
+      </c>
+      <c r="BG199">
+        <v>6</v>
+      </c>
+      <c r="BH199">
+        <v>5</v>
+      </c>
+      <c r="BI199">
+        <v>6</v>
+      </c>
+      <c r="BJ199">
+        <v>8</v>
+      </c>
+      <c r="BK199">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,7 +628,7 @@
     <t>['25', '56']</t>
   </si>
   <si>
-    <t>['30']</t>
+    <t>['29']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -737,9 +737,6 @@
   </si>
   <si>
     <t>['89', '90+3']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['4', '51']</t>
@@ -884,6 +881,9 @@
   </si>
   <si>
     <t>['23', '37']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>2.36</v>
       </c>
       <c r="AT3">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT7">
         <v>1.23</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT10">
         <v>1.08</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>1.08</v>
@@ -3871,7 +3871,7 @@
         <v>1.15</v>
       </c>
       <c r="AT14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -6160,10 +6160,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT26">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT31">
         <v>1.08</v>
@@ -9410,7 +9410,7 @@
         <v>1.08</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>1.83</v>
       </c>
       <c r="AT45">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10362,7 +10362,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
         <v>0.86</v>
@@ -11126,7 +11126,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT52">
         <v>1.08</v>
@@ -12275,7 +12275,7 @@
         <v>1.77</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12848,7 +12848,7 @@
         <v>1.08</v>
       </c>
       <c r="AT61">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT63">
         <v>1.15</v>
@@ -13800,7 +13800,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT66">
         <v>0.54</v>
@@ -14373,7 +14373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT69">
         <v>0.92</v>
@@ -15713,7 +15713,7 @@
         <v>1.77</v>
       </c>
       <c r="AT76">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -16477,7 +16477,7 @@
         <v>2.31</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -16578,7 +16578,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT82">
         <v>0.92</v>
@@ -17724,7 +17724,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17811,7 +17811,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17915,7 +17915,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18106,7 +18106,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18488,7 +18488,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18679,7 +18679,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -19061,7 +19061,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19252,7 +19252,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19533,7 +19533,7 @@
         <v>2.31</v>
       </c>
       <c r="AT96">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19634,7 +19634,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19825,7 +19825,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20207,7 +20207,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20676,7 +20676,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT102">
         <v>1.18</v>
@@ -20780,7 +20780,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20867,7 +20867,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT103">
         <v>1.62</v>
@@ -20971,7 +20971,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21058,7 +21058,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT104">
         <v>1.38</v>
@@ -21252,7 +21252,7 @@
         <v>1.08</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -21353,7 +21353,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21544,7 +21544,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21735,7 +21735,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21926,7 +21926,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22117,7 +22117,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22308,7 +22308,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22499,7 +22499,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22589,7 +22589,7 @@
         <v>1.08</v>
       </c>
       <c r="AT112">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU112">
         <v>0</v>
@@ -22690,7 +22690,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22968,7 +22968,7 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT114">
         <v>1.08</v>
@@ -23159,7 +23159,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT115">
         <v>1.23</v>
@@ -23454,7 +23454,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23645,7 +23645,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23836,7 +23836,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -24027,7 +24027,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24117,7 +24117,7 @@
         <v>1.15</v>
       </c>
       <c r="AT120">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24600,7 +24600,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24982,7 +24982,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25173,7 +25173,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25451,7 +25451,7 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25642,7 +25642,7 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT128">
         <v>0.92</v>
@@ -25746,7 +25746,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26128,7 +26128,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26409,7 +26409,7 @@
         <v>1.17</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU132">
         <v>0.99</v>
@@ -26788,7 +26788,7 @@
         <v>0.89</v>
       </c>
       <c r="AS134">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT134">
         <v>0.86</v>
@@ -26982,7 +26982,7 @@
         <v>1.08</v>
       </c>
       <c r="AT135">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU135">
         <v>1.05</v>
@@ -27083,7 +27083,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27656,7 +27656,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27847,7 +27847,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27934,7 +27934,7 @@
         <v>1.88</v>
       </c>
       <c r="AS140">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT140">
         <v>1.62</v>
@@ -28420,7 +28420,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28698,7 +28698,7 @@
         <v>1.38</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT144">
         <v>1.08</v>
@@ -29847,7 +29847,7 @@
         <v>1.69</v>
       </c>
       <c r="AT150">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU150">
         <v>1.52</v>
@@ -29948,7 +29948,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30417,10 +30417,10 @@
         <v>0.63</v>
       </c>
       <c r="AS153">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT153">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU153">
         <v>0</v>
@@ -30521,7 +30521,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31285,7 +31285,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31667,7 +31667,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31858,7 +31858,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -32240,7 +32240,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -32330,7 +32330,7 @@
         <v>2.31</v>
       </c>
       <c r="AT163">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU163">
         <v>1.67</v>
@@ -32709,7 +32709,7 @@
         <v>0.73</v>
       </c>
       <c r="AS165">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT165">
         <v>0.92</v>
@@ -32900,7 +32900,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT166">
         <v>1.18</v>
@@ -33386,7 +33386,7 @@
         <v>138</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33473,10 +33473,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT169">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU169">
         <v>1.33</v>
@@ -33768,7 +33768,7 @@
         <v>191</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q171">
         <v>2</v>
@@ -34428,7 +34428,7 @@
         <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT174">
         <v>1.08</v>
@@ -34532,7 +34532,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -35004,7 +35004,7 @@
         <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35105,7 +35105,7 @@
         <v>81</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35383,10 +35383,10 @@
         <v>0.64</v>
       </c>
       <c r="AS179">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT179">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU179">
         <v>1.36</v>
@@ -35574,7 +35574,7 @@
         <v>1.2</v>
       </c>
       <c r="AS180">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT180">
         <v>1.08</v>
@@ -35869,7 +35869,7 @@
         <v>195</v>
       </c>
       <c r="P182" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q182">
         <v>4</v>
@@ -36060,7 +36060,7 @@
         <v>81</v>
       </c>
       <c r="P183" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -37206,7 +37206,7 @@
         <v>81</v>
       </c>
       <c r="P189" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37588,7 +37588,7 @@
         <v>198</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q191">
         <v>3</v>
@@ -37779,7 +37779,7 @@
         <v>199</v>
       </c>
       <c r="P192" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -37970,7 +37970,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q193">
         <v>8</v>
@@ -38161,7 +38161,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>8</v>
@@ -38734,7 +38734,7 @@
         <v>81</v>
       </c>
       <c r="P197" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -38860,10 +38860,10 @@
         <v>3.28</v>
       </c>
       <c r="BF197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH197">
         <v>7</v>
@@ -38872,10 +38872,10 @@
         <v>5</v>
       </c>
       <c r="BJ197">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK197">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38925,7 +38925,7 @@
         <v>204</v>
       </c>
       <c r="P198" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39057,16 +39057,16 @@
         <v>4</v>
       </c>
       <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
         <v>4</v>
       </c>
-      <c r="BI198">
-        <v>1</v>
-      </c>
       <c r="BJ198">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK198">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39113,7 +39113,7 @@
         <v>1</v>
       </c>
       <c r="O199" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="P199" t="s">
         <v>81</v>
@@ -39258,6 +39258,579 @@
       </c>
       <c r="BK199">
         <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7063161</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45172.625</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>65</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>81</v>
+      </c>
+      <c r="P200" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q200">
+        <v>9</v>
+      </c>
+      <c r="R200">
+        <v>3</v>
+      </c>
+      <c r="S200">
+        <v>12</v>
+      </c>
+      <c r="T200">
+        <v>2.77</v>
+      </c>
+      <c r="U200">
+        <v>1.98</v>
+      </c>
+      <c r="V200">
+        <v>4.2</v>
+      </c>
+      <c r="W200">
+        <v>1.49</v>
+      </c>
+      <c r="X200">
+        <v>2.52</v>
+      </c>
+      <c r="Y200">
+        <v>3.28</v>
+      </c>
+      <c r="Z200">
+        <v>1.31</v>
+      </c>
+      <c r="AA200">
+        <v>8.9</v>
+      </c>
+      <c r="AB200">
+        <v>1.05</v>
+      </c>
+      <c r="AC200">
+        <v>2.25</v>
+      </c>
+      <c r="AD200">
+        <v>3.15</v>
+      </c>
+      <c r="AE200">
+        <v>3.1</v>
+      </c>
+      <c r="AF200">
+        <v>1.05</v>
+      </c>
+      <c r="AG200">
+        <v>7.2</v>
+      </c>
+      <c r="AH200">
+        <v>1.4</v>
+      </c>
+      <c r="AI200">
+        <v>2.67</v>
+      </c>
+      <c r="AJ200">
+        <v>2.25</v>
+      </c>
+      <c r="AK200">
+        <v>1.57</v>
+      </c>
+      <c r="AL200">
+        <v>1.96</v>
+      </c>
+      <c r="AM200">
+        <v>1.75</v>
+      </c>
+      <c r="AN200">
+        <v>1.29</v>
+      </c>
+      <c r="AO200">
+        <v>1.31</v>
+      </c>
+      <c r="AP200">
+        <v>1.66</v>
+      </c>
+      <c r="AQ200">
+        <v>1.64</v>
+      </c>
+      <c r="AR200">
+        <v>1.08</v>
+      </c>
+      <c r="AS200">
+        <v>1.58</v>
+      </c>
+      <c r="AT200">
+        <v>1.08</v>
+      </c>
+      <c r="AU200">
+        <v>1.11</v>
+      </c>
+      <c r="AV200">
+        <v>1.17</v>
+      </c>
+      <c r="AW200">
+        <v>2.28</v>
+      </c>
+      <c r="AX200">
+        <v>1.95</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>2.1</v>
+      </c>
+      <c r="BA200">
+        <v>1.23</v>
+      </c>
+      <c r="BB200">
+        <v>1.43</v>
+      </c>
+      <c r="BC200">
+        <v>1.93</v>
+      </c>
+      <c r="BD200">
+        <v>2.25</v>
+      </c>
+      <c r="BE200">
+        <v>3.04</v>
+      </c>
+      <c r="BF200">
+        <v>3</v>
+      </c>
+      <c r="BG200">
+        <v>2</v>
+      </c>
+      <c r="BH200">
+        <v>5</v>
+      </c>
+      <c r="BI200">
+        <v>8</v>
+      </c>
+      <c r="BJ200">
+        <v>8</v>
+      </c>
+      <c r="BK200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7063162</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45172.75</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="G201" t="s">
+        <v>70</v>
+      </c>
+      <c r="H201" t="s">
+        <v>71</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201" t="s">
+        <v>81</v>
+      </c>
+      <c r="P201" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>3</v>
+      </c>
+      <c r="S201">
+        <v>8</v>
+      </c>
+      <c r="T201">
+        <v>1.85</v>
+      </c>
+      <c r="U201">
+        <v>2.39</v>
+      </c>
+      <c r="V201">
+        <v>6.8</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>3.14</v>
+      </c>
+      <c r="Y201">
+        <v>2.57</v>
+      </c>
+      <c r="Z201">
+        <v>1.47</v>
+      </c>
+      <c r="AA201">
+        <v>6.25</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>1.33</v>
+      </c>
+      <c r="AD201">
+        <v>4.75</v>
+      </c>
+      <c r="AE201">
+        <v>8</v>
+      </c>
+      <c r="AF201">
+        <v>1</v>
+      </c>
+      <c r="AG201">
+        <v>10.5</v>
+      </c>
+      <c r="AH201">
+        <v>1.22</v>
+      </c>
+      <c r="AI201">
+        <v>3.72</v>
+      </c>
+      <c r="AJ201">
+        <v>1.75</v>
+      </c>
+      <c r="AK201">
+        <v>1.95</v>
+      </c>
+      <c r="AL201">
+        <v>2</v>
+      </c>
+      <c r="AM201">
+        <v>1.72</v>
+      </c>
+      <c r="AN201">
+        <v>1.06</v>
+      </c>
+      <c r="AO201">
+        <v>1.16</v>
+      </c>
+      <c r="AP201">
+        <v>2.94</v>
+      </c>
+      <c r="AQ201">
+        <v>2.55</v>
+      </c>
+      <c r="AR201">
+        <v>0.67</v>
+      </c>
+      <c r="AS201">
+        <v>2.42</v>
+      </c>
+      <c r="AT201">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU201">
+        <v>1.95</v>
+      </c>
+      <c r="AV201">
+        <v>1.01</v>
+      </c>
+      <c r="AW201">
+        <v>2.96</v>
+      </c>
+      <c r="AX201">
+        <v>1.29</v>
+      </c>
+      <c r="AY201">
+        <v>10</v>
+      </c>
+      <c r="AZ201">
+        <v>4.33</v>
+      </c>
+      <c r="BA201">
+        <v>1.18</v>
+      </c>
+      <c r="BB201">
+        <v>1.34</v>
+      </c>
+      <c r="BC201">
+        <v>1.6</v>
+      </c>
+      <c r="BD201">
+        <v>2.02</v>
+      </c>
+      <c r="BE201">
+        <v>2.6</v>
+      </c>
+      <c r="BF201">
+        <v>0</v>
+      </c>
+      <c r="BG201">
+        <v>0</v>
+      </c>
+      <c r="BH201">
+        <v>5</v>
+      </c>
+      <c r="BI201">
+        <v>9</v>
+      </c>
+      <c r="BJ201">
+        <v>5</v>
+      </c>
+      <c r="BK201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7063160</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45172.85416666666</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+      <c r="G202" t="s">
+        <v>75</v>
+      </c>
+      <c r="H202" t="s">
+        <v>79</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>82</v>
+      </c>
+      <c r="P202" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q202">
+        <v>3</v>
+      </c>
+      <c r="R202">
+        <v>1</v>
+      </c>
+      <c r="S202">
+        <v>4</v>
+      </c>
+      <c r="T202">
+        <v>2.68</v>
+      </c>
+      <c r="U202">
+        <v>2.03</v>
+      </c>
+      <c r="V202">
+        <v>4.2</v>
+      </c>
+      <c r="W202">
+        <v>1.45</v>
+      </c>
+      <c r="X202">
+        <v>2.64</v>
+      </c>
+      <c r="Y202">
+        <v>3.1</v>
+      </c>
+      <c r="Z202">
+        <v>1.34</v>
+      </c>
+      <c r="AA202">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>2.05</v>
+      </c>
+      <c r="AD202">
+        <v>3.2</v>
+      </c>
+      <c r="AE202">
+        <v>3.4</v>
+      </c>
+      <c r="AF202">
+        <v>1.04</v>
+      </c>
+      <c r="AG202">
+        <v>7.9</v>
+      </c>
+      <c r="AH202">
+        <v>1.35</v>
+      </c>
+      <c r="AI202">
+        <v>2.88</v>
+      </c>
+      <c r="AJ202">
+        <v>1.9</v>
+      </c>
+      <c r="AK202">
+        <v>1.66</v>
+      </c>
+      <c r="AL202">
+        <v>1.87</v>
+      </c>
+      <c r="AM202">
+        <v>1.89</v>
+      </c>
+      <c r="AN202">
+        <v>1.27</v>
+      </c>
+      <c r="AO202">
+        <v>1.29</v>
+      </c>
+      <c r="AP202">
+        <v>1.68</v>
+      </c>
+      <c r="AQ202">
+        <v>1.5</v>
+      </c>
+      <c r="AR202">
+        <v>1.18</v>
+      </c>
+      <c r="AS202">
+        <v>1.64</v>
+      </c>
+      <c r="AT202">
+        <v>1.08</v>
+      </c>
+      <c r="AU202">
+        <v>1.35</v>
+      </c>
+      <c r="AV202">
+        <v>1.38</v>
+      </c>
+      <c r="AW202">
+        <v>2.73</v>
+      </c>
+      <c r="AX202">
+        <v>1.91</v>
+      </c>
+      <c r="AY202">
+        <v>8</v>
+      </c>
+      <c r="AZ202">
+        <v>2.2</v>
+      </c>
+      <c r="BA202">
+        <v>1.21</v>
+      </c>
+      <c r="BB202">
+        <v>1.41</v>
+      </c>
+      <c r="BC202">
+        <v>1.8</v>
+      </c>
+      <c r="BD202">
+        <v>2.17</v>
+      </c>
+      <c r="BE202">
+        <v>2.93</v>
+      </c>
+      <c r="BF202">
+        <v>9</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>6</v>
+      </c>
+      <c r="BI202">
+        <v>1</v>
+      </c>
+      <c r="BJ202">
+        <v>15</v>
+      </c>
+      <c r="BK202">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.08</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.15</v>
@@ -1573,7 +1573,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.08</v>
@@ -3971,7 +3971,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.15</v>
@@ -5279,7 +5279,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.15</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.38</v>
@@ -10947,7 +10947,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -11380,10 +11380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ50" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>1.18</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.38</v>
@@ -11819,7 +11819,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.15</v>
@@ -12252,10 +12252,10 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         <v>0.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -12688,10 +12688,10 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR57" t="n">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.45</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.08</v>
@@ -14871,7 +14871,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.23</v>
@@ -15304,10 +15304,10 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -15958,10 +15958,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR71" t="n">
         <v>0</v>
@@ -16176,10 +16176,10 @@
         <v>2.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>0</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.38</v>
@@ -16615,7 +16615,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
@@ -17266,7 +17266,7 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.08</v>
@@ -17487,7 +17487,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR78" t="n">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.45</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.6899999999999999</v>
@@ -18359,7 +18359,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.23</v>
@@ -18792,10 +18792,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.08</v>
@@ -19228,10 +19228,10 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19449,7 +19449,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR87" t="n">
         <v>0</v>
@@ -19885,7 +19885,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR89" t="n">
         <v>0</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.08</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
@@ -20975,7 +20975,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.45</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.08</v>
@@ -21629,7 +21629,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -21844,7 +21844,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.23</v>
@@ -22062,10 +22062,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22283,7 +22283,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22937,7 +22937,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23370,7 +23370,7 @@
         <v>0.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.6899999999999999</v>
@@ -23588,7 +23588,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -23809,7 +23809,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR107" t="n">
         <v>0</v>
@@ -24024,10 +24024,10 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24245,7 +24245,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24678,7 +24678,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.15</v>
@@ -24896,7 +24896,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.08</v>
@@ -25114,7 +25114,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.45</v>
@@ -25768,10 +25768,10 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ116" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR116" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26207,7 +26207,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR118" t="n">
         <v>0</v>
@@ -26422,10 +26422,10 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -26640,7 +26640,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.6899999999999999</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.08</v>
@@ -27515,7 +27515,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR124" t="n">
         <v>1.86</v>
@@ -27733,7 +27733,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR125" t="n">
         <v>0.65</v>
@@ -27948,7 +27948,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.08</v>
@@ -28387,7 +28387,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR128" t="n">
         <v>1.2</v>
@@ -28602,10 +28602,10 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -29038,7 +29038,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.23</v>
@@ -29474,10 +29474,10 @@
         <v>1.33</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -29695,7 +29695,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR134" t="n">
         <v>0</v>
@@ -29910,7 +29910,7 @@
         <v>0.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.6899999999999999</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.15</v>
@@ -30349,7 +30349,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR137" t="n">
         <v>2.03</v>
@@ -30564,10 +30564,10 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR138" t="n">
         <v>1.43</v>
@@ -30785,7 +30785,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31003,7 +31003,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR140" t="n">
         <v>1.14</v>
@@ -31218,10 +31218,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -32090,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -32744,10 +32744,10 @@
         <v>0.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR148" t="n">
         <v>2.31</v>
@@ -33180,7 +33180,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.08</v>
@@ -33398,10 +33398,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR151" t="n">
         <v>1.72</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.38</v>
@@ -34055,7 +34055,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR154" t="n">
         <v>1.41</v>
@@ -34706,10 +34706,10 @@
         <v>0.8</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR157" t="n">
         <v>1.37</v>
@@ -34924,10 +34924,10 @@
         <v>0.73</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR158" t="n">
         <v>1.36</v>
@@ -35142,10 +35142,10 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.97</v>
@@ -35360,10 +35360,10 @@
         <v>1.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR160" t="n">
         <v>1.3</v>
@@ -35578,7 +35578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.15</v>
@@ -35799,7 +35799,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR162" t="n">
         <v>1.92</v>
@@ -36014,7 +36014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.6899999999999999</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.08</v>
@@ -36453,7 +36453,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR165" t="n">
         <v>2.19</v>
@@ -36671,7 +36671,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37976,10 +37976,10 @@
         <v>0.92</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR172" t="n">
         <v>1.26</v>
@@ -38630,10 +38630,10 @@
         <v>2.1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ175" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR175" t="n">
         <v>1.81</v>
@@ -38848,10 +38848,10 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR176" t="n">
         <v>1.39</v>
@@ -39284,10 +39284,10 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39941,7 +39941,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR181" t="n">
         <v>1.31</v>
@@ -40377,7 +40377,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40592,7 +40592,7 @@
         <v>1.18</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.08</v>
@@ -41028,10 +41028,10 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR186" t="n">
         <v>1.72</v>
@@ -41246,10 +41246,10 @@
         <v>0.92</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR187" t="n">
         <v>1.43</v>
@@ -41467,7 +41467,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR188" t="n">
         <v>1.53</v>
@@ -41682,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.15</v>
@@ -41900,10 +41900,10 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AR190" t="n">
         <v>1.72</v>
@@ -42118,10 +42118,10 @@
         <v>1.08</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR191" t="n">
         <v>1.32</v>
@@ -42554,10 +42554,10 @@
         <v>0.85</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR193" t="n">
         <v>1.31</v>
@@ -42772,10 +42772,10 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -43426,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.45</v>
@@ -43647,7 +43647,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR198" t="n">
         <v>1.46</v>
@@ -44595,6 +44595,1532 @@
       </c>
       <c r="BP202" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7063172</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45204.83333333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['25', '57']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X203" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7063168</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45205.83333333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7063170</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X205" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7063169</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['1', '40']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S206" t="n">
+        <v>5</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X206" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7063167</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['45+1', '68']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7063171</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+      <c r="S208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X208" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>7063174</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['63', '89']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.8</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.21</v>
@@ -8549,7 +8549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.86</v>
@@ -14217,7 +14217,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR63" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.08</v>
@@ -16833,7 +16833,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -19664,7 +19664,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.38</v>
@@ -20539,7 +20539,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR92" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.08</v>
@@ -24681,7 +24681,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.08</v>
@@ -27512,7 +27512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.21</v>
@@ -30131,7 +30131,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -31654,7 +31654,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.08</v>
@@ -32529,7 +32529,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR147" t="n">
         <v>0.99</v>
@@ -34270,7 +34270,7 @@
         <v>1.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.23</v>
@@ -35581,7 +35581,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -38197,7 +38197,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR173" t="n">
         <v>1.1</v>
@@ -39066,7 +39066,7 @@
         <v>0.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.6899999999999999</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.45</v>
@@ -41685,7 +41685,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR189" t="n">
         <v>1.36</v>
@@ -42336,7 +42336,7 @@
         <v>0.82</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ192" t="n">
         <v>1</v>
@@ -45185,22 +45185,22 @@
         <v>2.71</v>
       </c>
       <c r="AU205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW205" t="n">
         <v>5</v>
       </c>
       <c r="AX205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ205" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA205" t="n">
         <v>2</v>
@@ -45403,22 +45403,22 @@
         <v>3</v>
       </c>
       <c r="AU206" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW206" t="n">
         <v>9</v>
       </c>
       <c r="AX206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY206" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ206" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA206" t="n">
         <v>7</v>
@@ -45621,7 +45621,7 @@
         <v>2.92</v>
       </c>
       <c r="AU207" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV207" t="n">
         <v>3</v>
@@ -45633,7 +45633,7 @@
         <v>2</v>
       </c>
       <c r="AY207" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ207" t="n">
         <v>5</v>
@@ -45839,22 +45839,22 @@
         <v>2.42</v>
       </c>
       <c r="AU208" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV208" t="n">
         <v>6</v>
       </c>
       <c r="AW208" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX208" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY208" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ208" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA208" t="n">
         <v>3</v>
@@ -45958,7 +45958,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>['63', '89']</t>
+          <t>['62', '89']</t>
         </is>
       </c>
       <c r="P209" t="inlineStr">
@@ -46057,31 +46057,31 @@
         <v>2.79</v>
       </c>
       <c r="AU209" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV209" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY209" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ209" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB209" t="n">
         <v>2</v>
       </c>
       <c r="BC209" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD209" t="n">
         <v>1.73</v>
@@ -46121,6 +46121,224 @@
       </c>
       <c r="BP209" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7063173</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X210" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.86</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.23</v>
@@ -4189,7 +4189,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.08</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.08</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.08</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10729,7 +10729,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.23</v>
@@ -11601,7 +11601,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.21</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.8</v>
@@ -13563,7 +13563,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.86</v>
@@ -16397,7 +16397,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.07</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.08</v>
@@ -17269,7 +17269,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.21</v>
@@ -17705,7 +17705,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -19667,7 +19667,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.8</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.5</v>
@@ -21193,7 +21193,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -22280,7 +22280,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.85</v>
@@ -23152,10 +23152,10 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>1</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.21</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -25332,7 +25332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.08</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.08</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.5</v>
@@ -26643,7 +26643,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26861,7 +26861,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27079,7 +27079,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -27297,7 +27297,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -28384,7 +28384,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.86</v>
@@ -28820,10 +28820,10 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29256,7 +29256,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.08</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.85</v>
@@ -31439,7 +31439,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -31657,7 +31657,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -31872,7 +31872,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.08</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.08</v>
@@ -32962,10 +32962,10 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33619,7 +33619,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -33837,7 +33837,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -34488,10 +34488,10 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -35796,7 +35796,7 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.5</v>
@@ -36017,7 +36017,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -37107,7 +37107,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.08</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.23</v>
@@ -37761,7 +37761,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.07</v>
@@ -39069,7 +39069,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.81</v>
@@ -39502,10 +39502,10 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39938,7 +39938,7 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.5</v>
@@ -40159,7 +40159,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40595,7 +40595,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -40810,10 +40810,10 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.85</v>
@@ -42993,7 +42993,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43208,7 +43208,7 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.08</v>
@@ -43429,7 +43429,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -43862,7 +43862,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.23</v>
@@ -44083,7 +44083,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44301,7 +44301,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -44516,7 +44516,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.08</v>
@@ -46339,6 +46339,878 @@
       </c>
       <c r="BP210" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7063179</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45212.66666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3</v>
+      </c>
+      <c r="K211" t="n">
+        <v>3</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>4</v>
+      </c>
+      <c r="N211" t="n">
+        <v>5</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['12', '19', '29', '63']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X211" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7063182</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45212.77083333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['45', '59']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S212" t="n">
+        <v>5</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7063175</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45212.875</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X213" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7063178</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45213.41666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['33', '56']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S214" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X214" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.85</v>
@@ -2009,7 +2009,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.86</v>
@@ -3753,7 +3753,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.5</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.58</v>
@@ -5497,7 +5497,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.08</v>
@@ -7023,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.29</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.08</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.86</v>
@@ -10075,7 +10075,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.8</v>
@@ -11165,7 +11165,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.08</v>
@@ -13999,7 +13999,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.21</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.5</v>
@@ -15089,7 +15089,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -16612,7 +16612,7 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.8</v>
@@ -18138,10 +18138,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.85</v>
@@ -19882,7 +19882,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.8</v>
@@ -20321,7 +20321,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.07</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.21</v>
@@ -21847,7 +21847,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.5</v>
@@ -23591,7 +23591,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.86</v>
@@ -24242,7 +24242,7 @@
         <v>0.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.5</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>1.83</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.58</v>
@@ -27730,7 +27730,7 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.5</v>
@@ -28166,10 +28166,10 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -29041,7 +29041,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -30782,7 +30782,7 @@
         <v>0.44</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.5</v>
@@ -31436,7 +31436,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.58</v>
@@ -32093,7 +32093,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32526,7 +32526,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.07</v>
@@ -34052,7 +34052,7 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.85</v>
@@ -34273,7 +34273,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.08</v>
@@ -36889,7 +36889,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37104,7 +37104,7 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.29</v>
@@ -37543,7 +37543,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37758,7 +37758,7 @@
         <v>1.2</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.29</v>
@@ -39287,7 +39287,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39720,7 +39720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.08</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.08</v>
@@ -42339,7 +42339,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.29</v>
@@ -43644,7 +43644,7 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.5</v>
@@ -43865,7 +43865,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44080,7 +44080,7 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.21</v>
@@ -46493,22 +46493,22 @@
         <v>2.2</v>
       </c>
       <c r="AU211" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV211" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW211" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY211" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ211" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA211" t="n">
         <v>8</v>
@@ -46612,7 +46612,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>['45', '59']</t>
+          <t>['44', '59']</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -46711,22 +46711,22 @@
         <v>2.97</v>
       </c>
       <c r="AU212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX212" t="n">
         <v>7</v>
       </c>
-      <c r="AV212" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW212" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX212" t="n">
-        <v>6</v>
-      </c>
       <c r="AY212" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ212" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA212" t="n">
         <v>4</v>
@@ -47147,22 +47147,22 @@
         <v>2.5</v>
       </c>
       <c r="AU214" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV214" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX214" t="n">
         <v>3</v>
       </c>
       <c r="AY214" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ214" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA214" t="n">
         <v>5</v>
@@ -47211,6 +47211,660 @@
       </c>
       <c r="BP214" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7063181</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45213.6875</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['54', '81']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S215" t="n">
+        <v>3</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X215" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7063180</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45213.79166666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>3</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X216" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7063176</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45214.63541666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['15', '64']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X217" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.36</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.08</v>
@@ -3535,7 +3535,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.21</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.92</v>
@@ -10293,7 +10293,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.07</v>
@@ -17051,7 +17051,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR76" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.86</v>
@@ -21411,7 +21411,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.08</v>
@@ -24899,7 +24899,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR112" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR132" t="n">
         <v>0.99</v>
@@ -29692,7 +29692,7 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.8</v>
@@ -33183,7 +33183,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.52</v>
@@ -33834,7 +33834,7 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.86</v>
@@ -36450,7 +36450,7 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.86</v>
@@ -37325,7 +37325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.08</v>
@@ -44298,7 +44298,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.86</v>
@@ -44519,7 +44519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -47702,12 +47702,12 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>['15', '64']</t>
+          <t>['14', '64']</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q217" t="n">
@@ -47804,7 +47804,7 @@
         <v>5</v>
       </c>
       <c r="AV217" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW217" t="n">
         <v>6</v>
@@ -47816,7 +47816,7 @@
         <v>11</v>
       </c>
       <c r="AZ217" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA217" t="n">
         <v>9</v>
@@ -47865,6 +47865,224 @@
       </c>
       <c r="BP217" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7063177</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['17', '70']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X218" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.8</v>
@@ -2663,7 +2663,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.29</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.23</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.69</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.21</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.36</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.86</v>
@@ -13996,7 +13996,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.92</v>
@@ -14653,7 +14653,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.07</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -19013,7 +19013,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR85" t="n">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.8</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.53</v>
@@ -22501,7 +22501,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>2.23</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.13</v>
@@ -25335,7 +25335,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.23</v>
@@ -27951,7 +27951,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.4</v>
@@ -29256,7 +29256,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ132" t="n">
         <v>1</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.71</v>
@@ -31875,7 +31875,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.09</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.23</v>
@@ -32962,7 +32962,7 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.21</v>
@@ -35796,7 +35796,7 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.53</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.36</v>
@@ -38415,7 +38415,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR174" t="n">
         <v>1.95</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.9</v>
@@ -39723,7 +39723,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR180" t="n">
         <v>1.12</v>
@@ -39938,7 +39938,7 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.4</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.71</v>
@@ -43211,7 +43211,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.32</v>
@@ -43862,7 +43862,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.36</v>
@@ -46478,7 +46478,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.86</v>
@@ -46696,7 +46696,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.29</v>
@@ -47571,7 +47571,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR216" t="n">
         <v>1.27</v>
@@ -49327,19 +49327,19 @@
         <v>2.49</v>
       </c>
       <c r="AU224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW224" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX224" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY224" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ224" t="n">
         <v>9</v>
@@ -49446,12 +49446,12 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>['64']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q225" t="n">
@@ -49763,22 +49763,22 @@
         <v>3.15</v>
       </c>
       <c r="AU226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV226" t="n">
         <v>4</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>3</v>
       </c>
       <c r="AW226" t="n">
         <v>6</v>
       </c>
       <c r="AX226" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY226" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ226" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA226" t="n">
         <v>6</v>
@@ -49827,6 +49827,442 @@
       </c>
       <c r="BP226" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7063197</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45220.79166666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>7</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['56', '89']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7063194</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>7</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S228" t="n">
+        <v>4</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X228" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP228"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.53</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.4</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.71</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.4</v>
@@ -8985,7 +8985,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -9854,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10944,10 +10944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.07</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.53</v>
@@ -15089,7 +15089,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -16612,10 +16612,10 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
@@ -17266,10 +17266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.13</v>
@@ -17705,7 +17705,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.8</v>
@@ -18577,7 +18577,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.71</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89" t="n">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20318,10 +20318,10 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20757,7 +20757,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
@@ -21193,7 +21193,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.13</v>
@@ -21847,7 +21847,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22280,7 +22280,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.71</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.23</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.4</v>
@@ -23373,7 +23373,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.8</v>
@@ -24027,7 +24027,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24678,7 +24678,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.07</v>
@@ -25117,7 +25117,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.4</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.13</v>
@@ -26643,7 +26643,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26861,7 +26861,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27079,7 +27079,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -27730,7 +27730,7 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.53</v>
@@ -28166,10 +28166,10 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.4</v>
@@ -28820,7 +28820,7 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.29</v>
@@ -29041,7 +29041,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -29692,10 +29692,10 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR134" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -31000,7 +31000,7 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.4</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -31657,7 +31657,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -32090,10 +32090,10 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32526,7 +32526,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.07</v>
@@ -32965,7 +32965,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33401,7 +33401,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR151" t="n">
         <v>1.72</v>
@@ -33834,10 +33834,10 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34488,10 +34488,10 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -34927,7 +34927,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158" t="n">
         <v>1.36</v>
@@ -35578,7 +35578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.07</v>
@@ -36017,7 +36017,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36450,7 +36450,7 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.8</v>
@@ -36668,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.23</v>
@@ -36889,7 +36889,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37104,7 +37104,7 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.29</v>
@@ -37543,7 +37543,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37979,7 +37979,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR172" t="n">
         <v>1.26</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.07</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39287,7 +39287,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39505,7 +39505,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39720,7 +39720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ180" t="n">
         <v>1</v>
@@ -40159,7 +40159,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.23</v>
@@ -40595,7 +40595,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -40810,7 +40810,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.29</v>
@@ -41246,7 +41246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.8</v>
@@ -42339,7 +42339,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42557,7 +42557,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193" t="n">
         <v>1.31</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.29</v>
@@ -43208,7 +43208,7 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ196" t="n">
         <v>1</v>
@@ -43429,7 +43429,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -43865,7 +43865,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44080,10 +44080,10 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44298,10 +44298,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -44952,7 +44952,7 @@
         <v>1.18</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.23</v>
@@ -46045,7 +46045,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46481,7 +46481,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AR211" t="n">
         <v>1.21</v>
@@ -46917,7 +46917,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47132,10 +47132,10 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR214" t="n">
         <v>1.35</v>
@@ -47353,7 +47353,7 @@
         <v>1</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47568,7 +47568,7 @@
         <v>1.08</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ216" t="n">
         <v>1</v>
@@ -47786,10 +47786,10 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR217" t="n">
         <v>1.11</v>
@@ -48004,7 +48004,7 @@
         <v>1.08</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AQ218" t="n">
         <v>1</v>
@@ -48876,10 +48876,10 @@
         <v>1.58</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -49882,7 +49882,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>['56', '89']</t>
+          <t>['57', '89']</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -50105,7 +50105,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="Q228" t="n">
@@ -50199,22 +50199,22 @@
         <v>2.53</v>
       </c>
       <c r="AU228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV228" t="n">
         <v>5</v>
       </c>
       <c r="AW228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY228" t="n">
         <v>6</v>
       </c>
       <c r="AZ228" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA228" t="n">
         <v>3</v>
@@ -50263,6 +50263,1314 @@
       </c>
       <c r="BP228" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7063191</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>7</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>3</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['29', '34', '59']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X229" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>7063196</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45221.79166666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>2</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X230" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7063198</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45222.70833333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3</v>
+      </c>
+      <c r="N231" t="n">
+        <v>5</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['66', '90+3']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['25', '51', '73']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X231" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7063192</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45222.84375</v>
+      </c>
+      <c r="F232" t="n">
+        <v>7</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>3</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['40', '61', '85']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>6</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U232" t="n">
+        <v>3</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7063193</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45223.66666666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>3</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S233" t="n">
+        <v>4</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X233" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>7063195</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45223.8125</v>
+      </c>
+      <c r="F234" t="n">
+        <v>7</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['52', '57']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2</v>
+      </c>
+      <c r="S234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X234" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -51295,16 +51295,16 @@
         <v>4</v>
       </c>
       <c r="AW233" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY233" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA233" t="n">
         <v>12</v>
@@ -51408,7 +51408,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.9399999999999999</v>
@@ -5933,7 +5933,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.13</v>
@@ -9203,7 +9203,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -12691,7 +12691,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.8</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.23</v>
@@ -15961,7 +15961,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR71" t="n">
         <v>0</v>
@@ -19449,7 +19449,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR87" t="n">
         <v>0</v>
@@ -19664,7 +19664,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.29</v>
@@ -22283,7 +22283,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR116" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.33</v>
@@ -27512,7 +27512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.13</v>
@@ -30349,7 +30349,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR137" t="n">
         <v>2.03</v>
@@ -31654,7 +31654,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -34055,7 +34055,7 @@
         <v>1</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR154" t="n">
         <v>1.41</v>
@@ -34270,7 +34270,7 @@
         <v>1.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.47</v>
@@ -38633,7 +38633,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR175" t="n">
         <v>1.81</v>
@@ -39066,7 +39066,7 @@
         <v>0.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.87</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.79</v>
@@ -41467,7 +41467,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR188" t="n">
         <v>1.53</v>
@@ -42336,7 +42336,7 @@
         <v>0.82</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.93</v>
@@ -45391,7 +45391,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR206" t="n">
         <v>1.71</v>
@@ -46260,7 +46260,7 @@
         <v>1.15</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.07</v>
@@ -48443,7 +48443,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AR220" t="n">
         <v>1.3</v>
@@ -49530,7 +49530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.53</v>
@@ -51570,6 +51570,224 @@
         <v>3.04</v>
       </c>
       <c r="BP234" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>7063203</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>8</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S235" t="n">
+        <v>3</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X235" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP235" t="n">
         <v>1.31</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.93</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.07</v>
@@ -1791,7 +1791,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.9399999999999999</v>
@@ -2445,7 +2445,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.87</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.33</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.07</v>
@@ -5279,7 +5279,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.93</v>
@@ -5715,7 +5715,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.93</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.07</v>
@@ -8767,7 +8767,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.9399999999999999</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.8</v>
@@ -9418,10 +9418,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.9399999999999999</v>
@@ -11165,7 +11165,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -11380,10 +11380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.07</v>
@@ -12252,10 +12252,10 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -12470,10 +12470,10 @@
         <v>0.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -12688,7 +12688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.8</v>
@@ -12909,7 +12909,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR57" t="n">
         <v>0</v>
@@ -14868,10 +14868,10 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
@@ -15086,10 +15086,10 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -15304,10 +15304,10 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -15522,10 +15522,10 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.8</v>
@@ -16176,10 +16176,10 @@
         <v>2.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>0</v>
@@ -16394,10 +16394,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR78" t="n">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.79</v>
@@ -18359,7 +18359,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -18574,10 +18574,10 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -18792,10 +18792,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19228,10 +19228,10 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.8</v>
@@ -19667,7 +19667,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.33</v>
@@ -20975,7 +20975,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.79</v>
@@ -21629,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -21844,10 +21844,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22062,10 +22062,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,10 +22934,10 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23152,10 +23152,10 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23370,7 +23370,7 @@
         <v>0.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.87</v>
@@ -23588,7 +23588,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.93</v>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR107" t="n">
         <v>0</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24896,7 +24896,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25114,7 +25114,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.79</v>
@@ -25332,7 +25332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114" t="n">
         <v>1</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -25768,7 +25768,7 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.8</v>
@@ -25989,7 +25989,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26207,7 +26207,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR118" t="n">
         <v>0</v>
@@ -26425,7 +26425,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -26640,7 +26640,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.87</v>
@@ -27515,7 +27515,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR124" t="n">
         <v>1.86</v>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR125" t="n">
         <v>0.65</v>
@@ -27948,7 +27948,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.93</v>
@@ -28384,10 +28384,10 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR128" t="n">
         <v>1.2</v>
@@ -28605,7 +28605,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28823,7 +28823,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29038,10 +29038,10 @@
         <v>0.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -29474,10 +29474,10 @@
         <v>1.33</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -29910,7 +29910,7 @@
         <v>0.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.87</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.07</v>
@@ -30567,7 +30567,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR138" t="n">
         <v>1.43</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31000,10 +31000,10 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR140" t="n">
         <v>1.14</v>
@@ -31218,10 +31218,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31872,7 +31872,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -32744,10 +32744,10 @@
         <v>0.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR148" t="n">
         <v>2.31</v>
@@ -33180,7 +33180,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33616,10 +33616,10 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -34273,7 +34273,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34706,10 +34706,10 @@
         <v>0.8</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR157" t="n">
         <v>1.37</v>
@@ -34924,7 +34924,7 @@
         <v>0.73</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.9399999999999999</v>
@@ -35142,10 +35142,10 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.97</v>
@@ -35360,10 +35360,10 @@
         <v>1.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR160" t="n">
         <v>1.3</v>
@@ -35799,7 +35799,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162" t="n">
         <v>1.92</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.33</v>
@@ -36453,7 +36453,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR165" t="n">
         <v>2.19</v>
@@ -36668,10 +36668,10 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.93</v>
@@ -37107,7 +37107,7 @@
         <v>1</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ169" t="n">
         <v>1</v>
@@ -37543,7 +37543,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -37976,7 +37976,7 @@
         <v>0.92</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.9399999999999999</v>
@@ -38630,7 +38630,7 @@
         <v>2.1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.8</v>
@@ -38848,10 +38848,10 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR176" t="n">
         <v>1.39</v>
@@ -39284,10 +39284,10 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39502,7 +39502,7 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.87</v>
@@ -39720,7 +39720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
         <v>1</v>
@@ -39941,7 +39941,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR181" t="n">
         <v>1.31</v>
@@ -40377,7 +40377,7 @@
         <v>1</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40592,7 +40592,7 @@
         <v>1.18</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.33</v>
@@ -40813,7 +40813,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -41031,7 +41031,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR186" t="n">
         <v>1.72</v>
@@ -41249,7 +41249,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR187" t="n">
         <v>1.43</v>
@@ -41682,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.07</v>
@@ -41903,7 +41903,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR190" t="n">
         <v>1.72</v>
@@ -42118,10 +42118,10 @@
         <v>1.08</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR191" t="n">
         <v>1.32</v>
@@ -42554,7 +42554,7 @@
         <v>0.85</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.9399999999999999</v>
@@ -42772,10 +42772,10 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -42993,7 +42993,7 @@
         <v>1</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43426,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.79</v>
@@ -43647,7 +43647,7 @@
         <v>1</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR198" t="n">
         <v>1.46</v>
@@ -43865,7 +43865,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44080,7 +44080,7 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.33</v>
@@ -44516,7 +44516,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ202" t="n">
         <v>1</v>
@@ -44734,10 +44734,10 @@
         <v>1.08</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR203" t="n">
         <v>1.24</v>
@@ -44955,7 +44955,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR204" t="n">
         <v>1.49</v>
@@ -45170,10 +45170,10 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR205" t="n">
         <v>1.25</v>
@@ -45606,10 +45606,10 @@
         <v>1.62</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR207" t="n">
         <v>1.59</v>
@@ -45824,10 +45824,10 @@
         <v>0.54</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR208" t="n">
         <v>1.32</v>
@@ -46042,7 +46042,7 @@
         <v>0.86</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.9399999999999999</v>
@@ -46699,7 +46699,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR212" t="n">
         <v>1.68</v>
@@ -46914,7 +46914,7 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.79</v>
@@ -47353,7 +47353,7 @@
         <v>1</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47786,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.93</v>
@@ -48225,7 +48225,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR219" t="n">
         <v>1.82</v>
@@ -48440,7 +48440,7 @@
         <v>1.85</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.8</v>
@@ -48658,10 +48658,10 @@
         <v>1.08</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR221" t="n">
         <v>1.24</v>
@@ -49094,10 +49094,10 @@
         <v>0.86</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49312,7 +49312,7 @@
         <v>1.07</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.07</v>
@@ -49533,7 +49533,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -49748,10 +49748,10 @@
         <v>1.21</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR226" t="n">
         <v>1.53</v>
@@ -50402,7 +50402,7 @@
         <v>1.69</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.79</v>
@@ -50841,7 +50841,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR231" t="n">
         <v>1.45</v>
@@ -51789,6 +51789,1532 @@
       </c>
       <c r="BP235" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7063204</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45234.60416666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>8</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X236" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>7063200</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>8</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['4', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X237" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7063206</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45234.83333333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>8</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>3</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['23', '49', '67']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X238" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7063202</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45235.60416666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S239" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7063201</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>8</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>2</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['70', '79']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S240" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X240" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7063199</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45235.83333333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>8</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X241" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7063205</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>2</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['62', '83']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S242" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X242" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -53251,31 +53251,31 @@
         <v>2.57</v>
       </c>
       <c r="AU242" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV242" t="n">
         <v>2</v>
       </c>
       <c r="AW242" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX242" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY242" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ242" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA242" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BB242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC242" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD242" t="n">
         <v>1.99</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.6899999999999999</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.8100000000000001</v>
@@ -2663,7 +2663,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.21</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.8100000000000001</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.8</v>
@@ -6369,7 +6369,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.79</v>
@@ -6805,7 +6805,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.21</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.56</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.4</v>
@@ -13124,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.79</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -14650,10 +14650,10 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17266,10 +17266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17920,10 +17920,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -19013,7 +19013,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR85" t="n">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.93</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.9399999999999999</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR101" t="n">
         <v>2.23</v>
@@ -23373,7 +23373,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.9399999999999999</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.25</v>
@@ -24678,7 +24678,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.07</v>
@@ -25335,7 +25335,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.25</v>
@@ -26643,7 +26643,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26861,7 +26861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27076,10 +27076,10 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -27951,7 +27951,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR126" t="n">
         <v>1.4</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.5</v>
@@ -29913,7 +29913,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.8</v>
@@ -30564,7 +30564,7 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.25</v>
@@ -31657,7 +31657,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -31875,7 +31875,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR144" t="n">
         <v>1.09</v>
@@ -32090,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.93</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.21</v>
@@ -32965,7 +32965,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33398,7 +33398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.9399999999999999</v>
@@ -33837,7 +33837,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -35578,7 +35578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.07</v>
@@ -35796,7 +35796,7 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.6899999999999999</v>
@@ -36014,10 +36014,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -38415,7 +38415,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR174" t="n">
         <v>1.95</v>
@@ -39069,7 +39069,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39284,10 +39284,10 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39505,7 +39505,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39723,7 +39723,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR180" t="n">
         <v>1.12</v>
@@ -40595,7 +40595,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -41028,7 +41028,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.25</v>
@@ -41246,7 +41246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.8100000000000001</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.8</v>
@@ -41900,7 +41900,7 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.6899999999999999</v>
@@ -43211,7 +43211,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR196" t="n">
         <v>1.32</v>
@@ -44083,7 +44083,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44301,7 +44301,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -44952,7 +44952,7 @@
         <v>1.18</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.21</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.8</v>
@@ -46481,7 +46481,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR211" t="n">
         <v>1.21</v>
@@ -46696,7 +46696,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.4</v>
@@ -47135,7 +47135,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR214" t="n">
         <v>1.35</v>
@@ -47571,7 +47571,7 @@
         <v>1</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR216" t="n">
         <v>1.27</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.5</v>
@@ -48876,7 +48876,7 @@
         <v>1.58</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.79</v>
@@ -49966,10 +49966,10 @@
         <v>1.08</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR227" t="n">
         <v>1.78</v>
@@ -50623,7 +50623,7 @@
         <v>1</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR230" t="n">
         <v>1.45</v>
@@ -50838,7 +50838,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.56</v>
@@ -51495,7 +51495,7 @@
         <v>1</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR234" t="n">
         <v>1.34</v>
@@ -53315,6 +53315,660 @@
       </c>
       <c r="BP242" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>7063214</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45240.6875</v>
+      </c>
+      <c r="F243" t="n">
+        <v>9</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>3</v>
+      </c>
+      <c r="L243" t="n">
+        <v>3</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>3</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['6', '12', '45+1']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S243" t="n">
+        <v>5</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U243" t="n">
+        <v>3</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X243" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>7063213</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>9</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['20', '72']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['81', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S244" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X244" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>7063212</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45240.89583333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>9</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['10', '70', '80']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S245" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.25</v>
@@ -3535,7 +3535,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.25</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.88</v>
@@ -7020,10 +7020,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.25</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.25</v>
@@ -8549,7 +8549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.8100000000000001</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.88</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.25</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.21</v>
@@ -11601,7 +11601,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.25</v>
@@ -12034,10 +12034,10 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -12473,7 +12473,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -12688,10 +12688,10 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.8100000000000001</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR61" t="n">
         <v>0</v>
@@ -13996,10 +13996,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ62" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>0.93</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14214,10 +14214,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR63" t="n">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.25</v>
@@ -14653,7 +14653,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -14871,7 +14871,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
@@ -15089,7 +15089,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.25</v>
@@ -15522,7 +15522,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.8100000000000001</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.21</v>
@@ -15961,7 +15961,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR71" t="n">
         <v>0</v>
@@ -16176,10 +16176,10 @@
         <v>2.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR72" t="n">
         <v>0</v>
@@ -16394,10 +16394,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -16612,10 +16612,10 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
@@ -16830,10 +16830,10 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR76" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.25</v>
@@ -17705,7 +17705,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -18138,10 +18138,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.8100000000000001</v>
@@ -18574,10 +18574,10 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -18792,10 +18792,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19010,10 +19010,10 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR85" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19449,7 +19449,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR87" t="n">
         <v>0</v>
@@ -19664,10 +19664,10 @@
         <v>1.6</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -19882,10 +19882,10 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR89" t="n">
         <v>0</v>
@@ -20321,7 +20321,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20536,10 +20536,10 @@
         <v>0.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR92" t="n">
         <v>0</v>
@@ -20757,7 +20757,7 @@
         <v>2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,10 +21190,10 @@
         <v>1.25</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21411,7 +21411,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.25</v>
@@ -21847,7 +21847,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.8100000000000001</v>
@@ -22280,10 +22280,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,10 +22498,10 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101" t="n">
         <v>2.23</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.21</v>
@@ -22937,7 +22937,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23152,10 +23152,10 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23370,7 +23370,7 @@
         <v>0.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.88</v>
@@ -23591,7 +23591,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.8100000000000001</v>
@@ -24027,7 +24027,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24242,10 +24242,10 @@
         <v>0.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24681,7 +24681,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -24896,10 +24896,10 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR112" t="n">
         <v>0</v>
@@ -25114,10 +25114,10 @@
         <v>1.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -25332,10 +25332,10 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -25553,7 +25553,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -25768,10 +25768,10 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR116" t="n">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.21</v>
@@ -26204,10 +26204,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR118" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.25</v>
@@ -27294,10 +27294,10 @@
         <v>1.83</v>
       </c>
       <c r="AP123" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -27512,7 +27512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
@@ -27730,10 +27730,10 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR125" t="n">
         <v>0.65</v>
@@ -27948,10 +27948,10 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126" t="n">
         <v>1.4</v>
@@ -28169,7 +28169,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -28384,7 +28384,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.8100000000000001</v>
@@ -28605,7 +28605,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28820,10 +28820,10 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29041,7 +29041,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -29256,10 +29256,10 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR132" t="n">
         <v>0.99</v>
@@ -29692,10 +29692,10 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR134" t="n">
         <v>0</v>
@@ -29910,7 +29910,7 @@
         <v>0.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.88</v>
@@ -30128,10 +30128,10 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30349,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR137" t="n">
         <v>2.03</v>
@@ -30782,10 +30782,10 @@
         <v>0.44</v>
       </c>
       <c r="AP139" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31003,7 +31003,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR140" t="n">
         <v>1.14</v>
@@ -31218,7 +31218,7 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.8100000000000001</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -31654,7 +31654,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.25</v>
@@ -31872,10 +31872,10 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144" t="n">
         <v>1.09</v>
@@ -32093,7 +32093,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32526,10 +32526,10 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR147" t="n">
         <v>0.99</v>
@@ -32747,7 +32747,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR148" t="n">
         <v>2.31</v>
@@ -32962,7 +32962,7 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.25</v>
@@ -33183,7 +33183,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR150" t="n">
         <v>1.52</v>
@@ -33401,7 +33401,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR151" t="n">
         <v>1.72</v>
@@ -33616,10 +33616,10 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -33834,7 +33834,7 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.88</v>
@@ -34052,10 +34052,10 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR154" t="n">
         <v>1.41</v>
@@ -34270,10 +34270,10 @@
         <v>1.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34488,10 +34488,10 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -34924,10 +34924,10 @@
         <v>0.73</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR158" t="n">
         <v>1.36</v>
@@ -35145,7 +35145,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR159" t="n">
         <v>1.97</v>
@@ -35360,7 +35360,7 @@
         <v>1.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.25</v>
@@ -35581,7 +35581,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR162" t="n">
         <v>1.92</v>
@@ -36450,7 +36450,7 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.8100000000000001</v>
@@ -36886,10 +36886,10 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37104,10 +37104,10 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,10 +37322,10 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -37540,10 +37540,10 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37758,10 +37758,10 @@
         <v>1.2</v>
       </c>
       <c r="AP171" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -37976,10 +37976,10 @@
         <v>0.92</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR172" t="n">
         <v>1.26</v>
@@ -38194,10 +38194,10 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR173" t="n">
         <v>1.1</v>
@@ -38412,10 +38412,10 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR174" t="n">
         <v>1.95</v>
@@ -38633,7 +38633,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR175" t="n">
         <v>1.81</v>
@@ -38848,10 +38848,10 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR176" t="n">
         <v>1.39</v>
@@ -39066,7 +39066,7 @@
         <v>0.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ177" t="n">
         <v>0.88</v>
@@ -39284,10 +39284,10 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39502,7 +39502,7 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.88</v>
@@ -39723,7 +39723,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180" t="n">
         <v>1.12</v>
@@ -39938,10 +39938,10 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR181" t="n">
         <v>1.31</v>
@@ -40156,10 +40156,10 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.21</v>
@@ -40810,10 +40810,10 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR188" t="n">
         <v>1.53</v>
@@ -41682,10 +41682,10 @@
         <v>1</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR189" t="n">
         <v>1.36</v>
@@ -41903,7 +41903,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR190" t="n">
         <v>1.72</v>
@@ -42336,10 +42336,10 @@
         <v>0.82</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42554,10 +42554,10 @@
         <v>0.85</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR193" t="n">
         <v>1.31</v>
@@ -42772,7 +42772,7 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.21</v>
@@ -42990,10 +42990,10 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43208,10 +43208,10 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR196" t="n">
         <v>1.32</v>
@@ -43429,7 +43429,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -43644,10 +43644,10 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR198" t="n">
         <v>1.46</v>
@@ -43862,10 +43862,10 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44298,7 +44298,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.88</v>
@@ -44516,10 +44516,10 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -44734,7 +44734,7 @@
         <v>1.08</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.25</v>
@@ -45391,7 +45391,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR206" t="n">
         <v>1.71</v>
@@ -45606,10 +45606,10 @@
         <v>1.62</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR207" t="n">
         <v>1.59</v>
@@ -45824,10 +45824,10 @@
         <v>0.54</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR208" t="n">
         <v>1.32</v>
@@ -46045,7 +46045,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46260,10 +46260,10 @@
         <v>1.15</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR210" t="n">
         <v>1.27</v>
@@ -46478,7 +46478,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.88</v>
@@ -46699,7 +46699,7 @@
         <v>2</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR212" t="n">
         <v>1.68</v>
@@ -46914,10 +46914,10 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47132,7 +47132,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.25</v>
@@ -47350,10 +47350,10 @@
         <v>1.23</v>
       </c>
       <c r="AP215" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47568,10 +47568,10 @@
         <v>1.08</v>
       </c>
       <c r="AP216" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR216" t="n">
         <v>1.27</v>
@@ -47789,7 +47789,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR217" t="n">
         <v>1.11</v>
@@ -48004,10 +48004,10 @@
         <v>1.08</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48225,7 +48225,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR219" t="n">
         <v>1.82</v>
@@ -48440,10 +48440,10 @@
         <v>1.85</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR220" t="n">
         <v>1.3</v>
@@ -48879,7 +48879,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -49094,7 +49094,7 @@
         <v>0.86</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.8100000000000001</v>
@@ -49312,10 +49312,10 @@
         <v>1.07</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR224" t="n">
         <v>1.42</v>
@@ -49530,10 +49530,10 @@
         <v>0.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -49969,7 +49969,7 @@
         <v>2</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227" t="n">
         <v>1.78</v>
@@ -50184,10 +50184,10 @@
         <v>1</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR228" t="n">
         <v>1.33</v>
@@ -50405,7 +50405,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -50620,7 +50620,7 @@
         <v>0.86</v>
       </c>
       <c r="AP230" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.88</v>
@@ -50841,7 +50841,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR231" t="n">
         <v>1.45</v>
@@ -51056,10 +51056,10 @@
         <v>0.8</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR232" t="n">
         <v>1.79</v>
@@ -51274,10 +51274,10 @@
         <v>0.92</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR233" t="n">
         <v>1.35</v>
@@ -51492,7 +51492,7 @@
         <v>1.21</v>
       </c>
       <c r="AP234" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.25</v>
@@ -51710,10 +51710,10 @@
         <v>1.71</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AR235" t="n">
         <v>1.33</v>
@@ -52149,7 +52149,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR237" t="n">
         <v>1.25</v>
@@ -52582,7 +52582,7 @@
         <v>1.23</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.21</v>
@@ -52800,10 +52800,10 @@
         <v>1.4</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR240" t="n">
         <v>1.24</v>
@@ -53018,10 +53018,10 @@
         <v>1.47</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR241" t="n">
         <v>1.59</v>
@@ -53236,10 +53236,10 @@
         <v>0.53</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AR242" t="n">
         <v>1.43</v>
@@ -53370,7 +53370,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>['6', '12', '45+1']</t>
+          <t>['5', '10', '45']</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
@@ -53457,7 +53457,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR243" t="n">
         <v>1.8</v>
@@ -53588,7 +53588,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>['20', '72']</t>
+          <t>['18', '72']</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -53806,7 +53806,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>['10', '70', '80']</t>
+          <t>['9', '70', '80']</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
@@ -53969,6 +53969,2404 @@
       </c>
       <c r="BP245" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7063208</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45241.41666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>9</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X246" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7063207</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45241.6875</v>
+      </c>
+      <c r="F247" t="n">
+        <v>9</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>4</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['30', '63']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['48', '87']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7063211</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45241.8125</v>
+      </c>
+      <c r="F248" t="n">
+        <v>9</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['32', '66']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7063209</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F249" t="n">
+        <v>9</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X249" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7063210</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>9</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>2</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['24', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2</v>
+      </c>
+      <c r="S250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X250" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7063217</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45244.6875</v>
+      </c>
+      <c r="F251" t="n">
+        <v>10</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>4</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X251" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7063216</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45244.79166666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S252" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X252" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7063215</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45244.89583333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>10</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S253" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X253" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>7063218</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45245.6875</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S254" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X254" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>7063220</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45245.79166666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>10</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>3</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['45', '75', '83']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S255" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X255" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>7063222</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45245.89583333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>10</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>3</v>
+      </c>
+      <c r="N256" t="n">
+        <v>4</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['8', '64', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S256" t="n">
+        <v>5</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X256" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP256"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.06</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.82</v>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.82</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.69</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.47</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.06</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.69</v>
@@ -9421,7 +9421,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -10511,7 +10511,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.31</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.47</v>
@@ -12470,7 +12470,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.82</v>
@@ -12909,7 +12909,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR57" t="n">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.73</v>
@@ -13781,7 +13781,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR61" t="n">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.9399999999999999</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.82</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.53</v>
@@ -15525,7 +15525,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.69</v>
@@ -17051,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR76" t="n">
         <v>0</v>
@@ -17266,10 +17266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.73</v>
@@ -17920,10 +17920,10 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -18359,7 +18359,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.47</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.69</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.07</v>
@@ -21408,10 +21408,10 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -21844,7 +21844,7 @@
         <v>0.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.53</v>
@@ -22065,7 +22065,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.47</v>
@@ -23373,7 +23373,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.07</v>
@@ -23809,7 +23809,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR107" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.88</v>
@@ -24678,7 +24678,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.06</v>
@@ -24899,7 +24899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR112" t="n">
         <v>0</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.53</v>
@@ -25989,7 +25989,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.25</v>
@@ -26640,10 +26640,10 @@
         <v>0.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26861,7 +26861,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27076,10 +27076,10 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.07</v>
@@ -28387,7 +28387,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR128" t="n">
         <v>1.2</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.47</v>
@@ -29038,7 +29038,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.53</v>
@@ -29259,7 +29259,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR132" t="n">
         <v>0.99</v>
@@ -29474,10 +29474,10 @@
         <v>1.33</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -29913,7 +29913,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -30564,7 +30564,7 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.25</v>
@@ -31000,7 +31000,7 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.47</v>
@@ -31221,7 +31221,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31657,7 +31657,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -32090,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.07</v>
@@ -32311,7 +32311,7 @@
         <v>2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -32744,7 +32744,7 @@
         <v>0.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.82</v>
@@ -32965,7 +32965,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33180,10 +33180,10 @@
         <v>0.78</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR150" t="n">
         <v>1.52</v>
@@ -33398,7 +33398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.88</v>
@@ -33837,7 +33837,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -34706,10 +34706,10 @@
         <v>0.8</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR157" t="n">
         <v>1.37</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.47</v>
@@ -35578,7 +35578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.06</v>
@@ -36014,10 +36014,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36232,10 +36232,10 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36453,7 +36453,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR165" t="n">
         <v>2.19</v>
@@ -36668,10 +36668,10 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -37325,7 +37325,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -38630,7 +38630,7 @@
         <v>2.1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.69</v>
@@ -39069,7 +39069,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39287,7 +39287,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39505,7 +39505,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39720,7 +39720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.9399999999999999</v>
@@ -40377,7 +40377,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40592,10 +40592,10 @@
         <v>1.18</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -41028,7 +41028,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.25</v>
@@ -41246,10 +41246,10 @@
         <v>0.92</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR187" t="n">
         <v>1.43</v>
@@ -41900,7 +41900,7 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.82</v>
@@ -42118,7 +42118,7 @@
         <v>1.08</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.25</v>
@@ -42775,7 +42775,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -43426,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.73</v>
@@ -44080,10 +44080,10 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44301,7 +44301,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -44519,7 +44519,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -44952,10 +44952,10 @@
         <v>1.18</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR204" t="n">
         <v>1.49</v>
@@ -45170,10 +45170,10 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR205" t="n">
         <v>1.25</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.69</v>
@@ -46042,7 +46042,7 @@
         <v>0.86</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.88</v>
@@ -46481,7 +46481,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR211" t="n">
         <v>1.21</v>
@@ -47135,7 +47135,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR214" t="n">
         <v>1.35</v>
@@ -47786,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.07</v>
@@ -48007,7 +48007,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.47</v>
@@ -48658,10 +48658,10 @@
         <v>1.08</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR221" t="n">
         <v>1.24</v>
@@ -48876,7 +48876,7 @@
         <v>1.58</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.73</v>
@@ -49097,7 +49097,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49748,7 +49748,7 @@
         <v>1.21</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.25</v>
@@ -50187,7 +50187,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR228" t="n">
         <v>1.33</v>
@@ -50402,7 +50402,7 @@
         <v>1.69</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.73</v>
@@ -50623,7 +50623,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR230" t="n">
         <v>1.45</v>
@@ -50838,7 +50838,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.53</v>
@@ -51495,7 +51495,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR234" t="n">
         <v>1.34</v>
@@ -51928,10 +51928,10 @@
         <v>0.8</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR236" t="n">
         <v>1.57</v>
@@ -52146,7 +52146,7 @@
         <v>1.29</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.31</v>
@@ -52364,7 +52364,7 @@
         <v>1.13</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.25</v>
@@ -52585,7 +52585,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR239" t="n">
         <v>1.28</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.9399999999999999</v>
@@ -53672,10 +53672,10 @@
         <v>0.87</v>
       </c>
       <c r="AP244" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR244" t="n">
         <v>1.56</v>
@@ -53893,7 +53893,7 @@
         <v>2</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AR245" t="n">
         <v>1.78</v>
@@ -54547,7 +54547,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR248" t="n">
         <v>1.45</v>
@@ -55768,7 +55768,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -55870,7 +55870,7 @@
         <v>4</v>
       </c>
       <c r="AV254" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW254" t="n">
         <v>1</v>
@@ -55882,7 +55882,7 @@
         <v>5</v>
       </c>
       <c r="AZ254" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA254" t="n">
         <v>4</v>
@@ -55986,7 +55986,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>['45', '75', '83']</t>
+          <t>['44', '74', '83']</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
@@ -56085,7 +56085,7 @@
         <v>2.73</v>
       </c>
       <c r="AU255" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV255" t="n">
         <v>4</v>
@@ -56097,7 +56097,7 @@
         <v>7</v>
       </c>
       <c r="AY255" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ255" t="n">
         <v>11</v>
@@ -56204,12 +56204,12 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>['8', '64', '90+5']</t>
+          <t>['7', '64', '90+2']</t>
         </is>
       </c>
       <c r="Q256" t="n">
@@ -56367,6 +56367,1096 @@
       </c>
       <c r="BP256" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>7063221</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45246.41666666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>10</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S257" t="n">
+        <v>4</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X257" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>7063219</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45246.6875</v>
+      </c>
+      <c r="F258" t="n">
+        <v>10</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>2</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>2</v>
+      </c>
+      <c r="N258" t="n">
+        <v>3</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['4', '34']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S258" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U258" t="n">
+        <v>3</v>
+      </c>
+      <c r="V258" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X258" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>7063230</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45248.6875</v>
+      </c>
+      <c r="F259" t="n">
+        <v>11</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>3</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>3</v>
+      </c>
+      <c r="L259" t="n">
+        <v>4</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>4</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['5', '31', '37', '74']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V259" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X259" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>7063228</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45248.79166666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>11</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S260" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X260" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>7063229</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45249.41666666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>11</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3</v>
+      </c>
+      <c r="N261" t="n">
+        <v>5</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['41', '62']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['77', '81', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S261" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X261" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.76</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.31</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.35</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.53</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.47</v>
@@ -4189,7 +4189,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.9399999999999999</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.82</v>
@@ -7020,10 +7020,10 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.53</v>
@@ -8331,7 +8331,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.82</v>
@@ -10075,7 +10075,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.06</v>
@@ -10508,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.35</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.53</v>
@@ -11383,7 +11383,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.82</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.88</v>
@@ -13563,7 +13563,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.06</v>
@@ -13996,10 +13996,10 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.76</v>
@@ -15743,7 +15743,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -16612,7 +16612,7 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.88</v>
@@ -16830,10 +16830,10 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.06</v>
@@ -17484,10 +17484,10 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR78" t="n">
         <v>0</v>
@@ -17705,7 +17705,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -18141,7 +18141,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -20321,7 +20321,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.88</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.82</v>
@@ -21193,7 +21193,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21626,10 +21626,10 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -22280,7 +22280,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.69</v>
@@ -22719,7 +22719,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -23152,7 +23152,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.31</v>
@@ -23591,7 +23591,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.76</v>
@@ -24460,10 +24460,10 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24681,7 +24681,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -25332,7 +25332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.9399999999999999</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.47</v>
@@ -26425,7 +26425,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -27297,7 +27297,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -27515,7 +27515,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR124" t="n">
         <v>1.86</v>
@@ -27730,7 +27730,7 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.82</v>
@@ -28169,7 +28169,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -28384,7 +28384,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.76</v>
@@ -28820,7 +28820,7 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.31</v>
@@ -29256,7 +29256,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -29477,7 +29477,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -30131,7 +30131,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.69</v>
@@ -30567,7 +30567,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR138" t="n">
         <v>1.43</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -31872,7 +31872,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.9399999999999999</v>
@@ -32093,7 +32093,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32308,10 +32308,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -32526,10 +32526,10 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147" t="n">
         <v>0.99</v>
@@ -32962,7 +32962,7 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.35</v>
@@ -34488,10 +34488,10 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -35363,7 +35363,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR160" t="n">
         <v>1.3</v>
@@ -35581,7 +35581,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -35796,7 +35796,7 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.82</v>
@@ -36671,7 +36671,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -36889,7 +36889,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37104,7 +37104,7 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.31</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.06</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.53</v>
@@ -38194,10 +38194,10 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR173" t="n">
         <v>1.1</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.91</v>
@@ -39502,7 +39502,7 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.82</v>
@@ -39938,7 +39938,7 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.47</v>
@@ -40159,7 +40159,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40374,10 +40374,10 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40810,7 +40810,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.31</v>
@@ -41031,7 +41031,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR186" t="n">
         <v>1.72</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.69</v>
@@ -41685,7 +41685,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR189" t="n">
         <v>1.36</v>
@@ -42121,7 +42121,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR191" t="n">
         <v>1.32</v>
@@ -42339,7 +42339,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42775,7 +42775,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.31</v>
@@ -43208,7 +43208,7 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.9399999999999999</v>
@@ -43429,7 +43429,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -43862,7 +43862,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.53</v>
@@ -44516,7 +44516,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.06</v>
@@ -44737,7 +44737,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR203" t="n">
         <v>1.24</v>
@@ -44955,7 +44955,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR204" t="n">
         <v>1.49</v>
@@ -46263,7 +46263,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210" t="n">
         <v>1.27</v>
@@ -46478,7 +46478,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.82</v>
@@ -46696,7 +46696,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.31</v>
@@ -46914,10 +46914,10 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47132,7 +47132,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.35</v>
@@ -47568,7 +47568,7 @@
         <v>1.08</v>
       </c>
       <c r="AP216" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.9399999999999999</v>
@@ -47789,7 +47789,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR217" t="n">
         <v>1.11</v>
@@ -48661,7 +48661,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR221" t="n">
         <v>1.24</v>
@@ -48879,7 +48879,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -49312,10 +49312,10 @@
         <v>1.07</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR224" t="n">
         <v>1.42</v>
@@ -49751,7 +49751,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR226" t="n">
         <v>1.53</v>
@@ -49966,7 +49966,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.9399999999999999</v>
@@ -50184,7 +50184,7 @@
         <v>1</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -50405,7 +50405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -51274,10 +51274,10 @@
         <v>0.92</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR233" t="n">
         <v>1.35</v>
@@ -51492,7 +51492,7 @@
         <v>1.21</v>
       </c>
       <c r="AP234" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.35</v>
@@ -52367,7 +52367,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR238" t="n">
         <v>1.19</v>
@@ -52585,7 +52585,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR239" t="n">
         <v>1.28</v>
@@ -53236,7 +53236,7 @@
         <v>0.53</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.82</v>
@@ -53890,7 +53890,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.35</v>
@@ -54108,10 +54108,10 @@
         <v>1.07</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR246" t="n">
         <v>1.39</v>
@@ -54329,7 +54329,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR247" t="n">
         <v>1.75</v>
@@ -54762,7 +54762,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.88</v>
@@ -54980,10 +54980,10 @@
         <v>0.93</v>
       </c>
       <c r="AP250" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR250" t="n">
         <v>1.32</v>
@@ -56070,7 +56070,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.69</v>
@@ -56727,7 +56727,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR258" t="n">
         <v>1.55</v>
@@ -56858,7 +56858,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>['5', '31', '37', '74']</t>
+          <t>['5', '30', '37', '74']</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
@@ -57076,7 +57076,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -57399,16 +57399,16 @@
         <v>4</v>
       </c>
       <c r="AW261" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX261" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY261" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ261" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA261" t="n">
         <v>7</v>
@@ -57457,6 +57457,1096 @@
       </c>
       <c r="BP261" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>7063223</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45249.6875</v>
+      </c>
+      <c r="F262" t="n">
+        <v>11</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>2</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['28', '47']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R262" t="n">
+        <v>2</v>
+      </c>
+      <c r="S262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>7063226</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45249.79166666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>11</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S263" t="n">
+        <v>4</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X263" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>7063225</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45249.89583333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>11</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['89', '90+1']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S264" t="n">
+        <v>4</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X264" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>7063224</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45250.6875</v>
+      </c>
+      <c r="F265" t="n">
+        <v>11</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['45+10']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S265" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X265" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>7063227</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45250.79166666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>11</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['40', '81']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S266" t="n">
+        <v>5</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V266" t="n">
+        <v>3</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X266" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -58384,7 +58384,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>['40', '81']</t>
+          <t>['39', '81']</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP266"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.06</v>
@@ -2009,7 +2009,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.06</v>
@@ -3753,7 +3753,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.88</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.82</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.24</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.88</v>
@@ -9639,7 +9639,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -11165,7 +11165,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.82</v>
@@ -12688,7 +12688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.69</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.76</v>
@@ -13127,7 +13127,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -15089,7 +15089,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.24</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.25</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.69</v>
@@ -16176,7 +16176,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.47</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -18574,10 +18574,10 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.82</v>
@@ -19013,7 +19013,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR85" t="n">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.47</v>
@@ -19664,10 +19664,10 @@
         <v>1.6</v>
       </c>
       <c r="AP88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ88" t="n">
         <v>1.24</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>1.31</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -21844,10 +21844,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.76</v>
@@ -22498,10 +22498,10 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR101" t="n">
         <v>2.23</v>
@@ -23155,7 +23155,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23370,10 +23370,10 @@
         <v>0.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -25114,7 +25114,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.63</v>
@@ -25335,7 +25335,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -25553,7 +25553,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -25768,7 +25768,7 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.69</v>
@@ -26640,10 +26640,10 @@
         <v>0.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.35</v>
@@ -27512,7 +27512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.24</v>
@@ -27951,7 +27951,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR126" t="n">
         <v>1.4</v>
@@ -28823,7 +28823,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29041,7 +29041,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -29474,7 +29474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.25</v>
@@ -29910,10 +29910,10 @@
         <v>0.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ136" t="n">
         <v>1</v>
@@ -31654,7 +31654,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.35</v>
@@ -31875,7 +31875,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR144" t="n">
         <v>1.09</v>
@@ -32744,7 +32744,7 @@
         <v>0.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.82</v>
@@ -33616,10 +33616,10 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -33837,7 +33837,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -34270,10 +34270,10 @@
         <v>1.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.47</v>
@@ -35360,7 +35360,7 @@
         <v>1.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.24</v>
@@ -36017,7 +36017,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37107,7 +37107,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37543,7 +37543,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37761,7 +37761,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -37976,7 +37976,7 @@
         <v>0.92</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.88</v>
@@ -38415,7 +38415,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR174" t="n">
         <v>1.95</v>
@@ -38630,7 +38630,7 @@
         <v>2.1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.69</v>
@@ -38848,7 +38848,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.47</v>
@@ -39066,10 +39066,10 @@
         <v>0.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39287,7 +39287,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39505,7 +39505,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39723,7 +39723,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR180" t="n">
         <v>1.12</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.63</v>
@@ -40592,7 +40592,7 @@
         <v>1.18</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.35</v>
@@ -40813,7 +40813,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -42336,7 +42336,7 @@
         <v>0.82</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ192" t="n">
         <v>1</v>
@@ -42554,7 +42554,7 @@
         <v>0.85</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.88</v>
@@ -42772,7 +42772,7 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.25</v>
@@ -42993,7 +42993,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43211,7 +43211,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR196" t="n">
         <v>1.32</v>
@@ -43426,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.63</v>
@@ -43865,7 +43865,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44301,7 +44301,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -44734,7 +44734,7 @@
         <v>1.08</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.24</v>
@@ -45606,7 +45606,7 @@
         <v>1.62</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.47</v>
@@ -46042,7 +46042,7 @@
         <v>0.86</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.88</v>
@@ -46260,7 +46260,7 @@
         <v>1.15</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ210" t="n">
         <v>1</v>
@@ -46481,7 +46481,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR211" t="n">
         <v>1.21</v>
@@ -46699,7 +46699,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR212" t="n">
         <v>1.68</v>
@@ -47353,7 +47353,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47571,7 +47571,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR216" t="n">
         <v>1.27</v>
@@ -49094,7 +49094,7 @@
         <v>0.86</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.76</v>
@@ -49530,7 +49530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.82</v>
@@ -49748,7 +49748,7 @@
         <v>1.21</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.24</v>
@@ -49969,7 +49969,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR227" t="n">
         <v>1.78</v>
@@ -50623,7 +50623,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR230" t="n">
         <v>1.45</v>
@@ -50841,7 +50841,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR231" t="n">
         <v>1.45</v>
@@ -51710,7 +51710,7 @@
         <v>1.71</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.69</v>
@@ -51928,7 +51928,7 @@
         <v>0.8</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.76</v>
@@ -52149,7 +52149,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR237" t="n">
         <v>1.25</v>
@@ -52582,7 +52582,7 @@
         <v>1.23</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.25</v>
@@ -53018,10 +53018,10 @@
         <v>1.47</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR241" t="n">
         <v>1.59</v>
@@ -53457,7 +53457,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR243" t="n">
         <v>1.8</v>
@@ -53675,7 +53675,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR244" t="n">
         <v>1.56</v>
@@ -55198,10 +55198,10 @@
         <v>1.4</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR251" t="n">
         <v>1.28</v>
@@ -55419,7 +55419,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR252" t="n">
         <v>1.23</v>
@@ -55634,10 +55634,10 @@
         <v>0.93</v>
       </c>
       <c r="AP253" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR253" t="n">
         <v>1.53</v>
@@ -55852,7 +55852,7 @@
         <v>1.5</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ254" t="n">
         <v>1.47</v>
@@ -56724,7 +56724,7 @@
         <v>1.21</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.25</v>
@@ -56945,7 +56945,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR259" t="n">
         <v>1.27</v>
@@ -58546,6 +58546,878 @@
         <v>2.93</v>
       </c>
       <c r="BP266" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>7063234</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45254.6875</v>
+      </c>
+      <c r="F267" t="n">
+        <v>12</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['6', '87']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S267" t="n">
+        <v>4</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X267" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>7063233</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>12</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2</v>
+      </c>
+      <c r="S268" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X268" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>7063231</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45254.89583333334</v>
+      </c>
+      <c r="F269" t="n">
+        <v>12</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X269" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>7063232</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45255.41666666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S270" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X270" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP270" t="n">
         <v>1.33</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.83</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.35</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.61</v>
@@ -3971,7 +3971,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.06</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.83</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.06</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.88</v>
@@ -11383,7 +11383,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.24</v>
@@ -12255,7 +12255,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR57" t="n">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.88</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.82</v>
@@ -15522,10 +15522,10 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15743,7 +15743,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -16179,7 +16179,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR72" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.24</v>
@@ -18359,7 +18359,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.69</v>
@@ -22065,7 +22065,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22280,7 +22280,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.69</v>
@@ -22719,7 +22719,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,10 +22934,10 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23152,7 +23152,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.24</v>
@@ -23809,7 +23809,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR107" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ114" t="n">
         <v>0.88</v>
@@ -25550,7 +25550,7 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.61</v>
@@ -25989,7 +25989,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26204,10 +26204,10 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR118" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ127" t="n">
         <v>1</v>
@@ -28384,10 +28384,10 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR128" t="n">
         <v>1.2</v>
@@ -28605,7 +28605,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -28820,7 +28820,7 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.24</v>
@@ -29477,7 +29477,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -31000,10 +31000,10 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR140" t="n">
         <v>1.14</v>
@@ -31221,7 +31221,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -31872,7 +31872,7 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.88</v>
@@ -32311,7 +32311,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -34488,7 +34488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.63</v>
@@ -34709,7 +34709,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR157" t="n">
         <v>1.37</v>
@@ -35145,7 +35145,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR159" t="n">
         <v>1.97</v>
@@ -36453,7 +36453,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR165" t="n">
         <v>2.19</v>
@@ -36668,10 +36668,10 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.06</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ173" t="n">
         <v>1</v>
@@ -38851,7 +38851,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR176" t="n">
         <v>1.39</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.94</v>
@@ -39502,7 +39502,7 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.83</v>
@@ -39720,7 +39720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.88</v>
@@ -39941,7 +39941,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR181" t="n">
         <v>1.31</v>
@@ -40377,7 +40377,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40810,7 +40810,7 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.24</v>
@@ -41249,7 +41249,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR187" t="n">
         <v>1.43</v>
@@ -42775,7 +42775,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -43208,7 +43208,7 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.88</v>
@@ -43647,7 +43647,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR198" t="n">
         <v>1.46</v>
@@ -44080,7 +44080,7 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.35</v>
@@ -44516,7 +44516,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.06</v>
@@ -44955,7 +44955,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR204" t="n">
         <v>1.49</v>
@@ -45173,7 +45173,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR205" t="n">
         <v>1.25</v>
@@ -45609,7 +45609,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR207" t="n">
         <v>1.59</v>
@@ -46914,7 +46914,7 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.63</v>
@@ -47132,7 +47132,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.35</v>
@@ -47786,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ217" t="n">
         <v>1</v>
@@ -48225,7 +48225,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR219" t="n">
         <v>1.82</v>
@@ -48661,7 +48661,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR221" t="n">
         <v>1.24</v>
@@ -49097,7 +49097,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49312,7 +49312,7 @@
         <v>1.07</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ224" t="n">
         <v>1</v>
@@ -50402,7 +50402,7 @@
         <v>1.69</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.63</v>
@@ -51274,7 +51274,7 @@
         <v>0.92</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ233" t="n">
         <v>1</v>
@@ -51931,7 +51931,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR236" t="n">
         <v>1.57</v>
@@ -52364,7 +52364,7 @@
         <v>1.13</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.24</v>
@@ -52585,7 +52585,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR239" t="n">
         <v>1.28</v>
@@ -52803,7 +52803,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR240" t="n">
         <v>1.24</v>
@@ -53236,7 +53236,7 @@
         <v>0.53</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.82</v>
@@ -54108,7 +54108,7 @@
         <v>1.07</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ246" t="n">
         <v>1</v>
@@ -55855,7 +55855,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR254" t="n">
         <v>1.31</v>
@@ -56070,7 +56070,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ255" t="n">
         <v>1.69</v>
@@ -56506,10 +56506,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AR257" t="n">
         <v>1.17</v>
@@ -56727,7 +56727,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR258" t="n">
         <v>1.55</v>
@@ -57596,7 +57596,7 @@
         <v>1.73</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.63</v>
@@ -57814,10 +57814,10 @@
         <v>1.33</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR263" t="n">
         <v>1.48</v>
@@ -58602,7 +58602,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>['6', '87']</t>
+          <t>['4', '87']</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -59419,6 +59419,660 @@
       </c>
       <c r="BP270" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>7063238</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45255.6875</v>
+      </c>
+      <c r="F271" t="n">
+        <v>12</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2</v>
+      </c>
+      <c r="S271" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X271" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>7063235</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>12</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['31', '62']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X272" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>7063236</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45256.6875</v>
+      </c>
+      <c r="F273" t="n">
+        <v>12</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S273" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X273" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.61</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.88</v>
@@ -5933,7 +5933,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.35</v>
@@ -9203,7 +9203,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR71" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.78</v>
@@ -19449,7 +19449,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR87" t="n">
         <v>0</v>
@@ -22283,7 +22283,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.18</v>
@@ -25771,7 +25771,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR116" t="n">
         <v>0</v>
@@ -29692,7 +29692,7 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.88</v>
@@ -30349,7 +30349,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR137" t="n">
         <v>2.03</v>
@@ -33834,7 +33834,7 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.83</v>
@@ -34055,7 +34055,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR154" t="n">
         <v>1.41</v>
@@ -36450,7 +36450,7 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.78</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ174" t="n">
         <v>0.88</v>
@@ -38633,7 +38633,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR175" t="n">
         <v>1.81</v>
@@ -41467,7 +41467,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR188" t="n">
         <v>1.53</v>
@@ -44298,7 +44298,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.83</v>
@@ -45391,7 +45391,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR206" t="n">
         <v>1.71</v>
@@ -48004,7 +48004,7 @@
         <v>1.08</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.06</v>
@@ -48443,7 +48443,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR220" t="n">
         <v>1.3</v>
@@ -51056,7 +51056,7 @@
         <v>0.8</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.88</v>
@@ -51713,7 +51713,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR235" t="n">
         <v>1.33</v>
@@ -54326,7 +54326,7 @@
         <v>1.79</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.63</v>
@@ -56073,7 +56073,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR255" t="n">
         <v>1.47</v>
@@ -56288,7 +56288,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.82</v>
@@ -60012,7 +60012,7 @@
         <v>3</v>
       </c>
       <c r="AV273" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW273" t="n">
         <v>3</v>
@@ -60024,7 +60024,7 @@
         <v>6</v>
       </c>
       <c r="AZ273" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA273" t="n">
         <v>2</v>
@@ -60073,6 +60073,224 @@
       </c>
       <c r="BP273" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>7063237</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45256.8125</v>
+      </c>
+      <c r="F274" t="n">
+        <v>12</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>3</v>
+      </c>
+      <c r="L274" t="n">
+        <v>3</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="n">
+        <v>4</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['2', '26', '43']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X274" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.82</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.24</v>
@@ -3317,7 +3317,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.24</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.59</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.39</v>
@@ -8985,7 +8985,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.78</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10947,7 +10947,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -13345,7 +13345,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -14650,7 +14650,7 @@
         <v>1.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.88</v>
@@ -16394,7 +16394,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.24</v>
@@ -16615,7 +16615,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17266,10 +17266,10 @@
         <v>1.75</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17705,7 +17705,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.88</v>
@@ -19885,7 +19885,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR89" t="n">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.82</v>
@@ -21190,10 +21190,10 @@
         <v>1.25</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -24027,7 +24027,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24678,7 +24678,7 @@
         <v>0.57</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -24896,7 +24896,7 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.06</v>
@@ -25117,7 +25117,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.18</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.24</v>
@@ -26861,7 +26861,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27079,7 +27079,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -27297,7 +27297,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -27948,7 +27948,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.88</v>
@@ -28602,7 +28602,7 @@
         <v>2</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.39</v>
@@ -29256,7 +29256,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -29695,7 +29695,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR134" t="n">
         <v>0</v>
@@ -31218,7 +31218,7 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.78</v>
@@ -31439,7 +31439,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -31657,7 +31657,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -32090,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32962,10 +32962,10 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33401,7 +33401,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR151" t="n">
         <v>1.72</v>
@@ -34491,7 +34491,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -34924,10 +34924,10 @@
         <v>0.73</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR158" t="n">
         <v>1.36</v>
@@ -35578,7 +35578,7 @@
         <v>0.8</v>
       </c>
       <c r="AP161" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ161" t="n">
         <v>1</v>
@@ -36235,7 +36235,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.61</v>
@@ -37979,7 +37979,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR172" t="n">
         <v>1.26</v>
@@ -39938,7 +39938,7 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.39</v>
@@ -40159,7 +40159,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40595,7 +40595,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -41246,7 +41246,7 @@
         <v>0.92</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.78</v>
@@ -41682,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
         <v>1</v>
@@ -42557,7 +42557,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR193" t="n">
         <v>1.31</v>
@@ -43429,7 +43429,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -43862,7 +43862,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ199" t="n">
         <v>1.61</v>
@@ -44083,7 +44083,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44952,7 +44952,7 @@
         <v>1.18</v>
       </c>
       <c r="AP204" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.18</v>
@@ -45824,7 +45824,7 @@
         <v>0.54</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.82</v>
@@ -46045,7 +46045,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46478,7 +46478,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.83</v>
@@ -46917,7 +46917,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47135,7 +47135,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR214" t="n">
         <v>1.35</v>
@@ -48440,7 +48440,7 @@
         <v>1.85</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.59</v>
@@ -48876,10 +48876,10 @@
         <v>1.58</v>
       </c>
       <c r="AP222" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -50184,7 +50184,7 @@
         <v>1</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -50405,7 +50405,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -50838,7 +50838,7 @@
         <v>1.36</v>
       </c>
       <c r="AP231" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ231" t="n">
         <v>1.61</v>
@@ -51059,7 +51059,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR232" t="n">
         <v>1.79</v>
@@ -51495,7 +51495,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR234" t="n">
         <v>1.34</v>
@@ -52800,7 +52800,7 @@
         <v>1.4</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.39</v>
@@ -53251,10 +53251,10 @@
         <v>2.57</v>
       </c>
       <c r="AU242" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV242" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW242" t="n">
         <v>5</v>
@@ -53263,10 +53263,10 @@
         <v>5</v>
       </c>
       <c r="AY242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ242" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA242" t="n">
         <v>12</v>
@@ -53672,7 +53672,7 @@
         <v>0.87</v>
       </c>
       <c r="AP244" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ244" t="n">
         <v>0.83</v>
@@ -53893,7 +53893,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR245" t="n">
         <v>1.78</v>
@@ -54329,7 +54329,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR247" t="n">
         <v>1.75</v>
@@ -54762,10 +54762,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR249" t="n">
         <v>1.26</v>
@@ -55416,7 +55416,7 @@
         <v>1.56</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.61</v>
@@ -56076,13 +56076,13 @@
         <v>1.59</v>
       </c>
       <c r="AR255" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS255" t="n">
         <v>1.26</v>
       </c>
       <c r="AT255" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AU255" t="n">
         <v>7</v>
@@ -56297,10 +56297,10 @@
         <v>1.73</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT256" t="n">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU256" t="n">
         <v>8</v>
@@ -57160,7 +57160,7 @@
         <v>1.13</v>
       </c>
       <c r="AP260" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ260" t="n">
         <v>1.06</v>
@@ -57381,7 +57381,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR261" t="n">
         <v>1.81</v>
@@ -57599,7 +57599,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -57820,13 +57820,13 @@
         <v>1.18</v>
       </c>
       <c r="AR263" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS263" t="n">
         <v>1.28</v>
       </c>
       <c r="AT263" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="AU263" t="n">
         <v>4</v>
@@ -58250,7 +58250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.24</v>
@@ -59782,13 +59782,13 @@
         <v>1.39</v>
       </c>
       <c r="AR272" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS272" t="n">
         <v>1.45</v>
       </c>
       <c r="AT272" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="AU272" t="n">
         <v>4</v>
@@ -60018,13 +60018,13 @@
         <v>3</v>
       </c>
       <c r="AX273" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY273" t="n">
         <v>6</v>
       </c>
       <c r="AZ273" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA273" t="n">
         <v>2</v>
@@ -60128,7 +60128,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['2', '26', '43']</t>
+          <t>['1', '25', '42']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
@@ -60230,7 +60230,7 @@
         <v>6</v>
       </c>
       <c r="AV274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW274" t="n">
         <v>5</v>
@@ -60242,7 +60242,7 @@
         <v>11</v>
       </c>
       <c r="AZ274" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA274" t="n">
         <v>8</v>
@@ -60291,6 +60291,660 @@
       </c>
       <c r="BP274" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>7063239</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45258.6875</v>
+      </c>
+      <c r="F275" t="n">
+        <v>13</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X275" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>7063246</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45258.79166666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>13</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X276" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>7063243</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45258.88541666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>13</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>2</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>5</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>6</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['24', '34', '55', '72', '90+2']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X277" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.59</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.78</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.39</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.71</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.18</v>
@@ -5497,7 +5497,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.78</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.71</v>
@@ -7023,7 +7023,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.24</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.61</v>
@@ -7895,7 +7895,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.18</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.59</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.88</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.83</v>
@@ -10075,7 +10075,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.61</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.24</v>
@@ -11819,7 +11819,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.39</v>
@@ -12473,7 +12473,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.83</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.71</v>
@@ -13778,7 +13778,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.06</v>
@@ -13999,7 +13999,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR63" t="n">
         <v>0</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.44</v>
@@ -14871,7 +14871,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.61</v>
@@ -15307,7 +15307,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -16612,7 +16612,7 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.83</v>
@@ -16833,7 +16833,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.06</v>
@@ -17487,7 +17487,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>0</v>
@@ -17702,7 +17702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.71</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.83</v>
@@ -18138,10 +18138,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -18795,7 +18795,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19882,7 +19882,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.83</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.44</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20536,10 +20536,10 @@
         <v>0.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR92" t="n">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.83</v>
@@ -20975,7 +20975,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.06</v>
@@ -21626,10 +21626,10 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.78</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.83</v>
@@ -24242,10 +24242,10 @@
         <v>0.43</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR119" t="n">
         <v>1.62</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.44</v>
@@ -27294,7 +27294,7 @@
         <v>1.83</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.71</v>
@@ -27515,7 +27515,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR124" t="n">
         <v>1.86</v>
@@ -27730,10 +27730,10 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR125" t="n">
         <v>0.65</v>
@@ -28169,7 +28169,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -29038,7 +29038,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.61</v>
@@ -30131,7 +30131,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.59</v>
@@ -30564,10 +30564,10 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR138" t="n">
         <v>1.43</v>
@@ -30782,10 +30782,10 @@
         <v>0.44</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31436,7 +31436,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.71</v>
@@ -32093,7 +32093,7 @@
         <v>1</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.18</v>
@@ -32526,10 +32526,10 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR147" t="n">
         <v>0.99</v>
@@ -32747,7 +32747,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR148" t="n">
         <v>2.31</v>
@@ -33180,7 +33180,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.06</v>
@@ -33398,7 +33398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.83</v>
@@ -34052,7 +34052,7 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.59</v>
@@ -34706,7 +34706,7 @@
         <v>0.8</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.78</v>
@@ -35363,7 +35363,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR160" t="n">
         <v>1.3</v>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -35796,10 +35796,10 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR162" t="n">
         <v>1.92</v>
@@ -36014,7 +36014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.83</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.44</v>
@@ -36889,7 +36889,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37104,7 +37104,7 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.24</v>
@@ -37758,7 +37758,7 @@
         <v>1.2</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.24</v>
@@ -38197,7 +38197,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR173" t="n">
         <v>1.1</v>
@@ -39284,10 +39284,10 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.18</v>
@@ -41028,10 +41028,10 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR186" t="n">
         <v>1.72</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.59</v>
@@ -41685,7 +41685,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR189" t="n">
         <v>1.36</v>
@@ -41900,10 +41900,10 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR190" t="n">
         <v>1.72</v>
@@ -42118,10 +42118,10 @@
         <v>1.08</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR191" t="n">
         <v>1.32</v>
@@ -42339,7 +42339,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.24</v>
@@ -43644,7 +43644,7 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.39</v>
@@ -44737,7 +44737,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR203" t="n">
         <v>1.24</v>
@@ -45170,7 +45170,7 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.78</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.59</v>
@@ -45827,7 +45827,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR208" t="n">
         <v>1.32</v>
@@ -46263,7 +46263,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR210" t="n">
         <v>1.27</v>
@@ -46696,7 +46696,7 @@
         <v>1.38</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.24</v>
@@ -47350,7 +47350,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.61</v>
@@ -47568,7 +47568,7 @@
         <v>1.08</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.88</v>
@@ -47789,7 +47789,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR217" t="n">
         <v>1.11</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.39</v>
@@ -48658,7 +48658,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.18</v>
@@ -49315,7 +49315,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR224" t="n">
         <v>1.42</v>
@@ -49533,7 +49533,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -49751,7 +49751,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ226" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR226" t="n">
         <v>1.53</v>
@@ -49966,7 +49966,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.88</v>
@@ -50620,7 +50620,7 @@
         <v>0.86</v>
       </c>
       <c r="AP230" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.83</v>
@@ -51277,7 +51277,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR233" t="n">
         <v>1.35</v>
@@ -51492,7 +51492,7 @@
         <v>1.21</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.44</v>
@@ -52146,7 +52146,7 @@
         <v>1.29</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.24</v>
@@ -52367,7 +52367,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR238" t="n">
         <v>1.19</v>
@@ -53239,7 +53239,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR242" t="n">
         <v>1.43</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ243" t="n">
         <v>0.88</v>
@@ -53890,7 +53890,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.44</v>
@@ -54111,7 +54111,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR246" t="n">
         <v>1.39</v>
@@ -54544,7 +54544,7 @@
         <v>1</v>
       </c>
       <c r="AP248" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.06</v>
@@ -54980,10 +54980,10 @@
         <v>0.93</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250" t="n">
         <v>1.32</v>
@@ -56291,7 +56291,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR256" t="n">
         <v>1.73</v>
@@ -56942,7 +56942,7 @@
         <v>0.88</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.83</v>
@@ -57378,7 +57378,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.44</v>
@@ -58032,10 +58032,10 @@
         <v>1.06</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR264" t="n">
         <v>1.37</v>
@@ -58253,7 +58253,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR265" t="n">
         <v>1.29</v>
@@ -58468,10 +58468,10 @@
         <v>1.07</v>
       </c>
       <c r="AP266" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AQ266" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR266" t="n">
         <v>1.76</v>
@@ -60451,16 +60451,16 @@
         <v>6</v>
       </c>
       <c r="AW275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX275" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY275" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ275" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA275" t="n">
         <v>6</v>
@@ -60666,7 +60666,7 @@
         <v>4</v>
       </c>
       <c r="AV276" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW276" t="n">
         <v>7</v>
@@ -60678,7 +60678,7 @@
         <v>11</v>
       </c>
       <c r="AZ276" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA276" t="n">
         <v>2</v>
@@ -60782,7 +60782,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>['24', '34', '55', '72', '90+2']</t>
+          <t>['20', '33', '55', '72', '90+2']</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -60945,6 +60945,1096 @@
       </c>
       <c r="BP277" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>7063244</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45259.6875</v>
+      </c>
+      <c r="F278" t="n">
+        <v>13</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['1', '75']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V278" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X278" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>7063240</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45259.79166666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>13</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>3</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['2', '88', '90']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>7063242</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45259.88541666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>13</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S280" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X280" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>7063245</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45260.72916666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>13</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S281" t="n">
+        <v>4</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X281" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL281" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN281" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP281" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>7063241</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45260.85416666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>13</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>4</v>
+      </c>
+      <c r="R282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U282" t="n">
+        <v>3</v>
+      </c>
+      <c r="V282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X282" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL282" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM282" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO282" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP282" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.06</v>
@@ -1573,7 +1573,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.83</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.06</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.9399999999999999</v>
@@ -5933,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.06</v>
@@ -6366,10 +6366,10 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.83</v>
@@ -7020,7 +7020,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.9399999999999999</v>
@@ -7241,7 +7241,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.11</v>
@@ -8767,7 +8767,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.83</v>
@@ -9203,7 +9203,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.06</v>
@@ -10508,10 +10508,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -10944,7 +10944,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.83</v>
@@ -11165,7 +11165,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -11383,7 +11383,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -11601,7 +11601,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.33</v>
@@ -12034,7 +12034,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.11</v>
@@ -12470,7 +12470,7 @@
         <v>0.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.78</v>
@@ -12691,7 +12691,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR56" t="n">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.83</v>
@@ -13996,7 +13996,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.9399999999999999</v>
@@ -14435,7 +14435,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.78</v>
@@ -15089,7 +15089,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.33</v>
@@ -15522,7 +15522,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.78</v>
@@ -15743,7 +15743,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -15958,10 +15958,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR71" t="n">
         <v>0</v>
@@ -16397,7 +16397,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0.4</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.11</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR77" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.33</v>
@@ -18577,7 +18577,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.78</v>
@@ -19013,7 +19013,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR85" t="n">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.39</v>
@@ -19446,10 +19446,10 @@
         <v>2.2</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR87" t="n">
         <v>0</v>
@@ -19667,7 +19667,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR90" t="n">
         <v>0</v>
@@ -20972,7 +20972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.78</v>
@@ -21844,10 +21844,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.78</v>
@@ -22280,10 +22280,10 @@
         <v>2.33</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>2.23</v>
@@ -22719,7 +22719,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>2</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.39</v>
@@ -23152,10 +23152,10 @@
         <v>1.83</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR114" t="n">
         <v>0</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -25768,10 +25768,10 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR116" t="n">
         <v>0</v>
@@ -25986,10 +25986,10 @@
         <v>1</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR117" t="n">
         <v>0</v>
@@ -26204,7 +26204,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.39</v>
@@ -26640,7 +26640,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.83</v>
@@ -26861,7 +26861,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR121" t="n">
         <v>2.23</v>
@@ -27079,7 +27079,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR122" t="n">
         <v>1.45</v>
@@ -27951,7 +27951,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.4</v>
@@ -28166,7 +28166,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.9399999999999999</v>
@@ -28384,7 +28384,7 @@
         <v>0.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.78</v>
@@ -28820,10 +28820,10 @@
         <v>1.57</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29041,7 +29041,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -29256,7 +29256,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.06</v>
@@ -29474,10 +29474,10 @@
         <v>1.33</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR133" t="n">
         <v>2.29</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.11</v>
@@ -30349,7 +30349,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR137" t="n">
         <v>2.03</v>
@@ -31000,7 +31000,7 @@
         <v>1.88</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.39</v>
@@ -31657,7 +31657,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR143" t="n">
         <v>1.5</v>
@@ -31872,10 +31872,10 @@
         <v>1.38</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>1.09</v>
@@ -32311,7 +32311,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR146" t="n">
         <v>2.03</v>
@@ -32744,7 +32744,7 @@
         <v>0.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.78</v>
@@ -32962,10 +32962,10 @@
         <v>1.44</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR149" t="n">
         <v>1.09</v>
@@ -33616,10 +33616,10 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -34055,7 +34055,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR154" t="n">
         <v>1.41</v>
@@ -34273,7 +34273,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -34488,7 +34488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.71</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.39</v>
@@ -36235,7 +36235,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR164" t="n">
         <v>1.38</v>
@@ -36668,10 +36668,10 @@
         <v>1</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR166" t="n">
         <v>1.09</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.9399999999999999</v>
@@ -37107,7 +37107,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37322,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.06</v>
@@ -37540,10 +37540,10 @@
         <v>1</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37761,7 +37761,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.11</v>
@@ -38415,7 +38415,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR174" t="n">
         <v>1.95</v>
@@ -38630,10 +38630,10 @@
         <v>2.1</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR175" t="n">
         <v>1.81</v>
@@ -38848,7 +38848,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.39</v>
@@ -39287,7 +39287,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -39502,7 +39502,7 @@
         <v>0.64</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.83</v>
@@ -39720,10 +39720,10 @@
         <v>1.2</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR180" t="n">
         <v>1.12</v>
@@ -39938,7 +39938,7 @@
         <v>1.73</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.39</v>
@@ -40377,7 +40377,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR183" t="n">
         <v>1.24</v>
@@ -40592,10 +40592,10 @@
         <v>1.18</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR184" t="n">
         <v>1.68</v>
@@ -40810,10 +40810,10 @@
         <v>1.36</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -41467,7 +41467,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR188" t="n">
         <v>1.53</v>
@@ -42772,10 +42772,10 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR194" t="n">
         <v>1.47</v>
@@ -42993,7 +42993,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43208,10 +43208,10 @@
         <v>1.18</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.32</v>
@@ -43426,7 +43426,7 @@
         <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.71</v>
@@ -43862,10 +43862,10 @@
         <v>1.33</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -44080,10 +44080,10 @@
         <v>1.08</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR200" t="n">
         <v>1.11</v>
@@ -44516,7 +44516,7 @@
         <v>1.18</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.06</v>
@@ -44955,7 +44955,7 @@
         <v>1</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR204" t="n">
         <v>1.49</v>
@@ -45391,7 +45391,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR206" t="n">
         <v>1.71</v>
@@ -45606,7 +45606,7 @@
         <v>1.62</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.39</v>
@@ -46042,7 +46042,7 @@
         <v>0.86</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.83</v>
@@ -46478,7 +46478,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.83</v>
@@ -46699,7 +46699,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR212" t="n">
         <v>1.68</v>
@@ -46914,7 +46914,7 @@
         <v>1.45</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.71</v>
@@ -47132,10 +47132,10 @@
         <v>1.08</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR214" t="n">
         <v>1.35</v>
@@ -47353,7 +47353,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -47571,7 +47571,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR216" t="n">
         <v>1.27</v>
@@ -47786,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ217" t="n">
         <v>0.9399999999999999</v>
@@ -48443,7 +48443,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR220" t="n">
         <v>1.3</v>
@@ -48661,7 +48661,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR221" t="n">
         <v>1.24</v>
@@ -49312,7 +49312,7 @@
         <v>1.07</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.11</v>
@@ -49748,7 +49748,7 @@
         <v>1.21</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ226" t="n">
         <v>1.33</v>
@@ -49969,7 +49969,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR227" t="n">
         <v>1.78</v>
@@ -50184,7 +50184,7 @@
         <v>1</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.06</v>
@@ -50402,7 +50402,7 @@
         <v>1.69</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.71</v>
@@ -50841,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR231" t="n">
         <v>1.45</v>
@@ -51274,7 +51274,7 @@
         <v>0.92</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ233" t="n">
         <v>0.9399999999999999</v>
@@ -51495,7 +51495,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR234" t="n">
         <v>1.34</v>
@@ -51713,7 +51713,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR235" t="n">
         <v>1.33</v>
@@ -51928,7 +51928,7 @@
         <v>0.8</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.78</v>
@@ -52149,7 +52149,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR237" t="n">
         <v>1.25</v>
@@ -52364,7 +52364,7 @@
         <v>1.13</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.33</v>
@@ -52585,7 +52585,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR239" t="n">
         <v>1.28</v>
@@ -53018,10 +53018,10 @@
         <v>1.47</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR241" t="n">
         <v>1.59</v>
@@ -53236,7 +53236,7 @@
         <v>0.53</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.78</v>
@@ -53457,7 +53457,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR243" t="n">
         <v>1.8</v>
@@ -53893,7 +53893,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR245" t="n">
         <v>1.78</v>
@@ -54108,7 +54108,7 @@
         <v>1.07</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ246" t="n">
         <v>1.11</v>
@@ -54762,7 +54762,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP249" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.83</v>
@@ -55201,7 +55201,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR251" t="n">
         <v>1.28</v>
@@ -55419,7 +55419,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR252" t="n">
         <v>1.23</v>
@@ -55634,10 +55634,10 @@
         <v>0.93</v>
       </c>
       <c r="AP253" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR253" t="n">
         <v>1.53</v>
@@ -56070,10 +56070,10 @@
         <v>1.8</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR255" t="n">
         <v>1.48</v>
@@ -56506,7 +56506,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.78</v>
@@ -56724,10 +56724,10 @@
         <v>1.21</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ258" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR258" t="n">
         <v>1.55</v>
@@ -57381,7 +57381,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ261" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR261" t="n">
         <v>1.81</v>
@@ -57596,7 +57596,7 @@
         <v>1.73</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ262" t="n">
         <v>1.71</v>
@@ -57814,10 +57814,10 @@
         <v>1.33</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR263" t="n">
         <v>1.49</v>
@@ -58250,7 +58250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ265" t="n">
         <v>1.33</v>
@@ -58686,10 +58686,10 @@
         <v>1.31</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR267" t="n">
         <v>1.56</v>
@@ -58907,7 +58907,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR268" t="n">
         <v>1.29</v>
@@ -59122,7 +59122,7 @@
         <v>0.82</v>
       </c>
       <c r="AP269" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ269" t="n">
         <v>0.83</v>
@@ -59343,7 +59343,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ270" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR270" t="n">
         <v>1.26</v>
@@ -59558,7 +59558,7 @@
         <v>0.76</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ271" t="n">
         <v>0.78</v>
@@ -59776,7 +59776,7 @@
         <v>1.47</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ272" t="n">
         <v>1.39</v>
@@ -59994,10 +59994,10 @@
         <v>1.25</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR273" t="n">
         <v>1.18</v>
@@ -60215,7 +60215,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR274" t="n">
         <v>1.77</v>
@@ -60430,7 +60430,7 @@
         <v>1.63</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.71</v>
@@ -60651,7 +60651,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AR276" t="n">
         <v>1.18</v>
@@ -61762,13 +61762,13 @@
         <v>4</v>
       </c>
       <c r="AX281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY281" t="n">
         <v>9</v>
       </c>
       <c r="AZ281" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA281" t="n">
         <v>2</v>
@@ -62035,6 +62035,1314 @@
       </c>
       <c r="BP282" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>7063254</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45262.41666666666</v>
+      </c>
+      <c r="F283" t="n">
+        <v>14</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S283" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V283" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN283" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO283" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP283" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>7063251</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F284" t="n">
+        <v>14</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>2</v>
+      </c>
+      <c r="N284" t="n">
+        <v>3</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['15', '81']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X284" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP284" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>7063247</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45262.79166666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>14</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S285" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X285" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL285" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO285" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP285" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>7063250</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45262.89583333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>14</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2</v>
+      </c>
+      <c r="N286" t="n">
+        <v>2</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['77', '86']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S286" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V286" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X286" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL286" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN286" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO286" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP286" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>7063249</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45263.41666666666</v>
+      </c>
+      <c r="F287" t="n">
+        <v>14</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S287" t="n">
+        <v>4</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X287" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO287" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BP287" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>7063253</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F288" t="n">
+        <v>14</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['41', '86']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S288" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V288" t="n">
+        <v>3</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X288" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL288" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO288" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP288" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.68</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.83</v>
@@ -6805,7 +6805,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.42</v>
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR35" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.33</v>
@@ -9857,7 +9857,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.9399999999999999</v>
@@ -12255,7 +12255,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.78</v>
@@ -13127,7 +13127,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.11</v>
@@ -15740,7 +15740,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.11</v>
@@ -16179,7 +16179,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR72" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR80" t="n">
         <v>0</v>
@@ -18356,7 +18356,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.78</v>
@@ -19231,7 +19231,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19664,7 +19664,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.33</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.11</v>
@@ -22937,7 +22937,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23373,7 +23373,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -26207,7 +26207,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR118" t="n">
         <v>0</v>
@@ -26643,7 +26643,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR120" t="n">
         <v>0</v>
@@ -26858,7 +26858,7 @@
         <v>1.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.42</v>
@@ -27512,7 +27512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.33</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR129" t="n">
         <v>1.57</v>
@@ -29692,7 +29692,7 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.83</v>
@@ -29913,7 +29913,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR135" t="n">
         <v>1.05</v>
@@ -31003,7 +31003,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR140" t="n">
         <v>1.14</v>
@@ -31654,7 +31654,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.42</v>
@@ -33834,10 +33834,10 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR153" t="n">
         <v>0</v>
@@ -34270,7 +34270,7 @@
         <v>1.11</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.68</v>
@@ -35145,7 +35145,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR159" t="n">
         <v>1.97</v>
@@ -36017,7 +36017,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR163" t="n">
         <v>1.67</v>
@@ -36450,7 +36450,7 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ165" t="n">
         <v>0.78</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -38851,7 +38851,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR176" t="n">
         <v>1.39</v>
@@ -39066,10 +39066,10 @@
         <v>0.6</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ177" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR177" t="n">
         <v>1.34</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ178" t="n">
         <v>2</v>
@@ -39505,7 +39505,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR179" t="n">
         <v>1.36</v>
@@ -39941,7 +39941,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR181" t="n">
         <v>1.31</v>
@@ -40156,7 +40156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.71</v>
@@ -42336,7 +42336,7 @@
         <v>0.82</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.9399999999999999</v>
@@ -43647,7 +43647,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR198" t="n">
         <v>1.46</v>
@@ -44298,10 +44298,10 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR201" t="n">
         <v>1.95</v>
@@ -45609,7 +45609,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR207" t="n">
         <v>1.59</v>
@@ -46260,7 +46260,7 @@
         <v>1.15</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.11</v>
@@ -46481,7 +46481,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR211" t="n">
         <v>1.21</v>
@@ -48004,7 +48004,7 @@
         <v>1.08</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.06</v>
@@ -48225,7 +48225,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR219" t="n">
         <v>1.82</v>
@@ -49530,7 +49530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.78</v>
@@ -50623,7 +50623,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR230" t="n">
         <v>1.45</v>
@@ -51056,7 +51056,7 @@
         <v>0.8</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.83</v>
@@ -51710,7 +51710,7 @@
         <v>1.71</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.56</v>
@@ -52803,7 +52803,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR240" t="n">
         <v>1.24</v>
@@ -53675,7 +53675,7 @@
         <v>1</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR244" t="n">
         <v>1.56</v>
@@ -54326,7 +54326,7 @@
         <v>1.79</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.71</v>
@@ -55852,10 +55852,10 @@
         <v>1.5</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR254" t="n">
         <v>1.31</v>
@@ -56288,7 +56288,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.78</v>
@@ -56945,7 +56945,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR259" t="n">
         <v>1.27</v>
@@ -58904,7 +58904,7 @@
         <v>1.53</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.68</v>
@@ -59125,7 +59125,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ269" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR269" t="n">
         <v>1.58</v>
@@ -59779,7 +59779,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR272" t="n">
         <v>1.49</v>
@@ -60212,7 +60212,7 @@
         <v>1.69</v>
       </c>
       <c r="AP274" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.56</v>
@@ -63282,19 +63282,19 @@
         <v>3</v>
       </c>
       <c r="AV288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW288" t="n">
         <v>5</v>
       </c>
-      <c r="AW288" t="n">
-        <v>6</v>
-      </c>
       <c r="AX288" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY288" t="n">
         <v>8</v>
       </c>
-      <c r="AY288" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ288" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA288" t="n">
         <v>6</v>
@@ -63343,6 +63343,442 @@
       </c>
       <c r="BP288" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>7063248</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45264.70833333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>14</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="N289" t="n">
+        <v>2</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R289" t="n">
+        <v>2</v>
+      </c>
+      <c r="S289" t="n">
+        <v>4</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X289" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL289" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN289" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO289" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP289" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>7063252</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45264.85416666666</v>
+      </c>
+      <c r="F290" t="n">
+        <v>14</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S290" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X290" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL290" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN290" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO290" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP290" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.32</v>
@@ -4189,7 +4189,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.78</v>
@@ -4625,7 +4625,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.78</v>
@@ -6587,7 +6587,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.68</v>
@@ -8549,7 +8549,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.11</v>
@@ -8985,7 +8985,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.56</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.84</v>
@@ -10947,7 +10947,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.33</v>
@@ -12037,7 +12037,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR53" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.32</v>
@@ -13345,7 +13345,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR59" t="n">
         <v>0</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.06</v>
@@ -14217,7 +14217,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR63" t="n">
         <v>0</v>
@@ -15086,7 +15086,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.68</v>
@@ -16612,10 +16612,10 @@
         <v>0.8</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR74" t="n">
         <v>0</v>
@@ -16833,7 +16833,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -17702,10 +17702,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.84</v>
@@ -19885,7 +19885,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR89" t="n">
         <v>0</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.42</v>
@@ -20539,7 +20539,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR92" t="n">
         <v>0</v>
@@ -20757,7 +20757,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR93" t="n">
         <v>0</v>
@@ -21193,7 +21193,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.06</v>
@@ -21626,7 +21626,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.33</v>
@@ -23588,7 +23588,7 @@
         <v>0.71</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.9399999999999999</v>
@@ -23806,7 +23806,7 @@
         <v>0.43</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.78</v>
@@ -24024,10 +24024,10 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.42</v>
@@ -27297,7 +27297,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -27730,7 +27730,7 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.78</v>
@@ -29038,7 +29038,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.68</v>
@@ -29695,7 +29695,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR134" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR136" t="n">
         <v>1.05</v>
@@ -30564,7 +30564,7 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.33</v>
@@ -31436,10 +31436,10 @@
         <v>1.57</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -32526,10 +32526,10 @@
         <v>0.89</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR147" t="n">
         <v>0.99</v>
@@ -33180,7 +33180,7 @@
         <v>0.78</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.06</v>
@@ -33398,10 +33398,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR151" t="n">
         <v>1.72</v>
@@ -34491,7 +34491,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -34706,7 +34706,7 @@
         <v>0.8</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.78</v>
@@ -34927,7 +34927,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR158" t="n">
         <v>1.36</v>
@@ -35581,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR161" t="n">
         <v>1.36</v>
@@ -36014,7 +36014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.84</v>
@@ -36232,7 +36232,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.42</v>
@@ -37104,7 +37104,7 @@
         <v>1.22</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.33</v>
@@ -37979,7 +37979,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR172" t="n">
         <v>1.26</v>
@@ -38197,7 +38197,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR173" t="n">
         <v>1.1</v>
@@ -39287,7 +39287,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -40159,7 +40159,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -40374,7 +40374,7 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.11</v>
@@ -41028,7 +41028,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.33</v>
@@ -41685,7 +41685,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR189" t="n">
         <v>1.36</v>
@@ -41900,7 +41900,7 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.78</v>
@@ -42118,7 +42118,7 @@
         <v>1.08</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.33</v>
@@ -42557,7 +42557,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR193" t="n">
         <v>1.31</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.33</v>
@@ -43429,7 +43429,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -45170,7 +45170,7 @@
         <v>0.92</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.78</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.56</v>
@@ -46045,7 +46045,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR209" t="n">
         <v>1.52</v>
@@ -46263,7 +46263,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR210" t="n">
         <v>1.27</v>
@@ -46917,7 +46917,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -47568,7 +47568,7 @@
         <v>1.08</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ216" t="n">
         <v>1</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.32</v>
@@ -48658,7 +48658,7 @@
         <v>1.08</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.11</v>
@@ -48879,7 +48879,7 @@
         <v>1</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -49315,7 +49315,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR224" t="n">
         <v>1.42</v>
@@ -50405,7 +50405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -51059,7 +51059,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR232" t="n">
         <v>1.79</v>
@@ -51492,7 +51492,7 @@
         <v>1.21</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.42</v>
@@ -52146,7 +52146,7 @@
         <v>1.29</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.33</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -54111,7 +54111,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR246" t="n">
         <v>1.39</v>
@@ -54329,7 +54329,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR247" t="n">
         <v>1.75</v>
@@ -54765,7 +54765,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR249" t="n">
         <v>1.26</v>
@@ -54980,7 +54980,7 @@
         <v>0.93</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ250" t="n">
         <v>0.9399999999999999</v>
@@ -56942,7 +56942,7 @@
         <v>0.88</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ259" t="n">
         <v>0.84</v>
@@ -57378,7 +57378,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.42</v>
@@ -57599,7 +57599,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -58032,10 +58032,10 @@
         <v>1.06</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ264" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR264" t="n">
         <v>1.37</v>
@@ -60433,7 +60433,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR275" t="n">
         <v>1.31</v>
@@ -60869,7 +60869,7 @@
         <v>1</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR277" t="n">
         <v>1.51</v>
@@ -61084,7 +61084,7 @@
         <v>1</v>
       </c>
       <c r="AP278" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.9399999999999999</v>
@@ -61302,7 +61302,7 @@
         <v>0.82</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ279" t="n">
         <v>0.78</v>
@@ -61523,7 +61523,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR280" t="n">
         <v>1.85</v>
@@ -61738,7 +61738,7 @@
         <v>1.06</v>
       </c>
       <c r="AP281" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ281" t="n">
         <v>1.06</v>
@@ -63779,6 +63779,660 @@
       </c>
       <c r="BP290" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>7063259</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45266.70833333334</v>
+      </c>
+      <c r="F291" t="n">
+        <v>15</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['10', '82']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R291" t="n">
+        <v>2</v>
+      </c>
+      <c r="S291" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X291" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN291" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO291" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP291" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>7063255</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45266.70833333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>15</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S292" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X292" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL292" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM292" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO292" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP292" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>7063260</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45266.8125</v>
+      </c>
+      <c r="F293" t="n">
+        <v>15</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>2</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['33', '60']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S293" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X293" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL293" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM293" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN293" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP293" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.56</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.68</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.79</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.67</v>
@@ -4407,7 +4407,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.05</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.11</v>
@@ -5497,7 +5497,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.67</v>
@@ -7023,7 +7023,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.42</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR45" t="n">
         <v>0</v>
@@ -10729,7 +10729,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.68</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.11</v>
@@ -11601,7 +11601,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -12473,7 +12473,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -12688,7 +12688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.56</v>
@@ -12909,7 +12909,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR57" t="n">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.84</v>
@@ -13781,7 +13781,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR61" t="n">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR62" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.05</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.42</v>
@@ -14871,7 +14871,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR66" t="n">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -16176,7 +16176,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.32</v>
@@ -16394,10 +16394,10 @@
         <v>1.25</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR73" t="n">
         <v>0</v>
@@ -17048,10 +17048,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR76" t="n">
         <v>0</v>
@@ -18138,10 +18138,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR81" t="n">
         <v>0</v>
@@ -18356,10 +18356,10 @@
         <v>0.6</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.68</v>
@@ -18795,7 +18795,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19010,7 +19010,7 @@
         <v>2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19667,7 +19667,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR88" t="n">
         <v>0</v>
@@ -19882,7 +19882,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.79</v>
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR91" t="n">
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.05</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.79</v>
@@ -20975,7 +20975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.67</v>
@@ -21411,7 +21411,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -22065,7 +22065,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.11</v>
@@ -23155,7 +23155,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23370,7 +23370,7 @@
         <v>0.6</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.84</v>
@@ -23591,7 +23591,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR106" t="n">
         <v>0</v>
@@ -23809,7 +23809,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR107" t="n">
         <v>0</v>
@@ -24242,10 +24242,10 @@
         <v>0.43</v>
       </c>
       <c r="AP109" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AQ109" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>0.78</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.33</v>
@@ -24896,10 +24896,10 @@
         <v>0.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR112" t="n">
         <v>0</v>
@@ -25114,7 +25114,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.67</v>
@@ -27294,7 +27294,7 @@
         <v>1.83</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.67</v>
@@ -27733,7 +27733,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR125" t="n">
         <v>0.65</v>
@@ -27948,7 +27948,7 @@
         <v>1.43</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28169,7 +28169,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR127" t="n">
         <v>0.95</v>
@@ -28387,7 +28387,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR128" t="n">
         <v>1.2</v>
@@ -28823,7 +28823,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR130" t="n">
         <v>1.26</v>
@@ -29259,7 +29259,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR132" t="n">
         <v>0.99</v>
@@ -29692,7 +29692,7 @@
         <v>0.89</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.79</v>
@@ -29910,7 +29910,7 @@
         <v>0.71</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.84</v>
@@ -30346,7 +30346,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.56</v>
@@ -30782,10 +30782,10 @@
         <v>0.44</v>
       </c>
       <c r="AP139" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AQ139" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>0.78</v>
       </c>
       <c r="AR139" t="n">
         <v>1.54</v>
@@ -31218,10 +31218,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR141" t="n">
         <v>1.53</v>
@@ -32093,7 +32093,7 @@
         <v>1</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR145" t="n">
         <v>1.28</v>
@@ -32308,7 +32308,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.11</v>
@@ -32747,7 +32747,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR148" t="n">
         <v>2.31</v>
@@ -33183,7 +33183,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR150" t="n">
         <v>1.52</v>
@@ -33619,7 +33619,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR152" t="n">
         <v>1.16</v>
@@ -33834,7 +33834,7 @@
         <v>0.63</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.84</v>
@@ -34052,7 +34052,7 @@
         <v>2</v>
       </c>
       <c r="AP154" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.56</v>
@@ -34709,7 +34709,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR157" t="n">
         <v>1.37</v>
@@ -34924,7 +34924,7 @@
         <v>0.73</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.79</v>
@@ -35360,7 +35360,7 @@
         <v>1.1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.33</v>
@@ -35796,10 +35796,10 @@
         <v>0.64</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR162" t="n">
         <v>1.92</v>
@@ -36450,10 +36450,10 @@
         <v>0.73</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR165" t="n">
         <v>2.19</v>
@@ -36889,7 +36889,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR167" t="n">
         <v>1.28</v>
@@ -37107,7 +37107,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR168" t="n">
         <v>1.22</v>
@@ -37325,7 +37325,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -37758,10 +37758,10 @@
         <v>1.2</v>
       </c>
       <c r="AP171" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR171" t="n">
         <v>1.51</v>
@@ -37976,7 +37976,7 @@
         <v>0.92</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.79</v>
@@ -38412,7 +38412,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ174" t="n">
         <v>1</v>
@@ -39284,7 +39284,7 @@
         <v>1.77</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AQ178" t="n">
         <v>2.03</v>
@@ -40813,7 +40813,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR185" t="n">
         <v>1.23</v>
@@ -41249,7 +41249,7 @@
         <v>1</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR187" t="n">
         <v>1.43</v>
@@ -41464,7 +41464,7 @@
         <v>2.18</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.56</v>
@@ -41682,7 +41682,7 @@
         <v>1</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.05</v>
@@ -41903,7 +41903,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR190" t="n">
         <v>1.72</v>
@@ -42339,7 +42339,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -42554,7 +42554,7 @@
         <v>0.85</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.79</v>
@@ -42993,7 +42993,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR195" t="n">
         <v>1.28</v>
@@ -43644,7 +43644,7 @@
         <v>1.67</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.32</v>
@@ -44298,7 +44298,7 @@
         <v>0.67</v>
       </c>
       <c r="AP201" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.84</v>
@@ -44519,7 +44519,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR202" t="n">
         <v>1.35</v>
@@ -44734,7 +44734,7 @@
         <v>1.08</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.33</v>
@@ -45173,7 +45173,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR205" t="n">
         <v>1.25</v>
@@ -45824,10 +45824,10 @@
         <v>0.54</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR208" t="n">
         <v>1.32</v>
@@ -46696,10 +46696,10 @@
         <v>1.38</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR212" t="n">
         <v>1.68</v>
@@ -47350,7 +47350,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.68</v>
@@ -47789,7 +47789,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR217" t="n">
         <v>1.11</v>
@@ -48004,10 +48004,10 @@
         <v>1.08</v>
       </c>
       <c r="AP218" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR218" t="n">
         <v>1.73</v>
@@ -48440,7 +48440,7 @@
         <v>1.85</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.56</v>
@@ -49094,10 +49094,10 @@
         <v>0.86</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR223" t="n">
         <v>1.25</v>
@@ -49533,7 +49533,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -49966,7 +49966,7 @@
         <v>1.08</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ227" t="n">
         <v>1</v>
@@ -50187,7 +50187,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR228" t="n">
         <v>1.33</v>
@@ -50620,7 +50620,7 @@
         <v>0.86</v>
       </c>
       <c r="AP230" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.84</v>
@@ -51056,7 +51056,7 @@
         <v>0.8</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.79</v>
@@ -51277,7 +51277,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ233" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR233" t="n">
         <v>1.35</v>
@@ -51931,7 +51931,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR236" t="n">
         <v>1.57</v>
@@ -52149,7 +52149,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR237" t="n">
         <v>1.25</v>
@@ -52582,7 +52582,7 @@
         <v>1.23</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.11</v>
@@ -52800,7 +52800,7 @@
         <v>1.4</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.32</v>
@@ -53239,7 +53239,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR242" t="n">
         <v>1.43</v>
@@ -53890,7 +53890,7 @@
         <v>1.33</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ245" t="n">
         <v>1.42</v>
@@ -54326,7 +54326,7 @@
         <v>1.79</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ247" t="n">
         <v>1.67</v>
@@ -54544,10 +54544,10 @@
         <v>1</v>
       </c>
       <c r="AP248" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR248" t="n">
         <v>1.45</v>
@@ -54983,7 +54983,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR250" t="n">
         <v>1.32</v>
@@ -55198,10 +55198,10 @@
         <v>1.4</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR251" t="n">
         <v>1.28</v>
@@ -55416,7 +55416,7 @@
         <v>1.56</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.68</v>
@@ -56288,10 +56288,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR256" t="n">
         <v>1.73</v>
@@ -56509,7 +56509,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR257" t="n">
         <v>1.17</v>
@@ -57163,7 +57163,7 @@
         <v>1</v>
       </c>
       <c r="AQ260" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR260" t="n">
         <v>1.56</v>
@@ -58468,10 +58468,10 @@
         <v>1.07</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR266" t="n">
         <v>1.76</v>
@@ -58689,7 +58689,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR267" t="n">
         <v>1.56</v>
@@ -59340,7 +59340,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ270" t="n">
         <v>1</v>
@@ -59561,7 +59561,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ271" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR271" t="n">
         <v>1.38</v>
@@ -60212,7 +60212,7 @@
         <v>1.69</v>
       </c>
       <c r="AP274" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.56</v>
@@ -60648,7 +60648,7 @@
         <v>1.35</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.42</v>
@@ -61087,7 +61087,7 @@
         <v>2.37</v>
       </c>
       <c r="AQ278" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR278" t="n">
         <v>1.82</v>
@@ -61305,7 +61305,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ279" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR279" t="n">
         <v>1.4</v>
@@ -61520,7 +61520,7 @@
         <v>1</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.05</v>
@@ -61741,7 +61741,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR281" t="n">
         <v>1.29</v>
@@ -61956,7 +61956,7 @@
         <v>1.24</v>
       </c>
       <c r="AP282" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AQ282" t="n">
         <v>1.33</v>
@@ -62395,7 +62395,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR284" t="n">
         <v>1.18</v>
@@ -63700,7 +63700,7 @@
         <v>1.39</v>
       </c>
       <c r="AP290" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ290" t="n">
         <v>1.32</v>
@@ -63834,7 +63834,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>['10', '82']</t>
+          <t>['12', '81']</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -64270,7 +64270,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>['33', '60']</t>
+          <t>['32', '59']</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
@@ -64433,6 +64433,1096 @@
       </c>
       <c r="BP293" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>7063262</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45267.70833333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>15</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S294" t="n">
+        <v>4</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X294" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL294" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM294" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN294" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO294" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP294" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>7063257</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45267.70833333334</v>
+      </c>
+      <c r="F295" t="n">
+        <v>15</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>2</v>
+      </c>
+      <c r="N295" t="n">
+        <v>2</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['19', '47']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S295" t="n">
+        <v>5</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V295" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X295" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN295" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP295" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>7063256</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45267.70833333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>15</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>2</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['72', '81']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R296" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S296" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X296" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL296" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN296" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>7063258</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45267.70833333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>15</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S297" t="n">
+        <v>5</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U297" t="n">
+        <v>3</v>
+      </c>
+      <c r="V297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X297" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN297" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>7063261</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45268.70833333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>15</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" t="n">
+        <v>2</v>
+      </c>
+      <c r="N298" t="n">
+        <v>5</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['60', '62', '88']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['38', '82']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S298" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X298" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL298" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN298" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,7 +4189,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.89</v>
@@ -6587,7 +6587,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.11</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.32</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -17705,7 +17705,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.84</v>
@@ -21193,7 +21193,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.17</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.79</v>
@@ -25117,7 +25117,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.42</v>
@@ -27297,7 +27297,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -30564,7 +30564,7 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.33</v>
@@ -31439,7 +31439,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -33398,7 +33398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.79</v>
@@ -34491,7 +34491,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -36014,7 +36014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.84</v>
@@ -39287,7 +39287,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -40159,7 +40159,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -41028,7 +41028,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.33</v>
@@ -41900,7 +41900,7 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.89</v>
@@ -43429,7 +43429,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.56</v>
@@ -46917,7 +46917,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.32</v>
@@ -48879,7 +48879,7 @@
         <v>1</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -50405,7 +50405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -54329,7 +54329,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR247" t="n">
         <v>1.75</v>
@@ -57378,7 +57378,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.42</v>
@@ -57599,7 +57599,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -60433,7 +60433,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR275" t="n">
         <v>1.31</v>
@@ -61084,7 +61084,7 @@
         <v>1</v>
       </c>
       <c r="AP278" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.89</v>
@@ -63918,7 +63918,7 @@
         <v>1.11</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AQ291" t="n">
         <v>1.05</v>
@@ -64139,7 +64139,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR292" t="n">
         <v>1.39</v>
@@ -65360,12 +65360,12 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>['60', '62', '88']</t>
+          <t>['60', '62', '87']</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>['38', '82']</t>
+          <t>['37', '82']</t>
         </is>
       </c>
       <c r="Q298" t="n">
@@ -65462,19 +65462,19 @@
         <v>7</v>
       </c>
       <c r="AV298" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW298" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX298" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY298" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ298" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA298" t="n">
         <v>3</v>
@@ -65523,6 +65523,224 @@
       </c>
       <c r="BP298" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>7280867</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45269.8125</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['120']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S299" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X299" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL299" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN299" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4189,7 +4189,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.89</v>
@@ -6587,7 +6587,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.11</v>
@@ -11598,7 +11598,7 @@
         <v>1.67</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.32</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -17705,7 +17705,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.84</v>
@@ -21193,7 +21193,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR95" t="n">
         <v>0</v>
@@ -21408,7 +21408,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.17</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.79</v>
@@ -25117,7 +25117,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR113" t="n">
         <v>1.26</v>
@@ -27076,7 +27076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.42</v>
@@ -27297,7 +27297,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR123" t="n">
         <v>1.28</v>
@@ -30564,7 +30564,7 @@
         <v>1.22</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.33</v>
@@ -31439,7 +31439,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR142" t="n">
         <v>1.12</v>
@@ -33398,7 +33398,7 @@
         <v>0.8</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ151" t="n">
         <v>0.79</v>
@@ -34491,7 +34491,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR156" t="n">
         <v>1.27</v>
@@ -36014,7 +36014,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.84</v>
@@ -39287,7 +39287,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -40159,7 +40159,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR182" t="n">
         <v>1.28</v>
@@ -41028,7 +41028,7 @@
         <v>1.09</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.33</v>
@@ -41900,7 +41900,7 @@
         <v>0.58</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.89</v>
@@ -43429,7 +43429,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR197" t="n">
         <v>1.65</v>
@@ -45388,7 +45388,7 @@
         <v>2</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.56</v>
@@ -46917,7 +46917,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR213" t="n">
         <v>1.46</v>
@@ -48222,7 +48222,7 @@
         <v>1.5</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.32</v>
@@ -48879,7 +48879,7 @@
         <v>1</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR222" t="n">
         <v>1.47</v>
@@ -50405,7 +50405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ243" t="n">
         <v>1</v>
@@ -54329,7 +54329,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR247" t="n">
         <v>1.75</v>
@@ -57378,7 +57378,7 @@
         <v>1.25</v>
       </c>
       <c r="AP261" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ261" t="n">
         <v>1.42</v>
@@ -57599,7 +57599,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR262" t="n">
         <v>1.4</v>
@@ -60433,7 +60433,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR275" t="n">
         <v>1.31</v>
@@ -61084,7 +61084,7 @@
         <v>1</v>
       </c>
       <c r="AP278" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ278" t="n">
         <v>0.89</v>
@@ -63918,7 +63918,7 @@
         <v>1.11</v>
       </c>
       <c r="AP291" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ291" t="n">
         <v>1.05</v>
@@ -64139,7 +64139,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AR292" t="n">
         <v>1.39</v>
@@ -64440,7 +64440,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>7063262</v>
+        <v>7063257</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -64460,31 +64460,31 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L294" t="n">
         <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
@@ -64493,164 +64493,164 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['19', '47']</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R294" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S294" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T294" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U294" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X294" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB294" t="n">
         <v>3.75</v>
       </c>
-      <c r="W294" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X294" t="n">
+      <c r="AC294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY294" t="n">
         <v>11</v>
       </c>
-      <c r="Y294" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z294" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AA294" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB294" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AC294" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AG294" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW294" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX294" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY294" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ294" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA294" t="n">
         <v>4</v>
       </c>
       <c r="BB294" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC294" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD294" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="BE294" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF294" t="n">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="BG294" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="BH294" t="n">
-        <v>3.65</v>
+        <v>3.34</v>
       </c>
       <c r="BI294" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BJ294" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="BK294" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BL294" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="BM294" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="BN294" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BO294" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="BP294" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="295">
@@ -64658,7 +64658,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>7063257</v>
+        <v>7063258</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -64678,12 +64678,12 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -64696,179 +64696,179 @@
         <v>1</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N295" t="n">
         <v>2</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>['19', '47']</t>
+          <t>['16']</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R295" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S295" t="n">
         <v>5</v>
       </c>
       <c r="T295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U295" t="n">
+        <v>3</v>
+      </c>
+      <c r="V295" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W295" t="n">
         <v>1.44</v>
       </c>
-      <c r="U295" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V295" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W295" t="n">
+      <c r="X295" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO295" t="n">
         <v>1.33</v>
       </c>
-      <c r="X295" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y295" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z295" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA295" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AB295" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC295" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD295" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE295" t="n">
+      <c r="AP295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS295" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF295" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG295" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH295" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI295" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ295" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK295" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL295" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM295" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AN295" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AO295" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AP295" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AQ295" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AR295" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AS295" t="n">
-        <v>1.15</v>
-      </c>
       <c r="AT295" t="n">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="AU295" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV295" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW295" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AX295" t="n">
         <v>6</v>
       </c>
       <c r="AY295" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ295" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB295" t="n">
         <v>6</v>
       </c>
       <c r="BC295" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD295" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BE295" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="BF295" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="BG295" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BH295" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BI295" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BJ295" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BK295" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BL295" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BM295" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN295" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="BO295" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="BP295" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="296">
@@ -64876,7 +64876,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>7063256</v>
+        <v>7063262</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -64896,12 +64896,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>La Luz</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Fénix</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -64917,10 +64917,10 @@
         <v>0</v>
       </c>
       <c r="M296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
@@ -64929,17 +64929,17 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>['72', '81']</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="R296" t="n">
         <v>1.95</v>
       </c>
       <c r="S296" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T296" t="n">
         <v>1.53</v>
@@ -64948,10 +64948,10 @@
         <v>2.38</v>
       </c>
       <c r="V296" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W296" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X296" t="n">
         <v>11</v>
@@ -64960,133 +64960,133 @@
         <v>1.05</v>
       </c>
       <c r="Z296" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AA296" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="AB296" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="AC296" t="n">
         <v>1.08</v>
       </c>
       <c r="AD296" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE296" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AF296" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AG296" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AH296" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AI296" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ296" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK296" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AL296" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AM296" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AN296" t="n">
-        <v>0.89</v>
+        <v>1.35</v>
       </c>
       <c r="AO296" t="n">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AP296" t="n">
-        <v>0.84</v>
+        <v>1.28</v>
       </c>
       <c r="AQ296" t="n">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="AT296" t="n">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="AU296" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV296" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW296" t="n">
         <v>4</v>
       </c>
       <c r="AX296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY296" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ296" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB296" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC296" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD296" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="BE296" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF296" t="n">
-        <v>1.93</v>
+        <v>2.19</v>
       </c>
       <c r="BG296" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BH296" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="BI296" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BJ296" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="BK296" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="BL296" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="BM296" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="BN296" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="BO296" t="n">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="BP296" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="297">
@@ -65094,7 +65094,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>7063258</v>
+        <v>7063256</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -65114,131 +65114,131 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>La Luz</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N297" t="n">
         <v>2</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>['16']</t>
+          <t>['72', '81']</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X297" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG297" t="n">
         <v>2.3</v>
       </c>
-      <c r="S297" t="n">
-        <v>5</v>
-      </c>
-      <c r="T297" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U297" t="n">
-        <v>3</v>
-      </c>
-      <c r="V297" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W297" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X297" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y297" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA297" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB297" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC297" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD297" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE297" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF297" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AG297" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AH297" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AI297" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ297" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AK297" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="AL297" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AM297" t="n">
-        <v>2.05</v>
+        <v>1.42</v>
       </c>
       <c r="AN297" t="n">
-        <v>2.17</v>
+        <v>0.89</v>
       </c>
       <c r="AO297" t="n">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP297" t="n">
-        <v>2.11</v>
+        <v>0.84</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.32</v>
+        <v>0.89</v>
       </c>
       <c r="AR297" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="AT297" t="n">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="AU297" t="n">
         <v>6</v>
@@ -65247,34 +65247,34 @@
         <v>7</v>
       </c>
       <c r="AW297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX297" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY297" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ297" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA297" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB297" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC297" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD297" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="BE297" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="BF297" t="n">
-        <v>2.92</v>
+        <v>1.93</v>
       </c>
       <c r="BG297" t="n">
         <v>1.24</v>
@@ -65662,10 +65662,10 @@
         <v>1.86</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR299" t="n">
         <v>1.78</v>
@@ -65677,13 +65677,13 @@
         <v>3.29</v>
       </c>
       <c r="AU299" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV299" t="n">
         <v>5</v>
       </c>
-      <c r="AV299" t="n">
-        <v>6</v>
-      </c>
       <c r="AW299" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX299" t="n">
         <v>7</v>
@@ -65692,7 +65692,7 @@
         <v>10</v>
       </c>
       <c r="AZ299" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA299" t="n">
         <v>2</v>
@@ -65741,6 +65741,224 @@
       </c>
       <c r="BP299" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>7282810</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45273.70833333334</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>2</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>2</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['70', '81']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S300" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X300" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL300" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -65895,10 +65895,10 @@
         <v>3.31</v>
       </c>
       <c r="AU300" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV300" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW300" t="n">
         <v>3</v>
@@ -65907,10 +65907,10 @@
         <v>1</v>
       </c>
       <c r="AY300" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ300" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA300" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP300"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.17</v>
@@ -2009,7 +2009,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.89</v>
@@ -7677,7 +7677,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.79</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.32</v>
@@ -11165,7 +11165,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.05</v>
@@ -15089,7 +15089,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR67" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.33</v>
@@ -18577,7 +18577,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR83" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.89</v>
@@ -21847,7 +21847,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR98" t="n">
         <v>0</v>
@@ -22062,7 +22062,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.89</v>
@@ -25553,7 +25553,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR115" t="n">
         <v>0</v>
@@ -25768,7 +25768,7 @@
         <v>2.43</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.56</v>
@@ -29041,7 +29041,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR131" t="n">
         <v>1.76</v>
@@ -30128,7 +30128,7 @@
         <v>0.63</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.05</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.32</v>
@@ -34273,7 +34273,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR155" t="n">
         <v>1.36</v>
@@ -36886,7 +36886,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.89</v>
@@ -37543,7 +37543,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -38848,7 +38848,7 @@
         <v>1.9</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.32</v>
@@ -39287,7 +39287,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ178" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AR178" t="n">
         <v>1.79</v>
@@ -42772,7 +42772,7 @@
         <v>1.2</v>
       </c>
       <c r="AP194" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.11</v>
@@ -43865,7 +43865,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR199" t="n">
         <v>1.22</v>
@@ -45606,7 +45606,7 @@
         <v>1.62</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.32</v>
@@ -47353,7 +47353,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR215" t="n">
         <v>1.4</v>
@@ -50841,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR231" t="n">
         <v>1.45</v>
@@ -53018,10 +53018,10 @@
         <v>1.47</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR241" t="n">
         <v>1.59</v>
@@ -55419,7 +55419,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ252" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR252" t="n">
         <v>1.23</v>
@@ -55634,7 +55634,7 @@
         <v>0.93</v>
       </c>
       <c r="AP253" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ253" t="n">
         <v>1</v>
@@ -58907,7 +58907,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR268" t="n">
         <v>1.29</v>
@@ -59122,7 +59122,7 @@
         <v>0.82</v>
       </c>
       <c r="AP269" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ269" t="n">
         <v>0.84</v>
@@ -62610,7 +62610,7 @@
         <v>1.44</v>
       </c>
       <c r="AP285" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.42</v>
@@ -62831,7 +62831,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ286" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR286" t="n">
         <v>1.46</v>
@@ -65662,10 +65662,10 @@
         <v>1.86</v>
       </c>
       <c r="AP299" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR299" t="n">
         <v>1.78</v>
@@ -65880,10 +65880,10 @@
         <v>1.89</v>
       </c>
       <c r="AP300" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR300" t="n">
         <v>1.77</v>
@@ -65959,6 +65959,224 @@
       </c>
       <c r="BP300" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>7282811</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45276.79166666666</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R301" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S301" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V301" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X301" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL301" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN301" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -66019,7 +66019,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q301" t="n">
@@ -66113,19 +66113,19 @@
         <v>3.1</v>
       </c>
       <c r="AU301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV301" t="n">
         <v>4</v>
       </c>
       <c r="AW301" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX301" t="n">
         <v>5</v>
       </c>
       <c r="AY301" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ301" t="n">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Primera División_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
